--- a/data/features/features_basic_stats.xlsx
+++ b/data/features/features_basic_stats.xlsx
@@ -4333,7 +4333,7 @@
         <v>658412.791666666</v>
       </c>
       <c r="G10">
-        <v>0.02861683669348698</v>
+        <v>0.02861683669348697</v>
       </c>
       <c r="H10">
         <v>0.7042266519010706</v>
@@ -4478,7 +4478,7 @@
         <v>658530</v>
       </c>
       <c r="G15">
-        <v>0.02861683669348698</v>
+        <v>0.02861683669348697</v>
       </c>
       <c r="H15">
         <v>0.7031192321889997</v>
@@ -24430,7 +24430,7 @@
         <v>0.00918895355216184</v>
       </c>
       <c r="G703">
-        <v>0.9884348194886934</v>
+        <v>0.9884348194886935</v>
       </c>
       <c r="H703">
         <v>0.6411960132890365</v>
@@ -24517,7 +24517,7 @@
         <v>658593830633.09</v>
       </c>
       <c r="G706">
-        <v>0.02861683669348698</v>
+        <v>0.02861683669348697</v>
       </c>
       <c r="H706">
         <v>0.7031192321889997</v>
@@ -24894,7 +24894,7 @@
         <v>658593830633.09</v>
       </c>
       <c r="G719">
-        <v>0.02861683669348698</v>
+        <v>0.02861683669348697</v>
       </c>
       <c r="H719">
         <v>0.7031192321889997</v>
@@ -29505,7 +29505,7 @@
         <v>658580502245.5861</v>
       </c>
       <c r="G878">
-        <v>0.02861683669348698</v>
+        <v>0.02861683669348697</v>
       </c>
       <c r="H878">
         <v>0.7031192321889997</v>
@@ -29882,7 +29882,7 @@
         <v>658580502245.5861</v>
       </c>
       <c r="G891">
-        <v>0.02861683669348698</v>
+        <v>0.02861683669348697</v>
       </c>
       <c r="H891">
         <v>0.7031192321889997</v>
@@ -31303,7 +31303,7 @@
         <v>371.737410071942</v>
       </c>
       <c r="G940">
-        <v>0.03880315998577581</v>
+        <v>0.03880315998577582</v>
       </c>
       <c r="H940">
         <v>0.7014581026208934</v>
@@ -31912,7 +31912,7 @@
         <v>0.0126411254849584</v>
       </c>
       <c r="G961">
-        <v>0.000916261805378228</v>
+        <v>0.0009162618053782282</v>
       </c>
       <c r="H961">
         <v>0.7189922480620154</v>
@@ -31999,7 +31999,7 @@
         <v>658805923432.687</v>
       </c>
       <c r="G964">
-        <v>0.02861683669348698</v>
+        <v>0.02861683669348697</v>
       </c>
       <c r="H964">
         <v>0.7031192321889997</v>
@@ -32376,7 +32376,7 @@
         <v>658805923432.687</v>
       </c>
       <c r="G977">
-        <v>0.02861683669348698</v>
+        <v>0.02861683669348697</v>
       </c>
       <c r="H977">
         <v>0.7031192321889997</v>
@@ -34493,7 +34493,7 @@
         <v>658534971282.095</v>
       </c>
       <c r="G1050">
-        <v>0.02861683669348698</v>
+        <v>0.02861683669348697</v>
       </c>
       <c r="H1050">
         <v>0.7031192321889997</v>
@@ -34870,7 +34870,7 @@
         <v>658534971282.095</v>
       </c>
       <c r="G1063">
-        <v>0.02861683669348698</v>
+        <v>0.02861683669348697</v>
       </c>
       <c r="H1063">
         <v>0.7031192321889997</v>
@@ -36523,7 +36523,7 @@
         <v>4.97546297396212</v>
       </c>
       <c r="G1120">
-        <v>0.02861683669348698</v>
+        <v>0.02861683669348697</v>
       </c>
       <c r="H1120">
         <v>0.6864156515319304</v>
@@ -36639,7 +36639,7 @@
         <v>329222.247032025</v>
       </c>
       <c r="G1124">
-        <v>0.02861683669348698</v>
+        <v>0.02861683669348697</v>
       </c>
       <c r="H1124">
         <v>0.7031192321889997</v>
@@ -36900,7 +36900,7 @@
         <v>0.008951466078705171</v>
       </c>
       <c r="G1133">
-        <v>0.008671338314842889</v>
+        <v>0.00867133831484289</v>
       </c>
       <c r="H1133">
         <v>0.6979512735326688</v>

--- a/data/features/features_basic_stats.xlsx
+++ b/data/features/features_basic_stats.xlsx
@@ -4104,7 +4104,7 @@
         <v>1</v>
       </c>
       <c r="H2">
-        <v>0.5179955703211516</v>
+        <v>0.5338685861941677</v>
       </c>
       <c r="I2">
         <v>0.03751510072592319</v>
@@ -4133,7 +4133,7 @@
         <v>1</v>
       </c>
       <c r="H3">
-        <v>0.5166112956810631</v>
+        <v>0.5324843115540789</v>
       </c>
       <c r="I3">
         <v>0.0990317396399044</v>
@@ -4191,7 +4191,7 @@
         <v>0.01891716566051106</v>
       </c>
       <c r="H5">
-        <v>0.7057954964931709</v>
+        <v>0.6941675895164267</v>
       </c>
       <c r="I5">
         <v>0.8421144281314282</v>
@@ -4220,7 +4220,7 @@
         <v>0.1615632234534642</v>
       </c>
       <c r="H6">
-        <v>0.6815245478036177</v>
+        <v>0.6582687338501292</v>
       </c>
       <c r="I6">
         <v>0.950909267362767</v>
@@ -4246,10 +4246,10 @@
         <v>152.88230767489</v>
       </c>
       <c r="G7">
-        <v>0.07835927299602624</v>
+        <v>0.07835927299602589</v>
       </c>
       <c r="H7">
-        <v>0.692875599852344</v>
+        <v>0.6812476928755998</v>
       </c>
       <c r="I7">
         <v>0.9285303565969744</v>
@@ -4278,7 +4278,7 @@
         <v>0.07523553636489462</v>
       </c>
       <c r="H8">
-        <v>0.6941675895164267</v>
+        <v>0.6941675895164268</v>
       </c>
       <c r="I8">
         <v>0.9483080277610895</v>
@@ -4307,7 +4307,7 @@
         <v>0.02695279451824432</v>
       </c>
       <c r="H9">
-        <v>0.7036729420450351</v>
+        <v>0.6920450350682908</v>
       </c>
       <c r="I9">
         <v>0.8758553700264511</v>
@@ -4336,7 +4336,7 @@
         <v>0.02861683669348698</v>
       </c>
       <c r="H10">
-        <v>0.7042266519010706</v>
+        <v>0.6925987449243263</v>
       </c>
       <c r="I10">
         <v>1</v>
@@ -4394,7 +4394,7 @@
         <v>1</v>
       </c>
       <c r="H12">
-        <v>0.5247323735695828</v>
+        <v>0.5406053894425987</v>
       </c>
       <c r="I12">
         <v>-0.4182057616751739</v>
@@ -4423,7 +4423,7 @@
         <v>0.05157553761876612</v>
       </c>
       <c r="H13">
-        <v>0.6951827242524916</v>
+        <v>0.6835548172757475</v>
       </c>
       <c r="I13">
         <v>0.9912497415191059</v>
@@ -4452,7 +4452,7 @@
         <v>0.02538373079979462</v>
       </c>
       <c r="H14">
-        <v>0.690845330380214</v>
+        <v>0.70671834625323</v>
       </c>
       <c r="I14">
         <v>-0.9585233394643189</v>
@@ -4481,7 +4481,7 @@
         <v>0.02861683669348698</v>
       </c>
       <c r="H15">
-        <v>0.7031192321889997</v>
+        <v>0.6914913252122554</v>
       </c>
       <c r="I15">
         <v>1</v>
@@ -4510,7 +4510,7 @@
         <v>0.4962383269027328</v>
       </c>
       <c r="H16">
-        <v>0.6689737910668143</v>
+        <v>0.6689737910668142</v>
       </c>
       <c r="I16">
         <v>0.5601698550958575</v>
@@ -4539,7 +4539,7 @@
         <v>0.06584414346105044</v>
       </c>
       <c r="H17">
-        <v>0.6973975636766334</v>
+        <v>0.6857696566998892</v>
       </c>
       <c r="I17">
         <v>0.425956252856952</v>
@@ -4568,7 +4568,7 @@
         <v>0.002809865702754899</v>
       </c>
       <c r="H18">
-        <v>0.7252676264304171</v>
+        <v>0.713639719453673</v>
       </c>
       <c r="I18">
         <v>0.9492796999082168</v>
@@ -4597,7 +4597,7 @@
         <v>1</v>
       </c>
       <c r="H19">
-        <v>0.6394425987449244</v>
+        <v>0.6394425987449243</v>
       </c>
       <c r="I19">
         <v>-0.5129276725110558</v>
@@ -4626,7 +4626,7 @@
         <v>1</v>
       </c>
       <c r="H20">
-        <v>0.6286452565522334</v>
+        <v>0.6286452565522332</v>
       </c>
       <c r="I20">
         <v>-0.5458150353653514</v>
@@ -4655,7 +4655,7 @@
         <v>1</v>
       </c>
       <c r="H21">
-        <v>0.6690660760428203</v>
+        <v>0.657438169066076</v>
       </c>
       <c r="I21">
         <v>0.60331435992875</v>
@@ -4684,7 +4684,7 @@
         <v>1</v>
       </c>
       <c r="H22">
-        <v>0.6411960132890365</v>
+        <v>0.6295681063122923</v>
       </c>
       <c r="I22">
         <v>0.694223750793893</v>
@@ -4742,7 +4742,7 @@
         <v>0.0764764843391168</v>
       </c>
       <c r="H24">
-        <v>0.691952750092285</v>
+        <v>0.6803248431155408</v>
       </c>
       <c r="I24">
         <v>0.6311831350739529</v>
@@ -4771,7 +4771,7 @@
         <v>0.00254515673641667</v>
       </c>
       <c r="H25">
-        <v>0.7257290513104467</v>
+        <v>0.7141011443337024</v>
       </c>
       <c r="I25">
         <v>0.6518123794852561</v>
@@ -4800,7 +4800,7 @@
         <v>1</v>
       </c>
       <c r="H26">
-        <v>0.4529346622369879</v>
+        <v>0.4529346622369878</v>
       </c>
       <c r="I26">
         <v>-0.45589511747487</v>
@@ -4829,7 +4829,7 @@
         <v>1</v>
       </c>
       <c r="H27">
-        <v>0.6232927279438907</v>
+        <v>0.6116648209671465</v>
       </c>
       <c r="I27">
         <v>0.713728065261652</v>
@@ -4858,7 +4858,7 @@
         <v>1</v>
       </c>
       <c r="H28">
-        <v>0.6305832410483574</v>
+        <v>0.6305832410483573</v>
       </c>
       <c r="I28">
         <v>-0.5254327060863635</v>
@@ -4887,7 +4887,7 @@
         <v>0.04590711914209894</v>
       </c>
       <c r="H29">
-        <v>0.696843853820598</v>
+        <v>0.6852159468438537</v>
       </c>
       <c r="I29">
         <v>0.6492786115676097</v>
@@ -4916,7 +4916,7 @@
         <v>1</v>
       </c>
       <c r="H30">
-        <v>0.6336286452565522</v>
+        <v>0.6495016611295681</v>
       </c>
       <c r="I30">
         <v>-0.5386633000663889</v>
@@ -4945,7 +4945,7 @@
         <v>0.002809865702754899</v>
       </c>
       <c r="H31">
-        <v>0.7252676264304171</v>
+        <v>0.713639719453673</v>
       </c>
       <c r="I31">
         <v>0.9492796999082168</v>
@@ -4974,7 +4974,7 @@
         <v>1</v>
       </c>
       <c r="H32">
-        <v>0.6378737541528239</v>
+        <v>0.6262458471760797</v>
       </c>
       <c r="I32">
         <v>0.5517016205391641</v>
@@ -5003,7 +5003,7 @@
         <v>1</v>
       </c>
       <c r="H33">
-        <v>0.6101882613510521</v>
+        <v>0.610188261351052</v>
       </c>
       <c r="I33">
         <v>-0.3416446277693734</v>
@@ -5032,7 +5032,7 @@
         <v>1</v>
       </c>
       <c r="H34">
-        <v>0.6533776301218162</v>
+        <v>0.6417497231450718</v>
       </c>
       <c r="I34">
         <v>0.6959829348192811</v>
@@ -5061,7 +5061,7 @@
         <v>1</v>
       </c>
       <c r="H35">
-        <v>0.6562384643779993</v>
+        <v>0.6446105574012551</v>
       </c>
       <c r="I35">
         <v>0.6962804145852154</v>
@@ -5119,7 +5119,7 @@
         <v>1</v>
       </c>
       <c r="H37">
-        <v>0.5001845699520118</v>
+        <v>0.5160575858250276</v>
       </c>
       <c r="I37">
         <v>-0.09670269074076092</v>
@@ -5206,7 +5206,7 @@
         <v>1</v>
       </c>
       <c r="H40">
-        <v>0.5645071982281283</v>
+        <v>0.5528792912513842</v>
       </c>
       <c r="I40">
         <v>0.4310372974326046</v>
@@ -5235,7 +5235,7 @@
         <v>1</v>
       </c>
       <c r="H41">
-        <v>0.6583610188261352</v>
+        <v>0.6583610188261351</v>
       </c>
       <c r="I41">
         <v>-0.5925035098984579</v>
@@ -5322,7 +5322,7 @@
         <v>1</v>
       </c>
       <c r="H44">
-        <v>0.6277224067921743</v>
+        <v>0.6160944998154301</v>
       </c>
       <c r="I44">
         <v>0.5399221473685738</v>
@@ -5380,7 +5380,7 @@
         <v>1</v>
       </c>
       <c r="H46">
-        <v>0.57484311554079</v>
+        <v>0.5748431155407899</v>
       </c>
       <c r="I46">
         <v>-0.1875355978073565</v>
@@ -5409,7 +5409,7 @@
         <v>1</v>
       </c>
       <c r="H47">
-        <v>0.4329088224437062</v>
+        <v>0.4212809154669619</v>
       </c>
       <c r="I47">
         <v>-0.2442925604663903</v>
@@ -5438,7 +5438,7 @@
         <v>1</v>
       </c>
       <c r="H48">
-        <v>0.6457179771133259</v>
+        <v>0.6340900701365817</v>
       </c>
       <c r="I48">
         <v>0.5824399870850249</v>
@@ -5467,7 +5467,7 @@
         <v>0.1237177066586885</v>
       </c>
       <c r="H49">
-        <v>0.6871539313399778</v>
+        <v>0.6755260243632335</v>
       </c>
       <c r="I49">
         <v>0.7986569876908679</v>
@@ -5496,7 +5496,7 @@
         <v>1</v>
       </c>
       <c r="H50">
-        <v>0.6462716869693614</v>
+        <v>0.6346437799926172</v>
       </c>
       <c r="I50">
         <v>0.581866794365298</v>
@@ -5525,7 +5525,7 @@
         <v>0.08990282235403965</v>
       </c>
       <c r="H51">
-        <v>0.6911221853082318</v>
+        <v>0.6794942783314876</v>
       </c>
       <c r="I51">
         <v>0.8181274011514644</v>
@@ -5554,7 +5554,7 @@
         <v>0.8842426990626495</v>
       </c>
       <c r="H52">
-        <v>0.6617755629383537</v>
+        <v>0.6501476559616093</v>
       </c>
       <c r="I52">
         <v>0.6858142057471641</v>
@@ -5583,7 +5583,7 @@
         <v>1</v>
       </c>
       <c r="H53">
-        <v>0.6062200073827981</v>
+        <v>0.5945921004060539</v>
       </c>
       <c r="I53">
         <v>0.4788662393115883</v>
@@ -5670,7 +5670,7 @@
         <v>0.03948465882331923</v>
       </c>
       <c r="H56">
-        <v>0.7000738279808046</v>
+        <v>0.6884459210040605</v>
       </c>
       <c r="I56">
         <v>0.9670559298237978</v>
@@ -5699,7 +5699,7 @@
         <v>1</v>
       </c>
       <c r="H57">
-        <v>0.642764857881137</v>
+        <v>0.6311369509043927</v>
       </c>
       <c r="I57">
         <v>0.5491367645084873</v>
@@ -5757,7 +5757,7 @@
         <v>1</v>
       </c>
       <c r="H59">
-        <v>0.6553156146179403</v>
+        <v>0.643687707641196</v>
       </c>
       <c r="I59">
         <v>0.7115135552822611</v>
@@ -5786,7 +5786,7 @@
         <v>1</v>
       </c>
       <c r="H60">
-        <v>0.6355666297526763</v>
+        <v>0.623938722775932</v>
       </c>
       <c r="I60">
         <v>0.6027738174272356</v>
@@ -5815,7 +5815,7 @@
         <v>0.1179746562695281</v>
       </c>
       <c r="H61">
-        <v>0.6867847914359543</v>
+        <v>0.67515688445921</v>
       </c>
       <c r="I61">
         <v>0.7716226070110902</v>
@@ -5844,7 +5844,7 @@
         <v>1</v>
       </c>
       <c r="H62">
-        <v>0.5276854928017719</v>
+        <v>0.5276854928017718</v>
       </c>
       <c r="I62">
         <v>-0.4755649394701233</v>
@@ -5873,7 +5873,7 @@
         <v>0.4013483834400957</v>
       </c>
       <c r="H63">
-        <v>0.5526024363233665</v>
+        <v>0.5684754521963824</v>
       </c>
       <c r="I63">
         <v>-0.7168355408508649</v>
@@ -5931,7 +5931,7 @@
         <v>0.03754056799553337</v>
       </c>
       <c r="H65">
-        <v>0.7020118124769287</v>
+        <v>0.6903839055001846</v>
       </c>
       <c r="I65">
         <v>0.9757154932541022</v>
@@ -5989,7 +5989,7 @@
         <v>1</v>
       </c>
       <c r="H67">
-        <v>0.6399963086009597</v>
+        <v>0.6399963086009598</v>
       </c>
       <c r="I67">
         <v>-0.6034340773955283</v>
@@ -6018,7 +6018,7 @@
         <v>1</v>
       </c>
       <c r="H68">
-        <v>0.6261535622000739</v>
+        <v>0.6145256552233296</v>
       </c>
       <c r="I68">
         <v>0.5952969174566206</v>
@@ -6076,7 +6076,7 @@
         <v>1</v>
       </c>
       <c r="H70">
-        <v>0.6304909560723514</v>
+        <v>0.6188630490956073</v>
       </c>
       <c r="I70">
         <v>0.6393638286371437</v>
@@ -6105,7 +6105,7 @@
         <v>0.2339149898149416</v>
       </c>
       <c r="H71">
-        <v>0.5819490586932448</v>
+        <v>0.5978220745662606</v>
       </c>
       <c r="I71">
         <v>-0.7312161480723675</v>
@@ -6134,7 +6134,7 @@
         <v>0.02910952336911734</v>
       </c>
       <c r="H72">
-        <v>0.7067183462532299</v>
+        <v>0.6950904392764857</v>
       </c>
       <c r="I72">
         <v>0.9273024752493209</v>
@@ -6163,7 +6163,7 @@
         <v>1</v>
       </c>
       <c r="H73">
-        <v>0.4559800664451827</v>
+        <v>0.4559800664451826</v>
       </c>
       <c r="I73">
         <v>-0.02317439932667995</v>
@@ -6192,7 +6192,7 @@
         <v>1</v>
       </c>
       <c r="H74">
-        <v>0.5289774824658546</v>
+        <v>0.5173495754891103</v>
       </c>
       <c r="I74">
         <v>0.2850073825771181</v>
@@ -6221,7 +6221,7 @@
         <v>1</v>
       </c>
       <c r="H75">
-        <v>0.6420265780730898</v>
+        <v>0.6303986710963455</v>
       </c>
       <c r="I75">
         <v>0.7168355408508649</v>
@@ -6250,7 +6250,7 @@
         <v>0.1179746562695281</v>
       </c>
       <c r="H76">
-        <v>0.4433370247323736</v>
+        <v>0.4433370247323735</v>
       </c>
       <c r="I76">
         <v>0.8598942858490326</v>
@@ -6279,7 +6279,7 @@
         <v>0.007104451350878645</v>
       </c>
       <c r="H77">
-        <v>0.67718715393134</v>
+        <v>0.6655592469545958</v>
       </c>
       <c r="I77">
         <v>0.9358423212128468</v>
@@ -6337,7 +6337,7 @@
         <v>0.8128976672650657</v>
       </c>
       <c r="H79">
-        <v>0.5380214101144334</v>
+        <v>0.5538944259874492</v>
       </c>
       <c r="I79">
         <v>-0.783960761693313</v>
@@ -6366,7 +6366,7 @@
         <v>0.2303736546280946</v>
       </c>
       <c r="H80">
-        <v>0.6808785529715763</v>
+        <v>0.669250645994832</v>
       </c>
       <c r="I80">
         <v>0.8432426745607641</v>
@@ -6424,7 +6424,7 @@
         <v>1</v>
       </c>
       <c r="H82">
-        <v>0.4213732004429679</v>
+        <v>0.4097452934662237</v>
       </c>
       <c r="I82">
         <v>-0.4072135215437024</v>
@@ -6453,7 +6453,7 @@
         <v>1</v>
       </c>
       <c r="H83">
-        <v>0.6435031376891842</v>
+        <v>0.6318752307124399</v>
       </c>
       <c r="I83">
         <v>0.645603648117715</v>
@@ -6482,7 +6482,7 @@
         <v>1</v>
       </c>
       <c r="H84">
-        <v>0.5925618309339239</v>
+        <v>0.6084348468069397</v>
       </c>
       <c r="I84">
         <v>-0.8049621076078638</v>
@@ -6511,7 +6511,7 @@
         <v>1</v>
       </c>
       <c r="H85">
-        <v>0.5892395717977114</v>
+        <v>0.577611664820967</v>
       </c>
       <c r="I85">
         <v>0.6589757263766602</v>
@@ -6540,7 +6540,7 @@
         <v>1</v>
       </c>
       <c r="H86">
-        <v>0.6501476559616095</v>
+        <v>0.6501476559616094</v>
       </c>
       <c r="I86">
         <v>-0.631128718043599</v>
@@ -6569,7 +6569,7 @@
         <v>0.1142868127003356</v>
       </c>
       <c r="H87">
-        <v>0.4432447397563677</v>
+        <v>0.4432447397563676</v>
       </c>
       <c r="I87">
         <v>0.8654121727269101</v>
@@ -6598,7 +6598,7 @@
         <v>1</v>
       </c>
       <c r="H88">
-        <v>0.5586932447397565</v>
+        <v>0.5586932447397562</v>
       </c>
       <c r="I88">
         <v>-0.06249614546034995</v>
@@ -6627,7 +6627,7 @@
         <v>0.04667902820587826</v>
       </c>
       <c r="H89">
-        <v>0.7004429678848284</v>
+        <v>0.6888150609080841</v>
       </c>
       <c r="I89">
         <v>0.9749572826311724</v>
@@ -6656,7 +6656,7 @@
         <v>1</v>
       </c>
       <c r="H90">
-        <v>0.6413805832410483</v>
+        <v>0.6572535991140642</v>
       </c>
       <c r="I90">
         <v>-0.6450776168242948</v>
@@ -6714,7 +6714,7 @@
         <v>0.04590711914209894</v>
       </c>
       <c r="H92">
-        <v>0.7018272425249169</v>
+        <v>0.6901993355481728</v>
       </c>
       <c r="I92">
         <v>0.9541046765995888</v>
@@ -6772,7 +6772,7 @@
         <v>1</v>
       </c>
       <c r="H94">
-        <v>0.6578995939461055</v>
+        <v>0.6462716869693613</v>
       </c>
       <c r="I94">
         <v>0.708248533461032</v>
@@ -6801,7 +6801,7 @@
         <v>1</v>
       </c>
       <c r="H95">
-        <v>0.6321520856404578</v>
+        <v>0.6205241786637135</v>
       </c>
       <c r="I95">
         <v>0.5749667149164337</v>
@@ -6830,7 +6830,7 @@
         <v>0.1566117416825746</v>
       </c>
       <c r="H96">
-        <v>0.6834625322997415</v>
+        <v>0.6718346253229974</v>
       </c>
       <c r="I96">
         <v>0.729997206592442</v>
@@ -6859,7 +6859,7 @@
         <v>1</v>
       </c>
       <c r="H97">
-        <v>0.5276854928017719</v>
+        <v>0.5276854928017718</v>
       </c>
       <c r="I97">
         <v>0.1519649989660765</v>
@@ -6888,7 +6888,7 @@
         <v>0.3309493836359915</v>
       </c>
       <c r="H98">
-        <v>0.5543558508674788</v>
+        <v>0.5702288667404947</v>
       </c>
       <c r="I98">
         <v>-0.7180689935388848</v>
@@ -6975,7 +6975,7 @@
         <v>0.0281320912724353</v>
       </c>
       <c r="H101">
-        <v>0.6771871539313399</v>
+        <v>0.6930601698043558</v>
       </c>
       <c r="I101">
         <v>-0.8402715047034455</v>
@@ -7004,7 +7004,7 @@
         <v>0.5777240752392887</v>
       </c>
       <c r="H102">
-        <v>0.6676818014027316</v>
+        <v>0.6560538944259874</v>
       </c>
       <c r="I102">
         <v>0.6314225700075097</v>
@@ -7062,7 +7062,7 @@
         <v>0.0281320912724353</v>
       </c>
       <c r="H104">
-        <v>0.7019195275009229</v>
+        <v>0.6902916205241787</v>
       </c>
       <c r="I104">
         <v>0.9997605650664433</v>
@@ -7091,7 +7091,7 @@
         <v>1</v>
       </c>
       <c r="H105">
-        <v>0.6557770394979697</v>
+        <v>0.6557770394979698</v>
       </c>
       <c r="I105">
         <v>-0.5878417842981474</v>
@@ -7178,7 +7178,7 @@
         <v>1</v>
       </c>
       <c r="H108">
-        <v>0.5985603543743079</v>
+        <v>0.5869324473975637</v>
       </c>
       <c r="I108">
         <v>0.6464271591770695</v>
@@ -7207,7 +7207,7 @@
         <v>0.647956017934407</v>
       </c>
       <c r="H109">
-        <v>0.666297526762643</v>
+        <v>0.6662975267626431</v>
       </c>
       <c r="I109">
         <v>-0.6119376453388187</v>
@@ -7236,7 +7236,7 @@
         <v>1</v>
       </c>
       <c r="H110">
-        <v>0.6435031376891843</v>
+        <v>0.63187523071244</v>
       </c>
       <c r="I110">
         <v>0.6074174040174281</v>
@@ -7265,7 +7265,7 @@
         <v>1</v>
       </c>
       <c r="H111">
-        <v>0.631967515688446</v>
+        <v>0.6203396087117017</v>
       </c>
       <c r="I111">
         <v>0.6146838914706747</v>
@@ -7294,7 +7294,7 @@
         <v>1</v>
       </c>
       <c r="H112">
-        <v>0.5437430786267996</v>
+        <v>0.5596160944998154</v>
       </c>
       <c r="I112">
         <v>-0.4279464101085076</v>
@@ -7323,7 +7323,7 @@
         <v>1</v>
       </c>
       <c r="H113">
-        <v>0.6018826135105205</v>
+        <v>0.5902547065337762</v>
       </c>
       <c r="I113">
         <v>0.6671781867519927</v>
@@ -7352,7 +7352,7 @@
         <v>0.4580459725471568</v>
       </c>
       <c r="H114">
-        <v>0.672296050203027</v>
+        <v>0.6722960502030269</v>
       </c>
       <c r="I114">
         <v>-0.6530587812761883</v>
@@ -7381,7 +7381,7 @@
         <v>1</v>
       </c>
       <c r="H115">
-        <v>0.6397194536729421</v>
+        <v>0.6280915466961978</v>
       </c>
       <c r="I115">
         <v>0.5986490065264159</v>
@@ -7410,7 +7410,7 @@
         <v>1</v>
       </c>
       <c r="H116">
-        <v>0.4941860465116279</v>
+        <v>0.5100590623846437</v>
       </c>
       <c r="I116">
         <v>0.05942339714637093</v>
@@ -7439,7 +7439,7 @@
         <v>0.0281320912724353</v>
       </c>
       <c r="H117">
-        <v>0.7019195275009229</v>
+        <v>0.6902916205241787</v>
       </c>
       <c r="I117">
         <v>0.9997605650664433</v>
@@ -7468,7 +7468,7 @@
         <v>0.9349921602748621</v>
       </c>
       <c r="H118">
-        <v>0.6611295681063123</v>
+        <v>0.6495016611295681</v>
       </c>
       <c r="I118">
         <v>0.6271199968075343</v>
@@ -7526,7 +7526,7 @@
         <v>1</v>
       </c>
       <c r="H120">
-        <v>0.5986526393503138</v>
+        <v>0.5870247323735696</v>
       </c>
       <c r="I120">
         <v>0.5731600695086868</v>
@@ -7555,7 +7555,7 @@
         <v>1</v>
       </c>
       <c r="H121">
-        <v>0.5967146548541898</v>
+        <v>0.5850867478774455</v>
       </c>
       <c r="I121">
         <v>0.5896593131119648</v>
@@ -7584,7 +7584,7 @@
         <v>1</v>
       </c>
       <c r="H122">
-        <v>0.6279069767441859</v>
+        <v>0.6279069767441861</v>
       </c>
       <c r="I122">
         <v>-0.2794278230648398</v>
@@ -7613,7 +7613,7 @@
         <v>1</v>
       </c>
       <c r="H123">
-        <v>0.5480804724990772</v>
+        <v>0.5480804724990771</v>
       </c>
       <c r="I123">
         <v>-0.1992933041658051</v>
@@ -7700,7 +7700,7 @@
         <v>1</v>
       </c>
       <c r="H126">
-        <v>0.4818198597268364</v>
+        <v>0.4701919527500922</v>
       </c>
       <c r="I126">
         <v>0.03868688077954211</v>
@@ -7729,7 +7729,7 @@
         <v>0.9092886729117814</v>
       </c>
       <c r="H127">
-        <v>0.6637135474344777</v>
+        <v>0.6637135474344776</v>
       </c>
       <c r="I127">
         <v>-0.5950139488987809</v>
@@ -7758,7 +7758,7 @@
         <v>1</v>
       </c>
       <c r="H128">
-        <v>0.6613141380583242</v>
+        <v>0.6613141380583241</v>
       </c>
       <c r="I128">
         <v>-0.5737042398122252</v>
@@ -7816,7 +7816,7 @@
         <v>0.9092886729117814</v>
       </c>
       <c r="H130">
-        <v>0.662421557770395</v>
+        <v>0.6507936507936507</v>
       </c>
       <c r="I130">
         <v>0.6386019902121902</v>
@@ -7845,7 +7845,7 @@
         <v>1</v>
       </c>
       <c r="H131">
-        <v>0.6537467700258397</v>
+        <v>0.6537467700258398</v>
       </c>
       <c r="I131">
         <v>-0.5835174442860305</v>
@@ -7874,7 +7874,7 @@
         <v>1</v>
       </c>
       <c r="H132">
-        <v>0.6464562569213732</v>
+        <v>0.6464562569213731</v>
       </c>
       <c r="I132">
         <v>-0.5743173383542115</v>
@@ -7903,7 +7903,7 @@
         <v>1</v>
       </c>
       <c r="H133">
-        <v>0.4782207456626061</v>
+        <v>0.4665928386858619</v>
       </c>
       <c r="I133">
         <v>-0.001120990825288683</v>
@@ -7932,7 +7932,7 @@
         <v>0.5860973481323202</v>
       </c>
       <c r="H134">
-        <v>0.6670358065706903</v>
+        <v>0.6554078995939461</v>
       </c>
       <c r="I134">
         <v>0.6304974804914947</v>
@@ -7961,7 +7961,7 @@
         <v>0.03116216332559966</v>
       </c>
       <c r="H135">
-        <v>0.6929678848283499</v>
+        <v>0.6813399778516057</v>
       </c>
       <c r="I135">
         <v>0.84190401561406</v>
@@ -7990,7 +7990,7 @@
         <v>0.5694624982111395</v>
       </c>
       <c r="H136">
-        <v>0.6672203765227022</v>
+        <v>0.655592469545958</v>
       </c>
       <c r="I136">
         <v>0.6305192473036363</v>
@@ -8019,7 +8019,7 @@
         <v>0.0281320912724353</v>
       </c>
       <c r="H137">
-        <v>0.7056109265411591</v>
+        <v>0.6939830195644149</v>
       </c>
       <c r="I137">
         <v>0.8456660463125206</v>
@@ -8048,7 +8048,7 @@
         <v>1</v>
       </c>
       <c r="H138">
-        <v>0.5201181247692875</v>
+        <v>0.5084902177925433</v>
       </c>
       <c r="I138">
         <v>0.1739240846148544</v>
@@ -8077,7 +8077,7 @@
         <v>1</v>
       </c>
       <c r="H139">
-        <v>0.6491325212255445</v>
+        <v>0.6375046142488001</v>
       </c>
       <c r="I139">
         <v>0.6273122703147845</v>
@@ -8164,7 +8164,7 @@
         <v>0.04083345271521285</v>
       </c>
       <c r="H142">
-        <v>0.7002583979328165</v>
+        <v>0.6886304909560723</v>
       </c>
       <c r="I142">
         <v>0.9867984284361635</v>
@@ -8193,7 +8193,7 @@
         <v>1</v>
       </c>
       <c r="H143">
-        <v>0.6538390550018456</v>
+        <v>0.6422111480251015</v>
       </c>
       <c r="I143">
         <v>0.5760913335437459</v>
@@ -8251,7 +8251,7 @@
         <v>1</v>
       </c>
       <c r="H145">
-        <v>0.5998523440383905</v>
+        <v>0.5882244370616463</v>
       </c>
       <c r="I145">
         <v>0.541804976618816</v>
@@ -8280,7 +8280,7 @@
         <v>0.7792676447321278</v>
       </c>
       <c r="H146">
-        <v>0.6654669619785899</v>
+        <v>0.6538390550018456</v>
       </c>
       <c r="I146">
         <v>0.7151449851078727</v>
@@ -8309,7 +8309,7 @@
         <v>0.2980131227630914</v>
       </c>
       <c r="H147">
-        <v>0.6857696566998893</v>
+        <v>0.674141749723145</v>
       </c>
       <c r="I147">
         <v>0.8269828658910428</v>
@@ -8338,7 +8338,7 @@
         <v>1</v>
       </c>
       <c r="H148">
-        <v>0.5207641196013288</v>
+        <v>0.5366371354743447</v>
       </c>
       <c r="I148">
         <v>-0.1080359442624497</v>
@@ -8367,7 +8367,7 @@
         <v>1</v>
       </c>
       <c r="H149">
-        <v>0.5810262089331856</v>
+        <v>0.5968992248062015</v>
       </c>
       <c r="I149">
         <v>-0.6789830545367479</v>
@@ -8396,7 +8396,7 @@
         <v>1</v>
       </c>
       <c r="H150">
-        <v>0.4870801033591732</v>
+        <v>0.4754521963824289</v>
       </c>
       <c r="I150">
         <v>0.197435869529728</v>
@@ -8425,7 +8425,7 @@
         <v>0.08029078625002468</v>
       </c>
       <c r="H151">
-        <v>0.6895533407161315</v>
+        <v>0.6779254337393872</v>
       </c>
       <c r="I151">
         <v>0.9669180733469015</v>
@@ -8454,7 +8454,7 @@
         <v>0.4716232738318063</v>
       </c>
       <c r="H152">
-        <v>0.6554078995939461</v>
+        <v>0.671280915466962</v>
       </c>
       <c r="I152">
         <v>-0.6823496548146375</v>
@@ -8483,7 +8483,7 @@
         <v>0.3409686415640461</v>
       </c>
       <c r="H153">
-        <v>0.6580841638981174</v>
+        <v>0.6739571797711332</v>
       </c>
       <c r="I153">
         <v>-0.7009784182057619</v>
@@ -8512,7 +8512,7 @@
         <v>0.5694624982111395</v>
       </c>
       <c r="H154">
-        <v>0.6689737910668143</v>
+        <v>0.6573458840900701</v>
       </c>
       <c r="I154">
         <v>0.757053354084361</v>
@@ -8570,7 +8570,7 @@
         <v>1</v>
       </c>
       <c r="H156">
-        <v>0.5460502030269473</v>
+        <v>0.534422296050203</v>
       </c>
       <c r="I156">
         <v>0.3483705727211056</v>
@@ -8599,7 +8599,7 @@
         <v>1</v>
       </c>
       <c r="H157">
-        <v>0.6402731635289776</v>
+        <v>0.6561461794019934</v>
       </c>
       <c r="I157">
         <v>-0.7578913763518099</v>
@@ -8628,7 +8628,7 @@
         <v>0.05157553761876612</v>
       </c>
       <c r="H158">
-        <v>0.6983204134366925</v>
+        <v>0.6866925064599483</v>
       </c>
       <c r="I158">
         <v>0.9119423614814495</v>
@@ -8686,7 +8686,7 @@
         <v>1</v>
       </c>
       <c r="H160">
-        <v>0.4622554448135844</v>
+        <v>0.4506275378368401</v>
       </c>
       <c r="I160">
         <v>0.1355963562356475</v>
@@ -8715,7 +8715,7 @@
         <v>1</v>
       </c>
       <c r="H161">
-        <v>0.581764488741233</v>
+        <v>0.5701365817644888</v>
       </c>
       <c r="I161">
         <v>0.5455597517132296</v>
@@ -8744,7 +8744,7 @@
         <v>0.1403498233315288</v>
       </c>
       <c r="H162">
-        <v>0.4125138427464008</v>
+        <v>0.4125138427464009</v>
       </c>
       <c r="I162">
         <v>0.8931938806235468</v>
@@ -8831,7 +8831,7 @@
         <v>1</v>
       </c>
       <c r="H165">
-        <v>0.5824104835732743</v>
+        <v>0.5982834994462901</v>
       </c>
       <c r="I165">
         <v>-0.6801729736004848</v>
@@ -8860,7 +8860,7 @@
         <v>0.302518335972301</v>
       </c>
       <c r="H166">
-        <v>0.6751568844592101</v>
+        <v>0.6519010705057217</v>
       </c>
       <c r="I166">
         <v>0.8259478775074934</v>
@@ -8889,7 +8889,7 @@
         <v>1</v>
       </c>
       <c r="H167">
-        <v>0.4752676264304172</v>
+        <v>0.4636397194536729</v>
       </c>
       <c r="I167">
         <v>-0.1903906779999202</v>
@@ -8947,7 +8947,7 @@
         <v>1</v>
       </c>
       <c r="H169">
-        <v>0.5688445921004061</v>
+        <v>0.5688445921004059</v>
       </c>
       <c r="I169">
         <v>0.4725248413743566</v>
@@ -8976,7 +8976,7 @@
         <v>1</v>
       </c>
       <c r="H170">
-        <v>0.5966223698781837</v>
+        <v>0.6124953857511998</v>
       </c>
       <c r="I170">
         <v>-0.7146443484286177</v>
@@ -9005,7 +9005,7 @@
         <v>1</v>
       </c>
       <c r="H171">
-        <v>0.6065891472868217</v>
+        <v>0.5949612403100775</v>
       </c>
       <c r="I171">
         <v>0.6911906083461214</v>
@@ -9034,7 +9034,7 @@
         <v>1</v>
       </c>
       <c r="H172">
-        <v>0.6438722775932078</v>
+        <v>0.6438722775932079</v>
       </c>
       <c r="I172">
         <v>-0.6420411465305516</v>
@@ -9092,7 +9092,7 @@
         <v>1</v>
       </c>
       <c r="H174">
-        <v>0.6035437430786268</v>
+        <v>0.6035437430786267</v>
       </c>
       <c r="I174">
         <v>-0.2480074297385443</v>
@@ -9121,7 +9121,7 @@
         <v>0.05420284277820584</v>
       </c>
       <c r="H175">
-        <v>0.6950904392764857</v>
+        <v>0.6834625322997416</v>
       </c>
       <c r="I175">
         <v>0.9868637288725881</v>
@@ -9150,7 +9150,7 @@
         <v>1</v>
       </c>
       <c r="H176">
-        <v>0.6362126245847175</v>
+        <v>0.6520856404577334</v>
       </c>
       <c r="I176">
         <v>-0.6869714745926886</v>
@@ -9179,7 +9179,7 @@
         <v>1</v>
       </c>
       <c r="H177">
-        <v>0.621077888519749</v>
+        <v>0.6094499815430048</v>
       </c>
       <c r="I177">
         <v>0.6274174765734685</v>
@@ -9208,7 +9208,7 @@
         <v>0.03568766255106064</v>
       </c>
       <c r="H178">
-        <v>0.7045957918050941</v>
+        <v>0.6929678848283498</v>
       </c>
       <c r="I178">
         <v>0.9780010085289628</v>
@@ -9266,7 +9266,7 @@
         <v>1</v>
       </c>
       <c r="H180">
-        <v>0.596437799926172</v>
+        <v>0.5848098929494279</v>
       </c>
       <c r="I180">
         <v>0.5480955853277176</v>
@@ -9295,7 +9295,7 @@
         <v>0.3117331810805082</v>
       </c>
       <c r="H181">
-        <v>0.6748800295311924</v>
+        <v>0.6632521225544481</v>
       </c>
       <c r="I181">
         <v>0.717212832261318</v>
@@ -9324,7 +9324,7 @@
         <v>0.2268827566047286</v>
       </c>
       <c r="H182">
-        <v>0.6627906976744186</v>
+        <v>0.6511627906976744</v>
       </c>
       <c r="I182">
         <v>0.8316228246792118</v>
@@ -9353,7 +9353,7 @@
         <v>1</v>
       </c>
       <c r="H183">
-        <v>0.5189184200812107</v>
+        <v>0.5347914359542266</v>
       </c>
       <c r="I183">
         <v>0.1108184684145417</v>
@@ -9382,7 +9382,7 @@
         <v>1</v>
       </c>
       <c r="H184">
-        <v>0.5989294942783314</v>
+        <v>0.6148025101513475</v>
       </c>
       <c r="I184">
         <v>-0.6866268334004478</v>
@@ -9411,7 +9411,7 @@
         <v>1</v>
       </c>
       <c r="H185">
-        <v>0.650516795865633</v>
+        <v>0.6505167958656332</v>
       </c>
       <c r="I185">
         <v>-0.6419649626880563</v>
@@ -9469,7 +9469,7 @@
         <v>0.07899978178979929</v>
       </c>
       <c r="H187">
-        <v>0.6719269102990033</v>
+        <v>0.6877999261720191</v>
       </c>
       <c r="I187">
         <v>-0.8828872950745333</v>
@@ -9498,7 +9498,7 @@
         <v>0.6387612300394864</v>
       </c>
       <c r="H188">
-        <v>0.6668512366186785</v>
+        <v>0.6552233296419343</v>
       </c>
       <c r="I188">
         <v>0.6395016851140402</v>
@@ -9556,7 +9556,7 @@
         <v>0.02495128224636893</v>
       </c>
       <c r="H190">
-        <v>0.7007198228128461</v>
+        <v>0.6890919158361019</v>
       </c>
       <c r="I190">
         <v>0.9992200225649287</v>
@@ -9643,7 +9643,7 @@
         <v>0.9349921602748621</v>
       </c>
       <c r="H193">
-        <v>0.6531007751937984</v>
+        <v>0.6414728682170543</v>
       </c>
       <c r="I193">
         <v>0.7314156771836648</v>
@@ -9672,7 +9672,7 @@
         <v>1</v>
       </c>
       <c r="H194">
-        <v>0.5986526393503138</v>
+        <v>0.5870247323735696</v>
       </c>
       <c r="I194">
         <v>0.6582574215759898</v>
@@ -9701,7 +9701,7 @@
         <v>1</v>
       </c>
       <c r="H195">
-        <v>0.6593761535622001</v>
+        <v>0.6593761535622</v>
       </c>
       <c r="I195">
         <v>-0.6034231939894577</v>
@@ -9730,7 +9730,7 @@
         <v>1</v>
       </c>
       <c r="H196">
-        <v>0.6337209302325583</v>
+        <v>0.6220930232558139</v>
       </c>
       <c r="I196">
         <v>0.605374951478148</v>
@@ -9759,7 +9759,7 @@
         <v>1</v>
       </c>
       <c r="H197">
-        <v>0.6410114433370248</v>
+        <v>0.6293835363602805</v>
       </c>
       <c r="I197">
         <v>0.6439130923747229</v>
@@ -9788,7 +9788,7 @@
         <v>1</v>
       </c>
       <c r="H198">
-        <v>0.5105204872646734</v>
+        <v>0.5263935031376892</v>
       </c>
       <c r="I198">
         <v>-0.0997826946587871</v>
@@ -9817,7 +9817,7 @@
         <v>1</v>
       </c>
       <c r="H199">
-        <v>0.5986526393503137</v>
+        <v>0.5870247323735696</v>
       </c>
       <c r="I199">
         <v>0.6122714031249887</v>
@@ -9875,7 +9875,7 @@
         <v>1</v>
       </c>
       <c r="H201">
-        <v>0.6333517903285345</v>
+        <v>0.6217238833517903</v>
       </c>
       <c r="I201">
         <v>0.5954710519537528</v>
@@ -9904,7 +9904,7 @@
         <v>1</v>
       </c>
       <c r="H202">
-        <v>0.5030454042081949</v>
+        <v>0.5189184200812107</v>
       </c>
       <c r="I202">
         <v>-0.0164049207506648</v>
@@ -9933,7 +9933,7 @@
         <v>0.02495128224636893</v>
       </c>
       <c r="H203">
-        <v>0.7007198228128461</v>
+        <v>0.6890919158361019</v>
       </c>
       <c r="I203">
         <v>0.9992200225649287</v>
@@ -9962,7 +9962,7 @@
         <v>1</v>
       </c>
       <c r="H204">
-        <v>0.6519933554817275</v>
+        <v>0.6403654485049833</v>
       </c>
       <c r="I204">
         <v>0.6312629467184718</v>
@@ -10020,7 +10020,7 @@
         <v>1</v>
       </c>
       <c r="H206">
-        <v>0.5996677740863788</v>
+        <v>0.5880398671096345</v>
       </c>
       <c r="I206">
         <v>0.4514654506274284</v>
@@ -10049,7 +10049,7 @@
         <v>1</v>
       </c>
       <c r="H207">
-        <v>0.6056662975267626</v>
+        <v>0.5940383905500185</v>
       </c>
       <c r="I207">
         <v>0.5004589169559839</v>
@@ -10107,7 +10107,7 @@
         <v>1</v>
       </c>
       <c r="H209">
-        <v>0.4552417866371355</v>
+        <v>0.4436138796603912</v>
       </c>
       <c r="I209">
         <v>-0.1683844309248356</v>
@@ -10194,7 +10194,7 @@
         <v>1</v>
       </c>
       <c r="H212">
-        <v>0.6411037283130306</v>
+        <v>0.6294758213362863</v>
       </c>
       <c r="I212">
         <v>0.5806442250833489</v>
@@ -10223,7 +10223,7 @@
         <v>0.5613112474322524</v>
       </c>
       <c r="H213">
-        <v>0.6687892211148024</v>
+        <v>0.6687892211148025</v>
       </c>
       <c r="I213">
         <v>-0.6454258858185593</v>
@@ -10252,7 +10252,7 @@
         <v>1</v>
       </c>
       <c r="H214">
-        <v>0.6590992986341824</v>
+        <v>0.6590992986341825</v>
       </c>
       <c r="I214">
         <v>-0.6151047165054109</v>
@@ -10310,7 +10310,7 @@
         <v>1</v>
       </c>
       <c r="H216">
-        <v>0.6590992986341824</v>
+        <v>0.6474713916574382</v>
       </c>
       <c r="I216">
         <v>0.6574447939227061</v>
@@ -10339,7 +10339,7 @@
         <v>1</v>
       </c>
       <c r="H217">
-        <v>0.6518087855297158</v>
+        <v>0.6518087855297157</v>
       </c>
       <c r="I217">
         <v>-0.6061912069334553</v>
@@ -10397,7 +10397,7 @@
         <v>1</v>
       </c>
       <c r="H219">
-        <v>0.5867478774455519</v>
+        <v>0.5751199704688077</v>
       </c>
       <c r="I219">
         <v>0.4505512445174843</v>
@@ -10426,7 +10426,7 @@
         <v>0.705765687248307</v>
       </c>
       <c r="H220">
-        <v>0.6656515319306018</v>
+        <v>0.6540236249538576</v>
       </c>
       <c r="I220">
         <v>0.6744011405809563</v>
@@ -10455,7 +10455,7 @@
         <v>0.05243758159967673</v>
       </c>
       <c r="H221">
-        <v>0.6946290143964562</v>
+        <v>0.683001107419712</v>
       </c>
       <c r="I221">
         <v>0.8443455263759349</v>
@@ -10484,7 +10484,7 @@
         <v>0.5860973481323202</v>
       </c>
       <c r="H222">
-        <v>0.6680509413067552</v>
+        <v>0.656423034330011</v>
       </c>
       <c r="I222">
         <v>0.67663949442951</v>
@@ -10571,7 +10571,7 @@
         <v>1</v>
       </c>
       <c r="H225">
-        <v>0.6449796973052787</v>
+        <v>0.6333517903285345</v>
       </c>
       <c r="I225">
         <v>0.6637426582356548</v>
@@ -10600,7 +10600,7 @@
         <v>1</v>
       </c>
       <c r="H226">
-        <v>0.6484865263935031</v>
+        <v>0.6484865263935032</v>
       </c>
       <c r="I226">
         <v>-0.5879179681406428</v>
@@ -10629,7 +10629,7 @@
         <v>1</v>
       </c>
       <c r="H227">
-        <v>0.6403654485049834</v>
+        <v>0.6403654485049833</v>
       </c>
       <c r="I227">
         <v>-0.5245584057986789</v>
@@ -10658,7 +10658,7 @@
         <v>0.0498916206018274</v>
       </c>
       <c r="H228">
-        <v>0.6914913252122555</v>
+        <v>0.6798634182355112</v>
       </c>
       <c r="I228">
         <v>0.988158854195009</v>
@@ -10687,7 +10687,7 @@
         <v>1</v>
       </c>
       <c r="H229">
-        <v>0.6332595053525286</v>
+        <v>0.6216315983757844</v>
       </c>
       <c r="I229">
         <v>0.5346908568505601</v>
@@ -10716,7 +10716,7 @@
         <v>1</v>
       </c>
       <c r="H230">
-        <v>0.5969915097822074</v>
+        <v>0.5969915097822075</v>
       </c>
       <c r="I230">
         <v>-0.3887044756193566</v>
@@ -10745,7 +10745,7 @@
         <v>1</v>
       </c>
       <c r="H231">
-        <v>0.5947766703580657</v>
+        <v>0.5831487633813215</v>
       </c>
       <c r="I231">
         <v>0.3814234769580155</v>
@@ -10774,7 +10774,7 @@
         <v>0.5453343212869556</v>
       </c>
       <c r="H232">
-        <v>0.6724806201550387</v>
+        <v>0.6608527131782945</v>
       </c>
       <c r="I232">
         <v>0.7352357527145029</v>
@@ -10803,7 +10803,7 @@
         <v>0.05510646921268338</v>
       </c>
       <c r="H233">
-        <v>0.6877076411960132</v>
+        <v>0.676079734219269</v>
       </c>
       <c r="I233">
         <v>0.8266019466785659</v>
@@ -10832,7 +10832,7 @@
         <v>1</v>
       </c>
       <c r="H234">
-        <v>0.5113510520487264</v>
+        <v>0.5272240679217424</v>
       </c>
       <c r="I234">
         <v>0.1415133013361195</v>
@@ -10861,7 +10861,7 @@
         <v>1</v>
       </c>
       <c r="H235">
-        <v>0.613233665559247</v>
+        <v>0.6291066814322629</v>
       </c>
       <c r="I235">
         <v>-0.6610834793523649</v>
@@ -10890,7 +10890,7 @@
         <v>0.1276919307679328</v>
       </c>
       <c r="H236">
-        <v>0.6867847914359542</v>
+        <v>0.67515688445921</v>
       </c>
       <c r="I236">
         <v>0.769899401049886</v>
@@ -10919,7 +10919,7 @@
         <v>0.1801364763107365</v>
       </c>
       <c r="H237">
-        <v>0.683093392395718</v>
+        <v>0.6714654854189738</v>
       </c>
       <c r="I237">
         <v>0.9218571444119152</v>
@@ -10977,7 +10977,7 @@
         <v>0.4999135351134054</v>
       </c>
       <c r="H239">
-        <v>0.6700812107788852</v>
+        <v>0.6700812107788853</v>
       </c>
       <c r="I239">
         <v>-0.7215915893037886</v>
@@ -11006,7 +11006,7 @@
         <v>0.2562606006837882</v>
       </c>
       <c r="H240">
-        <v>0.6776485788113695</v>
+        <v>0.6660206718346252</v>
       </c>
       <c r="I240">
         <v>0.7829014435024254</v>
@@ -11064,7 +11064,7 @@
         <v>1</v>
       </c>
       <c r="H242">
-        <v>0.5442045035068291</v>
+        <v>0.5325765965300848</v>
       </c>
       <c r="I242">
         <v>0.1448291123856789</v>
@@ -11093,7 +11093,7 @@
         <v>0.3954711678245569</v>
       </c>
       <c r="H243">
-        <v>0.6449796973052787</v>
+        <v>0.6608527131782945</v>
       </c>
       <c r="I243">
         <v>-0.7451178854267566</v>
@@ -11122,7 +11122,7 @@
         <v>0.2524021620001178</v>
       </c>
       <c r="H244">
-        <v>0.6796788482834994</v>
+        <v>0.6680509413067552</v>
       </c>
       <c r="I244">
         <v>0.8495731890919249</v>
@@ -11180,7 +11180,7 @@
         <v>1</v>
       </c>
       <c r="H246">
-        <v>0.5496493170911776</v>
+        <v>0.5380214101144334</v>
       </c>
       <c r="I246">
         <v>0.260715620227173</v>
@@ -11209,7 +11209,7 @@
         <v>1</v>
       </c>
       <c r="H247">
-        <v>0.5921004060538945</v>
+        <v>0.5804724990771502</v>
       </c>
       <c r="I247">
         <v>0.450333576396069</v>
@@ -11238,7 +11238,7 @@
         <v>0.1692974498461681</v>
       </c>
       <c r="H248">
-        <v>0.428202288667405</v>
+        <v>0.4282022886674049</v>
       </c>
       <c r="I248">
         <v>0.8739846689086485</v>
@@ -11267,7 +11267,7 @@
         <v>0.04667902820587826</v>
       </c>
       <c r="H249">
-        <v>0.6566076042820229</v>
+        <v>0.6449796973052787</v>
       </c>
       <c r="I249">
         <v>0.9369379174239705</v>
@@ -11325,7 +11325,7 @@
         <v>1</v>
       </c>
       <c r="H251">
-        <v>0.5918235511258766</v>
+        <v>0.6076965669988926</v>
       </c>
       <c r="I251">
         <v>-0.6334613947447661</v>
@@ -11354,7 +11354,7 @@
         <v>0.9547001817173331</v>
       </c>
       <c r="H252">
-        <v>0.6602990033222591</v>
+        <v>0.6488556662975267</v>
       </c>
       <c r="I252">
         <v>0.7818119980594458</v>
@@ -11412,7 +11412,7 @@
         <v>1</v>
       </c>
       <c r="H254">
-        <v>0.45671834625323</v>
+        <v>0.4450904392764857</v>
       </c>
       <c r="I254">
         <v>-0.1025325685926668</v>
@@ -11441,7 +11441,7 @@
         <v>1</v>
       </c>
       <c r="H255">
-        <v>0.5936692506459949</v>
+        <v>0.5820413436692506</v>
       </c>
       <c r="I255">
         <v>0.4115813951801023</v>
@@ -11470,7 +11470,7 @@
         <v>1</v>
       </c>
       <c r="H256">
-        <v>0.5899778516057587</v>
+        <v>0.5899778516057586</v>
       </c>
       <c r="I256">
         <v>-0.5487993789202936</v>
@@ -11499,7 +11499,7 @@
         <v>1</v>
       </c>
       <c r="H257">
-        <v>0.634828349944629</v>
+        <v>0.6232004429678848</v>
       </c>
       <c r="I257">
         <v>0.7409894467239134</v>
@@ -11557,7 +11557,7 @@
         <v>0.1317864169562041</v>
       </c>
       <c r="H259">
-        <v>0.4277408637873755</v>
+        <v>0.4277408637873754</v>
       </c>
       <c r="I259">
         <v>0.8926098044977491</v>
@@ -11615,7 +11615,7 @@
         <v>0.05072694985709719</v>
       </c>
       <c r="H261">
-        <v>0.6973975636766335</v>
+        <v>0.6857696566998892</v>
       </c>
       <c r="I261">
         <v>0.9801958287532334</v>
@@ -11673,7 +11673,7 @@
         <v>0.3025222628797597</v>
       </c>
       <c r="H263">
-        <v>0.6753414544112217</v>
+        <v>0.675341454411222</v>
       </c>
       <c r="I263">
         <v>0.7850273354882478</v>
@@ -11702,7 +11702,7 @@
         <v>0.0451473378561572</v>
       </c>
       <c r="H264">
-        <v>0.7084717607973422</v>
+        <v>0.696843853820598</v>
       </c>
       <c r="I264">
         <v>0.9683945887705018</v>
@@ -11760,7 +11760,7 @@
         <v>1</v>
       </c>
       <c r="H266">
-        <v>0.5976375046142489</v>
+        <v>0.5860095976375045</v>
       </c>
       <c r="I266">
         <v>0.401423549514056</v>
@@ -11789,7 +11789,7 @@
         <v>0.3783191980204789</v>
       </c>
       <c r="H267">
-        <v>0.6733111849390919</v>
+        <v>0.6616832779623476</v>
       </c>
       <c r="I267">
         <v>0.7357073669775694</v>
@@ -11818,7 +11818,7 @@
         <v>0.164111211767795</v>
       </c>
       <c r="H268">
-        <v>0.6760797342192691</v>
+        <v>0.6644518272425249</v>
       </c>
       <c r="I268">
         <v>0.8224698801736993</v>
@@ -11847,7 +11847,7 @@
         <v>1</v>
       </c>
       <c r="H269">
-        <v>0.503875968992248</v>
+        <v>0.5197489848652639</v>
       </c>
       <c r="I269">
         <v>0.2543560832798233</v>
@@ -11876,7 +11876,7 @@
         <v>1</v>
       </c>
       <c r="H270">
-        <v>0.6211701734957549</v>
+        <v>0.6370431893687708</v>
       </c>
       <c r="I270">
         <v>-0.6899099942317948</v>
@@ -11963,7 +11963,7 @@
         <v>0.02765516614886673</v>
       </c>
       <c r="H273">
-        <v>0.6857696566998892</v>
+        <v>0.7016426725729051</v>
       </c>
       <c r="I273">
         <v>-0.8903170336188416</v>
@@ -11992,7 +11992,7 @@
         <v>1</v>
       </c>
       <c r="H274">
-        <v>0.6582687338501292</v>
+        <v>0.646640826873385</v>
       </c>
       <c r="I274">
         <v>0.644159782912327</v>
@@ -12021,7 +12021,7 @@
         <v>1</v>
       </c>
       <c r="H275">
-        <v>0.5274086378737542</v>
+        <v>0.5157807308970099</v>
       </c>
       <c r="I275">
         <v>0.3067306610943628</v>
@@ -12050,7 +12050,7 @@
         <v>0.02961027400154607</v>
       </c>
       <c r="H276">
-        <v>0.7010889627168697</v>
+        <v>0.6894610557401255</v>
       </c>
       <c r="I276">
         <v>0.9984763231500932</v>
@@ -12079,7 +12079,7 @@
         <v>1</v>
       </c>
       <c r="H277">
-        <v>0.648578811369509</v>
+        <v>0.6485788113695089</v>
       </c>
       <c r="I277">
         <v>-0.5627337664928951</v>
@@ -12137,7 +12137,7 @@
         <v>1</v>
       </c>
       <c r="H279">
-        <v>0.6447028423772611</v>
+        <v>0.6330749354005168</v>
       </c>
       <c r="I279">
         <v>0.6811887581670895</v>
@@ -12166,7 +12166,7 @@
         <v>1</v>
       </c>
       <c r="H280">
-        <v>0.6406423034330012</v>
+        <v>0.6290143964562569</v>
       </c>
       <c r="I280">
         <v>0.6827958744635388</v>
@@ -12224,7 +12224,7 @@
         <v>1</v>
       </c>
       <c r="H282">
-        <v>0.6282761166482097</v>
+        <v>0.6166482096714654</v>
       </c>
       <c r="I282">
         <v>0.5841704486502763</v>
@@ -12253,7 +12253,7 @@
         <v>1</v>
       </c>
       <c r="H283">
-        <v>0.6286452565522332</v>
+        <v>0.617017349575489</v>
       </c>
       <c r="I283">
         <v>0.6078636236663294</v>
@@ -12282,7 +12282,7 @@
         <v>1</v>
       </c>
       <c r="H284">
-        <v>0.4664082687338501</v>
+        <v>0.482281284606866</v>
       </c>
       <c r="I284">
         <v>0.09707272654716689</v>
@@ -12311,7 +12311,7 @@
         <v>1</v>
       </c>
       <c r="H285">
-        <v>0.6140642303433</v>
+        <v>0.6024363233665558</v>
       </c>
       <c r="I285">
         <v>0.583169175291766</v>
@@ -12340,7 +12340,7 @@
         <v>1</v>
       </c>
       <c r="H286">
-        <v>0.656607604282023</v>
+        <v>0.6566076042820229</v>
       </c>
       <c r="I286">
         <v>-0.6105046635395014</v>
@@ -12369,7 +12369,7 @@
         <v>1</v>
       </c>
       <c r="H287">
-        <v>0.6222775932078257</v>
+        <v>0.6106496862310815</v>
       </c>
       <c r="I287">
         <v>0.5744298002169427</v>
@@ -12398,7 +12398,7 @@
         <v>1</v>
       </c>
       <c r="H288">
-        <v>0.485142118863049</v>
+        <v>0.501015134736065</v>
       </c>
       <c r="I288">
         <v>-0.06596432419490005</v>
@@ -12427,7 +12427,7 @@
         <v>0.02961027400154607</v>
       </c>
       <c r="H289">
-        <v>0.7010889627168697</v>
+        <v>0.6894610557401255</v>
       </c>
       <c r="I289">
         <v>0.9984763231500932</v>
@@ -12456,7 +12456,7 @@
         <v>1</v>
       </c>
       <c r="H290">
-        <v>0.6516242155777039</v>
+        <v>0.6399963086009597</v>
       </c>
       <c r="I290">
         <v>0.6096122242416988</v>
@@ -12485,7 +12485,7 @@
         <v>1</v>
       </c>
       <c r="H291">
-        <v>0.6331672203765227</v>
+        <v>0.6331672203765226</v>
       </c>
       <c r="I291">
         <v>-0.5061690773411115</v>
@@ -12514,7 +12514,7 @@
         <v>1</v>
       </c>
       <c r="H292">
-        <v>0.5927464008859358</v>
+        <v>0.5811184939091916</v>
       </c>
       <c r="I292">
         <v>0.4539069613893031</v>
@@ -12543,7 +12543,7 @@
         <v>1</v>
       </c>
       <c r="H293">
-        <v>0.6066814322628276</v>
+        <v>0.5950535252860834</v>
       </c>
       <c r="I293">
         <v>0.4981806572851707</v>
@@ -12601,7 +12601,7 @@
         <v>1</v>
       </c>
       <c r="H295">
-        <v>0.5073827980804725</v>
+        <v>0.4957548911037283</v>
       </c>
       <c r="I295">
         <v>-0.1203813545487196</v>
@@ -12630,7 +12630,7 @@
         <v>1</v>
       </c>
       <c r="H296">
-        <v>0.6354743447766703</v>
+        <v>0.6354743447766704</v>
       </c>
       <c r="I296">
         <v>-0.4769616432492047</v>
@@ -12688,7 +12688,7 @@
         <v>0.7683483553844552</v>
       </c>
       <c r="H298">
-        <v>0.6650055370985603</v>
+        <v>0.6533776301218163</v>
       </c>
       <c r="I298">
         <v>0.6662023080076475</v>
@@ -12746,7 +12746,7 @@
         <v>1</v>
       </c>
       <c r="H300">
-        <v>0.6519010705057218</v>
+        <v>0.6519010705057217</v>
       </c>
       <c r="I300">
         <v>-0.6319776237171186</v>
@@ -12804,7 +12804,7 @@
         <v>1</v>
       </c>
       <c r="H302">
-        <v>0.6578995939461055</v>
+        <v>0.6462716869693613</v>
       </c>
       <c r="I302">
         <v>0.6509655395085781</v>
@@ -12862,7 +12862,7 @@
         <v>0.2763977750617106</v>
       </c>
       <c r="H304">
-        <v>0.6785714285714286</v>
+        <v>0.6785714285714287</v>
       </c>
       <c r="I304">
         <v>-0.7115824835207094</v>
@@ -12891,7 +12891,7 @@
         <v>1</v>
       </c>
       <c r="H305">
-        <v>0.6245847176079734</v>
+        <v>0.6129568106312291</v>
       </c>
       <c r="I305">
         <v>0.5817507047005432</v>
@@ -12920,7 +12920,7 @@
         <v>0.6207353255586394</v>
       </c>
       <c r="H306">
-        <v>0.6674972314507198</v>
+        <v>0.6558693244739756</v>
       </c>
       <c r="I306">
         <v>0.6904360255252151</v>
@@ -12949,7 +12949,7 @@
         <v>0.01733641970008767</v>
       </c>
       <c r="H307">
-        <v>0.7060723514211887</v>
+        <v>0.6944444444444443</v>
       </c>
       <c r="I307">
         <v>0.8672841185710815</v>
@@ -12978,7 +12978,7 @@
         <v>0.6762857169811004</v>
       </c>
       <c r="H308">
-        <v>0.6675895164267257</v>
+        <v>0.6559616094499815</v>
       </c>
       <c r="I308">
         <v>0.6905738820021114</v>
@@ -13007,7 +13007,7 @@
         <v>0.01924938926528352</v>
       </c>
       <c r="H309">
-        <v>0.7080103359173125</v>
+        <v>0.6963824289405685</v>
       </c>
       <c r="I309">
         <v>0.8703496112810134</v>
@@ -13036,7 +13036,7 @@
         <v>1</v>
       </c>
       <c r="H310">
-        <v>0.6089885566629754</v>
+        <v>0.6089885566629752</v>
       </c>
       <c r="I310">
         <v>-0.2819056118469503</v>
@@ -13065,7 +13065,7 @@
         <v>0.7260790339926603</v>
       </c>
       <c r="H311">
-        <v>0.66343669250646</v>
+        <v>0.6518087855297158</v>
       </c>
       <c r="I311">
         <v>0.6634125282515083</v>
@@ -13094,7 +13094,7 @@
         <v>1</v>
       </c>
       <c r="H312">
-        <v>0.6521779254337393</v>
+        <v>0.6521779254337394</v>
       </c>
       <c r="I312">
         <v>-0.5575641486092823</v>
@@ -13152,7 +13152,7 @@
         <v>0.05510646921268338</v>
       </c>
       <c r="H314">
-        <v>0.6941675895164267</v>
+        <v>0.6825396825396826</v>
       </c>
       <c r="I314">
         <v>0.989479374131595</v>
@@ -13239,7 +13239,7 @@
         <v>1</v>
       </c>
       <c r="H317">
-        <v>0.5724437061646365</v>
+        <v>0.5608157991878922</v>
       </c>
       <c r="I317">
         <v>0.3453159634172444</v>
@@ -13268,7 +13268,7 @@
         <v>0.6207353255586394</v>
       </c>
       <c r="H318">
-        <v>0.6628829826504246</v>
+        <v>0.6512550756736804</v>
       </c>
       <c r="I318">
         <v>0.746267898668234</v>
@@ -13297,7 +13297,7 @@
         <v>0.0639074999436534</v>
       </c>
       <c r="H319">
-        <v>0.6891842008121078</v>
+        <v>0.6775562938353636</v>
       </c>
       <c r="I319">
         <v>0.8255353728836311</v>
@@ -13355,7 +13355,7 @@
         <v>1</v>
       </c>
       <c r="H321">
-        <v>0.6330749354005168</v>
+        <v>0.6489479512735327</v>
       </c>
       <c r="I321">
         <v>-0.6603216409274113</v>
@@ -13384,7 +13384,7 @@
         <v>0.02672430155472086</v>
       </c>
       <c r="H322">
-        <v>0.705795496493171</v>
+        <v>0.6941675895164267</v>
       </c>
       <c r="I322">
         <v>0.8384938817118873</v>
@@ -13413,7 +13413,7 @@
         <v>0.2268827566047286</v>
       </c>
       <c r="H323">
-        <v>0.6796788482834996</v>
+        <v>0.6680509413067552</v>
       </c>
       <c r="I323">
         <v>0.9087063620764089</v>
@@ -13442,7 +13442,7 @@
         <v>0.4926960255033381</v>
       </c>
       <c r="H324">
-        <v>0.6700812107788853</v>
+        <v>0.6700812107788852</v>
       </c>
       <c r="I324">
         <v>-0.6998791941926147</v>
@@ -13471,7 +13471,7 @@
         <v>0.3618656556128094</v>
       </c>
       <c r="H325">
-        <v>0.6740494647471392</v>
+        <v>0.6740494647471391</v>
       </c>
       <c r="I325">
         <v>-0.7383556624547886</v>
@@ -13500,7 +13500,7 @@
         <v>0.3164366451157735</v>
       </c>
       <c r="H326">
-        <v>0.671280915466962</v>
+        <v>0.6596530084902177</v>
       </c>
       <c r="I326">
         <v>0.7901896977678137</v>
@@ -13529,7 +13529,7 @@
         <v>0.7469355043979691</v>
       </c>
       <c r="H327">
-        <v>0.6645441122185308</v>
+        <v>0.6645441122185307</v>
       </c>
       <c r="I327">
         <v>-0.6876389901650288</v>
@@ -13558,7 +13558,7 @@
         <v>1</v>
       </c>
       <c r="H328">
-        <v>0.5024916943521596</v>
+        <v>0.4908637873754153</v>
       </c>
       <c r="I328">
         <v>0.09515361927668885</v>
@@ -13587,7 +13587,7 @@
         <v>0.2339149898149416</v>
       </c>
       <c r="H329">
-        <v>0.6605758582502768</v>
+        <v>0.6764488741232927</v>
       </c>
       <c r="I329">
         <v>-0.7335778471897232</v>
@@ -13616,7 +13616,7 @@
         <v>0.3460841979985232</v>
       </c>
       <c r="H330">
-        <v>0.6748800295311924</v>
+        <v>0.6632521225544481</v>
       </c>
       <c r="I330">
         <v>0.8274327133419677</v>
@@ -13674,7 +13674,7 @@
         <v>1</v>
       </c>
       <c r="H332">
-        <v>0.570967146548542</v>
+        <v>0.5593392395717977</v>
       </c>
       <c r="I332">
         <v>0.2755061690773412</v>
@@ -13703,7 +13703,7 @@
         <v>1</v>
       </c>
       <c r="H333">
-        <v>0.6088039867109635</v>
+        <v>0.5971760797342192</v>
       </c>
       <c r="I333">
         <v>0.4498039173006251</v>
@@ -13761,7 +13761,7 @@
         <v>0.06496375901233385</v>
       </c>
       <c r="H335">
-        <v>0.6630675526024363</v>
+        <v>0.6514396456256922</v>
       </c>
       <c r="I335">
         <v>0.9418608447699793</v>
@@ -13819,7 +13819,7 @@
         <v>1</v>
       </c>
       <c r="H337">
-        <v>0.616186784791436</v>
+        <v>0.6320598006644519</v>
       </c>
       <c r="I337">
         <v>-0.6476497284590187</v>
@@ -13848,7 +13848,7 @@
         <v>0.4890644137877936</v>
       </c>
       <c r="H338">
-        <v>0.6677740863787376</v>
+        <v>0.6334440753045405</v>
       </c>
       <c r="I338">
         <v>0.7517236751002545</v>
@@ -13877,7 +13877,7 @@
         <v>1</v>
       </c>
       <c r="H339">
-        <v>0.5247323735695829</v>
+        <v>0.5131044665928387</v>
       </c>
       <c r="I339">
         <v>-0.1720831311588371</v>
@@ -13964,7 +13964,7 @@
         <v>1</v>
       </c>
       <c r="H342">
-        <v>0.5693983019564415</v>
+        <v>0.5852713178294573</v>
       </c>
       <c r="I342">
         <v>-0.4890458517897762</v>
@@ -13993,7 +13993,7 @@
         <v>1</v>
       </c>
       <c r="H343">
-        <v>0.6293835363602807</v>
+        <v>0.6177556293835365</v>
       </c>
       <c r="I343">
         <v>0.7395734607905309</v>
@@ -14080,7 +14080,7 @@
         <v>1</v>
       </c>
       <c r="H346">
-        <v>0.483296419342931</v>
+        <v>0.4716685123661867</v>
       </c>
       <c r="I346">
         <v>0.1844918719095662</v>
@@ -14109,7 +14109,7 @@
         <v>0.1276919307679328</v>
       </c>
       <c r="H347">
-        <v>0.6903839055001846</v>
+        <v>0.6787559985234404</v>
       </c>
       <c r="I347">
         <v>0.9775874390982736</v>
@@ -14138,7 +14138,7 @@
         <v>1</v>
       </c>
       <c r="H348">
-        <v>0.592469545957918</v>
+        <v>0.6083425618309339</v>
       </c>
       <c r="I348">
         <v>-0.5673120526466631</v>
@@ -14167,7 +14167,7 @@
         <v>0.05602437041005158</v>
       </c>
       <c r="H349">
-        <v>0.6973975636766335</v>
+        <v>0.6857696566998892</v>
       </c>
       <c r="I349">
         <v>0.8177501097410114</v>
@@ -14196,7 +14196,7 @@
         <v>0.04667902820587826</v>
       </c>
       <c r="H350">
-        <v>0.7019195275009229</v>
+        <v>0.6902916205241786</v>
       </c>
       <c r="I350">
         <v>0.9676109835334068</v>
@@ -14225,7 +14225,7 @@
         <v>1</v>
       </c>
       <c r="H351">
-        <v>0.6292912513842747</v>
+        <v>0.6292912513842746</v>
       </c>
       <c r="I351">
         <v>-0.5056430460476912</v>
@@ -14254,7 +14254,7 @@
         <v>1</v>
       </c>
       <c r="H352">
-        <v>0.582687338501292</v>
+        <v>0.5710594315245477</v>
       </c>
       <c r="I352">
         <v>0.3876778076466812</v>
@@ -14283,7 +14283,7 @@
         <v>0.3117331810805082</v>
       </c>
       <c r="H353">
-        <v>0.6773717238833518</v>
+        <v>0.6657438169066074</v>
       </c>
       <c r="I353">
         <v>0.7473780060874519</v>
@@ -14312,7 +14312,7 @@
         <v>0.1038656281574115</v>
       </c>
       <c r="H354">
-        <v>0.6933370247323736</v>
+        <v>0.6817091177556294</v>
       </c>
       <c r="I354">
         <v>0.8225097859959588</v>
@@ -14341,7 +14341,7 @@
         <v>1</v>
       </c>
       <c r="H355">
-        <v>0.5111664820967147</v>
+        <v>0.5270394979697306</v>
       </c>
       <c r="I355">
         <v>0.08320001160896649</v>
@@ -14370,7 +14370,7 @@
         <v>0.5613112474322524</v>
       </c>
       <c r="H356">
-        <v>0.6274455518641565</v>
+        <v>0.6433185677371724</v>
       </c>
       <c r="I356">
         <v>-0.6924131776280706</v>
@@ -14457,7 +14457,7 @@
         <v>0.02329062357240157</v>
       </c>
       <c r="H359">
-        <v>0.6901993355481728</v>
+        <v>0.7060723514211886</v>
       </c>
       <c r="I359">
         <v>-0.8995243951547078</v>
@@ -14486,7 +14486,7 @@
         <v>1</v>
       </c>
       <c r="H360">
-        <v>0.6549464747139165</v>
+        <v>0.6433185677371724</v>
       </c>
       <c r="I360">
         <v>0.6091333543745853</v>
@@ -14515,7 +14515,7 @@
         <v>1</v>
       </c>
       <c r="H361">
-        <v>0.5648763381321521</v>
+        <v>0.5532484311554078</v>
       </c>
       <c r="I361">
         <v>0.3929090981646951</v>
@@ -14544,7 +14544,7 @@
         <v>0.03011921306121189</v>
       </c>
       <c r="H362">
-        <v>0.6974898486526394</v>
+        <v>0.6858619416758952</v>
       </c>
       <c r="I362">
         <v>0.997808807577753</v>
@@ -14631,7 +14631,7 @@
         <v>1</v>
       </c>
       <c r="H365">
-        <v>0.6614987080103359</v>
+        <v>0.6498708010335917</v>
       </c>
       <c r="I365">
         <v>0.6517273779335315</v>
@@ -14660,7 +14660,7 @@
         <v>0.4999135351134054</v>
       </c>
       <c r="H366">
-        <v>0.6685123661867849</v>
+        <v>0.6568844592100405</v>
       </c>
       <c r="I366">
         <v>0.6953299304550352</v>
@@ -14689,7 +14689,7 @@
         <v>1</v>
       </c>
       <c r="H367">
-        <v>0.6399963086009597</v>
+        <v>0.6399963086009598</v>
       </c>
       <c r="I367">
         <v>-0.5111681885296157</v>
@@ -14718,7 +14718,7 @@
         <v>1</v>
       </c>
       <c r="H368">
-        <v>0.6150793650793651</v>
+        <v>0.6034514581026209</v>
       </c>
       <c r="I368">
         <v>0.544279137598903</v>
@@ -14747,7 +14747,7 @@
         <v>1</v>
       </c>
       <c r="H369">
-        <v>0.6162790697674418</v>
+        <v>0.6046511627906976</v>
       </c>
       <c r="I369">
         <v>0.5591168478753779</v>
@@ -14776,7 +14776,7 @@
         <v>1</v>
       </c>
       <c r="H370">
-        <v>0.5624769287559984</v>
+        <v>0.5624769287559985</v>
       </c>
       <c r="I370">
         <v>0.2056274464989897</v>
@@ -14805,7 +14805,7 @@
         <v>1</v>
       </c>
       <c r="H371">
-        <v>0.6185861941675895</v>
+        <v>0.6069582871908453</v>
       </c>
       <c r="I371">
         <v>0.526872943489728</v>
@@ -14834,7 +14834,7 @@
         <v>1</v>
       </c>
       <c r="H372">
-        <v>0.6507013658176448</v>
+        <v>0.6507013658176449</v>
       </c>
       <c r="I372">
         <v>-0.5504899346632856</v>
@@ -14863,7 +14863,7 @@
         <v>1</v>
       </c>
       <c r="H373">
-        <v>0.6138796603912883</v>
+        <v>0.6022517534145441</v>
       </c>
       <c r="I373">
         <v>0.5410503937979098</v>
@@ -14892,7 +14892,7 @@
         <v>1</v>
       </c>
       <c r="H374">
-        <v>0.4748062015503876</v>
+        <v>0.4906792174234035</v>
       </c>
       <c r="I374">
         <v>-0.05094885161926945</v>
@@ -14921,7 +14921,7 @@
         <v>0.03011921306121189</v>
       </c>
       <c r="H375">
-        <v>0.6974898486526394</v>
+        <v>0.6858619416758952</v>
       </c>
       <c r="I375">
         <v>0.997808807577753</v>
@@ -14950,7 +14950,7 @@
         <v>1</v>
       </c>
       <c r="H376">
-        <v>0.6488556662975268</v>
+        <v>0.6372277593207826</v>
       </c>
       <c r="I376">
         <v>0.5696737517640188</v>
@@ -14979,7 +14979,7 @@
         <v>1</v>
       </c>
       <c r="H377">
-        <v>0.6194167589516426</v>
+        <v>0.6194167589516427</v>
       </c>
       <c r="I377">
         <v>-0.4472717114881608</v>
@@ -15008,7 +15008,7 @@
         <v>1</v>
       </c>
       <c r="H378">
-        <v>0.5387596899224806</v>
+        <v>0.5271317829457365</v>
       </c>
       <c r="I378">
         <v>0.3602334853382382</v>
@@ -15037,7 +15037,7 @@
         <v>1</v>
       </c>
       <c r="H379">
-        <v>0.5560169804355851</v>
+        <v>0.5443890734588408</v>
       </c>
       <c r="I379">
         <v>0.428269284488607</v>
@@ -15095,7 +15095,7 @@
         <v>1</v>
       </c>
       <c r="H381">
-        <v>0.4898486526393503</v>
+        <v>0.4782207456626061</v>
       </c>
       <c r="I381">
         <v>-0.08982075030201453</v>
@@ -15153,7 +15153,7 @@
         <v>1</v>
       </c>
       <c r="H383">
-        <v>0.6523624953857512</v>
+        <v>0.6523624953857511</v>
       </c>
       <c r="I383">
         <v>-0.6342050941596016</v>
@@ -15182,7 +15182,7 @@
         <v>0.7903311309255333</v>
       </c>
       <c r="H384">
-        <v>0.6638981173864895</v>
+        <v>0.6638981173864894</v>
       </c>
       <c r="I384">
         <v>0.6911906083461214</v>
@@ -15211,7 +15211,7 @@
         <v>0.9748146704113098</v>
       </c>
       <c r="H385">
-        <v>0.6626061277224067</v>
+        <v>0.6626061277224068</v>
       </c>
       <c r="I385">
         <v>-0.668636563165475</v>
@@ -15240,7 +15240,7 @@
         <v>1</v>
       </c>
       <c r="H386">
-        <v>0.6471022517534146</v>
+        <v>0.6471022517534145</v>
       </c>
       <c r="I386">
         <v>-0.6213227691738408</v>
@@ -15298,7 +15298,7 @@
         <v>1</v>
       </c>
       <c r="H388">
-        <v>0.656515319306017</v>
+        <v>0.6448874123292727</v>
       </c>
       <c r="I388">
         <v>0.6373032370877458</v>
@@ -15327,7 +15327,7 @@
         <v>1</v>
       </c>
       <c r="H389">
-        <v>0.6447028423772609</v>
+        <v>0.6447028423772611</v>
       </c>
       <c r="I389">
         <v>-0.5739327913397111</v>
@@ -15356,7 +15356,7 @@
         <v>1</v>
       </c>
       <c r="H390">
-        <v>0.6554078995939462</v>
+        <v>0.6554078995939461</v>
       </c>
       <c r="I390">
         <v>-0.7101966631476988</v>
@@ -15414,7 +15414,7 @@
         <v>0.7364385568473213</v>
       </c>
       <c r="H392">
-        <v>0.6648209671465486</v>
+        <v>0.6531930601698044</v>
       </c>
       <c r="I392">
         <v>0.6908133169356683</v>
@@ -15443,7 +15443,7 @@
         <v>0.01355285567520175</v>
       </c>
       <c r="H393">
-        <v>0.7081949058693244</v>
+        <v>0.6965669988925802</v>
       </c>
       <c r="I393">
         <v>0.8740935029693562</v>
@@ -15472,7 +15472,7 @@
         <v>0.6958086196840918</v>
       </c>
       <c r="H394">
-        <v>0.6656515319306018</v>
+        <v>0.6540236249538574</v>
       </c>
       <c r="I394">
         <v>0.6943975853349732</v>
@@ -15501,7 +15501,7 @@
         <v>0.01644930806577424</v>
       </c>
       <c r="H395">
-        <v>0.7089331856773717</v>
+        <v>0.6973052787006275</v>
       </c>
       <c r="I395">
         <v>0.8819984835787542</v>
@@ -15559,7 +15559,7 @@
         <v>1</v>
       </c>
       <c r="H397">
-        <v>0.6478405315614618</v>
+        <v>0.6362126245847176</v>
       </c>
       <c r="I397">
         <v>0.6533852834583113</v>
@@ -15646,7 +15646,7 @@
         <v>0.04906935484074072</v>
       </c>
       <c r="H400">
-        <v>0.6945367294204503</v>
+        <v>0.6945367294204504</v>
       </c>
       <c r="I400">
         <v>0.9900561946533455</v>
@@ -15675,7 +15675,7 @@
         <v>1</v>
       </c>
       <c r="H401">
-        <v>0.3874123292727943</v>
+        <v>0.3874123292727944</v>
       </c>
       <c r="I401">
         <v>0.4156009998222377</v>
@@ -15704,7 +15704,7 @@
         <v>1</v>
       </c>
       <c r="H402">
-        <v>0.5729974160206718</v>
+        <v>0.5729974160206719</v>
       </c>
       <c r="I402">
         <v>-0.2902749511153678</v>
@@ -15733,7 +15733,7 @@
         <v>1</v>
       </c>
       <c r="H403">
-        <v>0.5093207825765965</v>
+        <v>0.4976928755998524</v>
       </c>
       <c r="I403">
         <v>0.2432550090876441</v>
@@ -15762,7 +15762,7 @@
         <v>0.8015405526693683</v>
       </c>
       <c r="H404">
-        <v>0.6633444075304541</v>
+        <v>0.6517165005537098</v>
       </c>
       <c r="I404">
         <v>0.7531208166907917</v>
@@ -15791,7 +15791,7 @@
         <v>0.1179746562695281</v>
       </c>
       <c r="H405">
-        <v>0.686046511627907</v>
+        <v>0.6744186046511628</v>
       </c>
       <c r="I405">
         <v>0.8335237929395718</v>
@@ -15849,7 +15849,7 @@
         <v>1</v>
       </c>
       <c r="H407">
-        <v>0.5858250276854927</v>
+        <v>0.6016980435585088</v>
       </c>
       <c r="I407">
         <v>-0.6560444623416013</v>
@@ -15907,7 +15907,7 @@
         <v>0.2641442419784416</v>
       </c>
       <c r="H409">
-        <v>0.6799557032115172</v>
+        <v>0.668327796234773</v>
       </c>
       <c r="I409">
         <v>0.9023504529310827</v>
@@ -15936,7 +15936,7 @@
         <v>0.5777240752392887</v>
       </c>
       <c r="H410">
-        <v>0.6669435215946843</v>
+        <v>0.6669435215946844</v>
       </c>
       <c r="I410">
         <v>-0.6995200417922794</v>
@@ -15994,7 +15994,7 @@
         <v>0.419474176282985</v>
       </c>
       <c r="H412">
-        <v>0.6668512366186786</v>
+        <v>0.6552233296419343</v>
       </c>
       <c r="I412">
         <v>0.7959506473812713</v>
@@ -16081,7 +16081,7 @@
         <v>1</v>
       </c>
       <c r="H415">
-        <v>0.6282761166482096</v>
+        <v>0.6441491325212255</v>
       </c>
       <c r="I415">
         <v>-0.7510384583292522</v>
@@ -16110,7 +16110,7 @@
         <v>0.3117331810805082</v>
       </c>
       <c r="H416">
-        <v>0.6745108896271687</v>
+        <v>0.6628829826504244</v>
       </c>
       <c r="I416">
         <v>0.7910676258575219</v>
@@ -16139,7 +16139,7 @@
         <v>1</v>
       </c>
       <c r="H417">
-        <v>0.5358065706902916</v>
+        <v>0.5516795865633075</v>
       </c>
       <c r="I417">
         <v>-0.3059833338775036</v>
@@ -16168,7 +16168,7 @@
         <v>1</v>
       </c>
       <c r="H418">
-        <v>0.5567552602436323</v>
+        <v>0.5451273532668881</v>
       </c>
       <c r="I418">
         <v>0.307811746097392</v>
@@ -16197,7 +16197,7 @@
         <v>1</v>
       </c>
       <c r="H419">
-        <v>0.5539867109634551</v>
+        <v>0.542358803986711</v>
       </c>
       <c r="I419">
         <v>0.3320998806453135</v>
@@ -16255,7 +16255,7 @@
         <v>0.09136171836969015</v>
       </c>
       <c r="H421">
-        <v>0.6662052417866372</v>
+        <v>0.6545773348098929</v>
       </c>
       <c r="I421">
         <v>0.955211156216783</v>
@@ -16313,7 +16313,7 @@
         <v>1</v>
       </c>
       <c r="H423">
-        <v>0.522609819121447</v>
+        <v>0.5384828349944628</v>
       </c>
       <c r="I423">
         <v>-0.4972265453529671</v>
@@ -16339,10 +16339,10 @@
         <v>586.322309254424</v>
       </c>
       <c r="G424">
-        <v>0.757536956341393</v>
+        <v>0.7575369563413944</v>
       </c>
       <c r="H424">
-        <v>0.6672203765227022</v>
+        <v>0.6443337024732372</v>
       </c>
       <c r="I424">
         <v>0.7036728000975028</v>
@@ -16371,7 +16371,7 @@
         <v>1</v>
       </c>
       <c r="H425">
-        <v>0.4892949427833149</v>
+        <v>0.4776670358065707</v>
       </c>
       <c r="I425">
         <v>-0.1873360686960592</v>
@@ -16400,7 +16400,7 @@
         <v>1</v>
       </c>
       <c r="H426">
-        <v>0.5080287929125139</v>
+        <v>0.5080287929125138</v>
       </c>
       <c r="I426">
         <v>-0.04291689793904568</v>
@@ -16458,7 +16458,7 @@
         <v>1</v>
       </c>
       <c r="H428">
-        <v>0.5263935031376892</v>
+        <v>0.542266519010705</v>
       </c>
       <c r="I428">
         <v>-0.1938080675061401</v>
@@ -16487,7 +16487,7 @@
         <v>1</v>
       </c>
       <c r="H429">
-        <v>0.6437799926172019</v>
+        <v>0.643779992617202</v>
       </c>
       <c r="I429">
         <v>0.7765879584075315</v>
@@ -16545,7 +16545,7 @@
         <v>0.1360045552759303</v>
       </c>
       <c r="H431">
-        <v>0.4305094130675527</v>
+        <v>0.4305094130675526</v>
       </c>
       <c r="I431">
         <v>0.9161324728186936</v>
@@ -16574,7 +16574,7 @@
         <v>1</v>
       </c>
       <c r="H432">
-        <v>0.502953119232189</v>
+        <v>0.4913252122554448</v>
       </c>
       <c r="I432">
         <v>0.298488294896771</v>
@@ -16603,7 +16603,7 @@
         <v>0.1615745791300282</v>
       </c>
       <c r="H433">
-        <v>0.6823551125876707</v>
+        <v>0.6823551125876708</v>
       </c>
       <c r="I433">
         <v>0.972468610442991</v>
@@ -16632,7 +16632,7 @@
         <v>1</v>
       </c>
       <c r="H434">
-        <v>0.5765042451088962</v>
+        <v>0.5923772609819122</v>
       </c>
       <c r="I434">
         <v>-0.5247688183160469</v>
@@ -16661,7 +16661,7 @@
         <v>0.06935651215226786</v>
       </c>
       <c r="H435">
-        <v>0.6924141749723145</v>
+        <v>0.6807862679955703</v>
       </c>
       <c r="I435">
         <v>0.8217552031750525</v>
@@ -16690,7 +16690,7 @@
         <v>0.05072694985709719</v>
       </c>
       <c r="H436">
-        <v>0.6994278331487634</v>
+        <v>0.6877999261720192</v>
       </c>
       <c r="I436">
         <v>0.9687573689728605</v>
@@ -16748,7 +16748,7 @@
         <v>1</v>
       </c>
       <c r="H438">
-        <v>0.522702104097453</v>
+        <v>0.5110741971207087</v>
       </c>
       <c r="I438">
         <v>0.2876665614604081</v>
@@ -16777,7 +16777,7 @@
         <v>0.3672742115936874</v>
       </c>
       <c r="H439">
-        <v>0.6725729051310447</v>
+        <v>0.6609449981543004</v>
       </c>
       <c r="I439">
         <v>0.7524025118901212</v>
@@ -16806,7 +16806,7 @@
         <v>0.1773670673840672</v>
       </c>
       <c r="H440">
-        <v>0.6882613510520487</v>
+        <v>0.6766334440753045</v>
       </c>
       <c r="I440">
         <v>0.8431157014899383</v>
@@ -16835,7 +16835,7 @@
         <v>1</v>
       </c>
       <c r="H441">
-        <v>0.483204134366925</v>
+        <v>0.4990771502399409</v>
       </c>
       <c r="I441">
         <v>-0.07696381993041877</v>
@@ -16864,7 +16864,7 @@
         <v>1</v>
       </c>
       <c r="H442">
-        <v>0.6263381321520856</v>
+        <v>0.6422111480251015</v>
       </c>
       <c r="I442">
         <v>-0.711771129225936</v>
@@ -16951,7 +16951,7 @@
         <v>0.03568766255106064</v>
       </c>
       <c r="H445">
-        <v>0.6866002214839424</v>
+        <v>0.7024732373569582</v>
       </c>
       <c r="I445">
         <v>-0.9075853712511203</v>
@@ -16980,7 +16980,7 @@
         <v>1</v>
       </c>
       <c r="H446">
-        <v>0.6385197489848653</v>
+        <v>0.6268918420081211</v>
       </c>
       <c r="I446">
         <v>0.5232523970701871</v>
@@ -17038,7 +17038,7 @@
         <v>0.03335200347862697</v>
       </c>
       <c r="H448">
-        <v>0.6999815430047988</v>
+        <v>0.6883536360280545</v>
       </c>
       <c r="I448">
         <v>0.9971848256296958</v>
@@ -17067,7 +17067,7 @@
         <v>1</v>
       </c>
       <c r="H449">
-        <v>0.6037283130306386</v>
+        <v>0.6196013289036546</v>
       </c>
       <c r="I449">
         <v>-0.3952345192618149</v>
@@ -17125,7 +17125,7 @@
         <v>1</v>
       </c>
       <c r="H451">
-        <v>0.6572535991140643</v>
+        <v>0.64562569213732</v>
       </c>
       <c r="I451">
         <v>0.5859444438398109</v>
@@ -17212,7 +17212,7 @@
         <v>1</v>
       </c>
       <c r="H454">
-        <v>0.6107419712070875</v>
+        <v>0.5991140642303433</v>
       </c>
       <c r="I454">
         <v>0.4798783960761694</v>
@@ -17241,7 +17241,7 @@
         <v>1</v>
       </c>
       <c r="H455">
-        <v>0.6054817275747508</v>
+        <v>0.5938538205980066</v>
       </c>
       <c r="I455">
         <v>0.4986413881421664</v>
@@ -17270,7 +17270,7 @@
         <v>1</v>
       </c>
       <c r="H456">
-        <v>0.5657069029162052</v>
+        <v>0.5540789959394611</v>
       </c>
       <c r="I456">
         <v>0.1608893919441028</v>
@@ -17299,7 +17299,7 @@
         <v>1</v>
       </c>
       <c r="H457">
-        <v>0.6258767072720561</v>
+        <v>0.6142488002953119</v>
       </c>
       <c r="I457">
         <v>0.5077870770436317</v>
@@ -17357,7 +17357,7 @@
         <v>1</v>
       </c>
       <c r="H459">
-        <v>0.6099114064230343</v>
+        <v>0.5982834994462901</v>
       </c>
       <c r="I459">
         <v>0.4806946515314767</v>
@@ -17415,7 +17415,7 @@
         <v>0.03335200347862697</v>
       </c>
       <c r="H461">
-        <v>0.6999815430047988</v>
+        <v>0.6883536360280545</v>
       </c>
       <c r="I461">
         <v>0.9971848256296958</v>
@@ -17502,7 +17502,7 @@
         <v>1</v>
       </c>
       <c r="H464">
-        <v>0.5452196382428941</v>
+        <v>0.5335917312661499</v>
       </c>
       <c r="I464">
         <v>0.2817387329538653</v>
@@ -17531,7 +17531,7 @@
         <v>1</v>
       </c>
       <c r="H465">
-        <v>0.5618309339239572</v>
+        <v>0.550203026947213</v>
       </c>
       <c r="I465">
         <v>0.3408102333039482</v>
@@ -17560,7 +17560,7 @@
         <v>1</v>
       </c>
       <c r="H466">
-        <v>0.4347545219638243</v>
+        <v>0.4231266149870801</v>
       </c>
       <c r="I466">
         <v>-0.2034108594625774</v>
@@ -17618,7 +17618,7 @@
         <v>1</v>
       </c>
       <c r="H468">
-        <v>0.5888704318936877</v>
+        <v>0.6047434477667036</v>
       </c>
       <c r="I468">
         <v>-0.3343817681181503</v>
@@ -17705,7 +17705,7 @@
         <v>1</v>
       </c>
       <c r="H471">
-        <v>0.6562384643779993</v>
+        <v>0.6562384643779992</v>
       </c>
       <c r="I471">
         <v>-0.6476134504387828</v>
@@ -17821,7 +17821,7 @@
         <v>1</v>
       </c>
       <c r="H475">
-        <v>0.6179401993355482</v>
+        <v>0.6338132152085642</v>
       </c>
       <c r="I475">
         <v>-0.4848702516606265</v>
@@ -17908,7 +17908,7 @@
         <v>1</v>
       </c>
       <c r="H478">
-        <v>0.6595607235142119</v>
+        <v>0.6479328165374676</v>
       </c>
       <c r="I478">
         <v>0.664076416021825</v>
@@ -17937,7 +17937,7 @@
         <v>0.006850353972573787</v>
       </c>
       <c r="H479">
-        <v>0.7171465485418973</v>
+        <v>0.7055186415651531</v>
       </c>
       <c r="I479">
         <v>0.8629380117468231</v>
@@ -17966,7 +17966,7 @@
         <v>1</v>
       </c>
       <c r="H480">
-        <v>0.658453303802141</v>
+        <v>0.6468253968253967</v>
       </c>
       <c r="I480">
         <v>0.6679291417708754</v>
@@ -17995,7 +17995,7 @@
         <v>0.009835097497861241</v>
       </c>
       <c r="H481">
-        <v>0.7141934293097083</v>
+        <v>0.7025655223329642</v>
       </c>
       <c r="I481">
         <v>0.8599958643056933</v>
@@ -18024,7 +18024,7 @@
         <v>1</v>
       </c>
       <c r="H482">
-        <v>0.6361203396087118</v>
+        <v>0.6361203396087117</v>
       </c>
       <c r="I482">
         <v>-0.4325827410946531</v>
@@ -18053,7 +18053,7 @@
         <v>1</v>
       </c>
       <c r="H483">
-        <v>0.6394425987449243</v>
+        <v>0.6278146917681802</v>
       </c>
       <c r="I483">
         <v>0.5953948681112575</v>
@@ -18082,7 +18082,7 @@
         <v>1</v>
       </c>
       <c r="H484">
-        <v>0.604282022886674</v>
+        <v>0.6201550387596899</v>
       </c>
       <c r="I484">
         <v>-0.3927603582817279</v>
@@ -18111,7 +18111,7 @@
         <v>1</v>
       </c>
       <c r="H485">
-        <v>0.5902547065337762</v>
+        <v>0.6061277224067921</v>
       </c>
       <c r="I485">
         <v>-0.3463752816081321</v>
@@ -18140,7 +18140,7 @@
         <v>0.038178261992819</v>
       </c>
       <c r="H486">
-        <v>0.6973052787006276</v>
+        <v>0.6973052787006275</v>
       </c>
       <c r="I486">
         <v>0.9913041585494597</v>
@@ -18227,7 +18227,7 @@
         <v>1</v>
       </c>
       <c r="H489">
-        <v>0.5213178294573643</v>
+        <v>0.5096899224806201</v>
       </c>
       <c r="I489">
         <v>0.1887182612670462</v>
@@ -18256,7 +18256,7 @@
         <v>1</v>
       </c>
       <c r="H490">
-        <v>0.6649132521225545</v>
+        <v>0.6532853451458103</v>
       </c>
       <c r="I490">
         <v>0.7405541104810829</v>
@@ -18285,7 +18285,7 @@
         <v>0.0764764843391168</v>
       </c>
       <c r="H491">
-        <v>0.6925987449243264</v>
+        <v>0.6809708379475821</v>
       </c>
       <c r="I491">
         <v>0.8296384169723091</v>
@@ -18343,7 +18343,7 @@
         <v>1</v>
       </c>
       <c r="H493">
-        <v>0.6289221114802509</v>
+        <v>0.6447951273532667</v>
       </c>
       <c r="I493">
         <v>-0.6201691281303398</v>
@@ -18372,7 +18372,7 @@
         <v>0.01379458249059291</v>
       </c>
       <c r="H494">
-        <v>0.7101328903654486</v>
+        <v>0.7101328903654485</v>
       </c>
       <c r="I494">
         <v>0.8880641685621933</v>
@@ -18401,7 +18401,7 @@
         <v>0.2375074378459145</v>
       </c>
       <c r="H495">
-        <v>0.6780177187153932</v>
+        <v>0.6780177187153931</v>
       </c>
       <c r="I495">
         <v>0.9008231482791522</v>
@@ -18430,7 +18430,7 @@
         <v>0.8478730236395187</v>
       </c>
       <c r="H496">
-        <v>0.6619601328903656</v>
+        <v>0.6619601328903653</v>
       </c>
       <c r="I496">
         <v>-0.681235919593396</v>
@@ -18459,7 +18459,7 @@
         <v>0.594583701702154</v>
       </c>
       <c r="H497">
-        <v>0.6677740863787376</v>
+        <v>0.6677740863787375</v>
       </c>
       <c r="I497">
         <v>-0.7325257846028828</v>
@@ -18488,7 +18488,7 @@
         <v>0.5297826384127113</v>
       </c>
       <c r="H498">
-        <v>0.6675895164267257</v>
+        <v>0.6559616094499816</v>
       </c>
       <c r="I498">
         <v>0.7855352277715502</v>
@@ -18517,7 +18517,7 @@
         <v>1</v>
       </c>
       <c r="H499">
-        <v>0.6540236249538576</v>
+        <v>0.6540236249538575</v>
       </c>
       <c r="I499">
         <v>-0.6606154928913219</v>
@@ -18575,7 +18575,7 @@
         <v>0.2268827566047286</v>
       </c>
       <c r="H501">
-        <v>0.6589147286821706</v>
+        <v>0.6747877445551864</v>
       </c>
       <c r="I501">
         <v>-0.7410765139724796</v>
@@ -18633,7 +18633,7 @@
         <v>1</v>
       </c>
       <c r="H503">
-        <v>0.5581395348837208</v>
+        <v>0.5740125507567369</v>
       </c>
       <c r="I503">
         <v>-0.3238683978537923</v>
@@ -18662,7 +18662,7 @@
         <v>1</v>
       </c>
       <c r="H504">
-        <v>0.5780730897009968</v>
+        <v>0.5664451827242525</v>
       </c>
       <c r="I504">
         <v>0.288363099448937</v>
@@ -18691,7 +18691,7 @@
         <v>1</v>
       </c>
       <c r="H505">
-        <v>0.5558324104835733</v>
+        <v>0.544204503506829</v>
       </c>
       <c r="I505">
         <v>0.2493823667054842</v>
@@ -18720,7 +18720,7 @@
         <v>0.1022185639664425</v>
       </c>
       <c r="H506">
-        <v>0.4105758582502769</v>
+        <v>0.4105758582502768</v>
       </c>
       <c r="I506">
         <v>0.9151311994601833</v>
@@ -18749,7 +18749,7 @@
         <v>0.06603654559596428</v>
       </c>
       <c r="H507">
-        <v>0.6666666666666666</v>
+        <v>0.6550387596899224</v>
       </c>
       <c r="I507">
         <v>0.9621039800616001</v>
@@ -18807,7 +18807,7 @@
         <v>1</v>
       </c>
       <c r="H509">
-        <v>0.5683831672203765</v>
+        <v>0.5842561830933923</v>
       </c>
       <c r="I509">
         <v>-0.4718355589898749</v>
@@ -18836,7 +18836,7 @@
         <v>1</v>
       </c>
       <c r="H510">
-        <v>0.6514396456256922</v>
+        <v>0.6399963086009597</v>
       </c>
       <c r="I510">
         <v>0.6827910520184743</v>
@@ -18865,7 +18865,7 @@
         <v>1</v>
       </c>
       <c r="H511">
-        <v>0.4897563676633444</v>
+        <v>0.4781284606866001</v>
       </c>
       <c r="I511">
         <v>-0.0798152723209589</v>
@@ -18923,7 +18923,7 @@
         <v>1</v>
       </c>
       <c r="H513">
-        <v>0.5412513842746401</v>
+        <v>0.54125138427464</v>
       </c>
       <c r="I513">
         <v>0.166918798907306</v>
@@ -18952,7 +18952,7 @@
         <v>1</v>
       </c>
       <c r="H514">
-        <v>0.5096899224806202</v>
+        <v>0.525562938353636</v>
       </c>
       <c r="I514">
         <v>-0.1066211014732504</v>
@@ -19039,7 +19039,7 @@
         <v>0.1179746562695281</v>
       </c>
       <c r="H517">
-        <v>0.6293835363602805</v>
+        <v>0.6177556293835365</v>
       </c>
       <c r="I517">
         <v>0.9230905970999351</v>
@@ -19068,7 +19068,7 @@
         <v>1</v>
       </c>
       <c r="H518">
-        <v>0.527593207825766</v>
+        <v>0.5159653008490217</v>
       </c>
       <c r="I518">
         <v>0.401282065235136</v>
@@ -19097,7 +19097,7 @@
         <v>0.1381610772616145</v>
       </c>
       <c r="H519">
-        <v>0.6867847914359543</v>
+        <v>0.6751568844592101</v>
       </c>
       <c r="I519">
         <v>0.9685179340393036</v>
@@ -19126,7 +19126,7 @@
         <v>1</v>
       </c>
       <c r="H520">
-        <v>0.5741971207087485</v>
+        <v>0.5900701365817645</v>
       </c>
       <c r="I520">
         <v>-0.5350282424387537</v>
@@ -19155,7 +19155,7 @@
         <v>0.1916264677944934</v>
       </c>
       <c r="H521">
-        <v>0.6801402731635291</v>
+        <v>0.6685123661867848</v>
       </c>
       <c r="I521">
         <v>0.7946482664548031</v>
@@ -19184,7 +19184,7 @@
         <v>0.05420284277820584</v>
       </c>
       <c r="H522">
-        <v>0.6955518641565154</v>
+        <v>0.6955518641565153</v>
       </c>
       <c r="I522">
         <v>0.9672554589350951</v>
@@ -19213,7 +19213,7 @@
         <v>1</v>
       </c>
       <c r="H523">
-        <v>0.5918235511258767</v>
+        <v>0.6076965669988925</v>
       </c>
       <c r="I523">
         <v>-0.366408004382385</v>
@@ -19242,7 +19242,7 @@
         <v>1</v>
       </c>
       <c r="H524">
-        <v>0.5274086378737541</v>
+        <v>0.5157807308970099</v>
       </c>
       <c r="I524">
         <v>0.2159304042459795</v>
@@ -19271,7 +19271,7 @@
         <v>0.5860973481323202</v>
       </c>
       <c r="H525">
-        <v>0.667312661498708</v>
+        <v>0.6556847545219637</v>
       </c>
       <c r="I525">
         <v>0.7403436979637149</v>
@@ -19300,7 +19300,7 @@
         <v>0.1425712421969605</v>
       </c>
       <c r="H526">
-        <v>0.6849390919158361</v>
+        <v>0.6733111849390918</v>
       </c>
       <c r="I526">
         <v>0.8269465878708068</v>
@@ -19329,7 +19329,7 @@
         <v>1</v>
       </c>
       <c r="H527">
-        <v>0.5298080472499076</v>
+        <v>0.5456810631229235</v>
       </c>
       <c r="I527">
         <v>-0.1159518082779187</v>
@@ -19358,7 +19358,7 @@
         <v>0.5694624982111395</v>
       </c>
       <c r="H528">
-        <v>0.6600221483942413</v>
+        <v>0.6758951642672572</v>
       </c>
       <c r="I528">
         <v>-0.683974910121205</v>
@@ -19387,7 +19387,7 @@
         <v>1</v>
       </c>
       <c r="H529">
-        <v>0.6501476559616094</v>
+        <v>0.6501476559616095</v>
       </c>
       <c r="I529">
         <v>-0.6946152534563885</v>
@@ -19445,7 +19445,7 @@
         <v>0.02410733907541811</v>
       </c>
       <c r="H531">
-        <v>0.6904761904761904</v>
+        <v>0.7063492063492063</v>
       </c>
       <c r="I531">
         <v>-0.9081367971587057</v>
@@ -19474,7 +19474,7 @@
         <v>1</v>
       </c>
       <c r="H532">
-        <v>0.6321520856404577</v>
+        <v>0.6205241786637135</v>
       </c>
       <c r="I532">
         <v>0.5932979985416237</v>
@@ -19532,7 +19532,7 @@
         <v>0.02910952336911734</v>
       </c>
       <c r="H534">
-        <v>0.7021040974529348</v>
+        <v>0.6904761904761905</v>
       </c>
       <c r="I534">
         <v>0.9999201883554812</v>
@@ -19561,7 +19561,7 @@
         <v>1</v>
       </c>
       <c r="H535">
-        <v>0.6159099298634182</v>
+        <v>0.6159099298634183</v>
       </c>
       <c r="I535">
         <v>-0.5510014547486115</v>
@@ -19590,7 +19590,7 @@
         <v>1</v>
       </c>
       <c r="H536">
-        <v>0.6423034330011075</v>
+        <v>0.6423034330011074</v>
       </c>
       <c r="I536">
         <v>-0.632714067527907</v>
@@ -19648,7 +19648,7 @@
         <v>1</v>
       </c>
       <c r="H538">
-        <v>0.626984126984127</v>
+        <v>0.6153562200073828</v>
       </c>
       <c r="I538">
         <v>0.569372644196061</v>
@@ -19706,7 +19706,7 @@
         <v>1</v>
       </c>
       <c r="H540">
-        <v>0.6495016611295681</v>
+        <v>0.6378737541528239</v>
       </c>
       <c r="I540">
         <v>0.5788557186857199</v>
@@ -19735,7 +19735,7 @@
         <v>1</v>
       </c>
       <c r="H541">
-        <v>0.6507936507936508</v>
+        <v>0.6391657438169065</v>
       </c>
       <c r="I541">
         <v>0.6007422482940261</v>
@@ -19764,7 +19764,7 @@
         <v>1</v>
       </c>
       <c r="H542">
-        <v>0.5593392395717977</v>
+        <v>0.5752122554448135</v>
       </c>
       <c r="I542">
         <v>-0.4406001835667824</v>
@@ -19793,7 +19793,7 @@
         <v>1</v>
       </c>
       <c r="H543">
-        <v>0.6089885566629752</v>
+        <v>0.5973606496862309</v>
       </c>
       <c r="I543">
         <v>0.5558844762723609</v>
@@ -19851,7 +19851,7 @@
         <v>1</v>
       </c>
       <c r="H545">
-        <v>0.6536544850498339</v>
+        <v>0.6420265780730897</v>
       </c>
       <c r="I545">
         <v>0.577912490159587</v>
@@ -19880,7 +19880,7 @@
         <v>1</v>
       </c>
       <c r="H546">
-        <v>0.5221483942414173</v>
+        <v>0.5380214101144333</v>
       </c>
       <c r="I546">
         <v>-0.2355350463814489</v>
@@ -19909,7 +19909,7 @@
         <v>0.02910952336911734</v>
       </c>
       <c r="H547">
-        <v>0.7021040974529348</v>
+        <v>0.6904761904761905</v>
       </c>
       <c r="I547">
         <v>0.9999201883554812</v>
@@ -19938,7 +19938,7 @@
         <v>1</v>
       </c>
       <c r="H548">
-        <v>0.6255075673680324</v>
+        <v>0.6138796603912883</v>
       </c>
       <c r="I548">
         <v>0.5725614821747947</v>
@@ -19996,7 +19996,7 @@
         <v>1</v>
       </c>
       <c r="H550">
-        <v>0.6055740125507568</v>
+        <v>0.5939461055740125</v>
       </c>
       <c r="I550">
         <v>0.5213187785916147</v>
@@ -20025,7 +20025,7 @@
         <v>1</v>
       </c>
       <c r="H551">
-        <v>0.5956072351421188</v>
+        <v>0.5839793281653747</v>
       </c>
       <c r="I551">
         <v>0.5401216764798713</v>
@@ -20054,7 +20054,7 @@
         <v>1</v>
       </c>
       <c r="H552">
-        <v>0.5351605758582503</v>
+        <v>0.5510335917312661</v>
       </c>
       <c r="I552">
         <v>-0.3391523277791685</v>
@@ -20083,7 +20083,7 @@
         <v>1</v>
       </c>
       <c r="H553">
-        <v>0.5225175341454411</v>
+        <v>0.5108896271686969</v>
       </c>
       <c r="I553">
         <v>-0.04039194773062845</v>
@@ -20112,7 +20112,7 @@
         <v>1</v>
       </c>
       <c r="H554">
-        <v>0.5864710225175341</v>
+        <v>0.6023440383905501</v>
       </c>
       <c r="I554">
         <v>-0.5051460371704596</v>
@@ -20199,7 +20199,7 @@
         <v>1</v>
       </c>
       <c r="H557">
-        <v>0.6000369139904023</v>
+        <v>0.6159099298634181</v>
       </c>
       <c r="I557">
         <v>-0.550936154312187</v>
@@ -20228,7 +20228,7 @@
         <v>1</v>
       </c>
       <c r="H558">
-        <v>0.6066814322628276</v>
+        <v>0.6066814322628277</v>
       </c>
       <c r="I558">
         <v>-0.5185906714698766</v>
@@ -20286,7 +20286,7 @@
         <v>1</v>
       </c>
       <c r="H560">
-        <v>0.6260612772240679</v>
+        <v>0.6144333702473237</v>
       </c>
       <c r="I560">
         <v>0.5783115483821818</v>
@@ -20402,7 +20402,7 @@
         <v>1</v>
       </c>
       <c r="H564">
-        <v>0.6249538575119972</v>
+        <v>0.6133259505352529</v>
       </c>
       <c r="I564">
         <v>0.5674825593417717</v>
@@ -20460,7 +20460,7 @@
         <v>1</v>
       </c>
       <c r="H566">
-        <v>0.6274455518641565</v>
+        <v>0.6158176448874124</v>
       </c>
       <c r="I566">
         <v>0.5685418775326594</v>
@@ -20518,7 +20518,7 @@
         <v>1</v>
       </c>
       <c r="H568">
-        <v>0.6065891472868217</v>
+        <v>0.6224621631598376</v>
       </c>
       <c r="I568">
         <v>-0.5555616018922617</v>
@@ -20547,7 +20547,7 @@
         <v>1</v>
       </c>
       <c r="H569">
-        <v>0.6220007382798081</v>
+        <v>0.6103728313030639</v>
       </c>
       <c r="I569">
         <v>0.5433866983011004</v>
@@ -20576,7 +20576,7 @@
         <v>1</v>
       </c>
       <c r="H570">
-        <v>0.6148025101513475</v>
+        <v>0.6148025101513472</v>
       </c>
       <c r="I570">
         <v>-0.5479649844548684</v>
@@ -20605,7 +20605,7 @@
         <v>1</v>
       </c>
       <c r="H571">
-        <v>0.6016980435585088</v>
+        <v>0.6016980435585086</v>
       </c>
       <c r="I571">
         <v>-0.5067350144567911</v>
@@ -20634,7 +20634,7 @@
         <v>0.03568766255106064</v>
       </c>
       <c r="H572">
-        <v>0.6999815430047988</v>
+        <v>0.6883536360280547</v>
       </c>
       <c r="I572">
         <v>0.9922655260857105</v>
@@ -20663,7 +20663,7 @@
         <v>1</v>
       </c>
       <c r="H573">
-        <v>0.6168327796234774</v>
+        <v>0.6052048726467331</v>
       </c>
       <c r="I573">
         <v>0.5410612772039805</v>
@@ -20750,7 +20750,7 @@
         <v>0.5375059813928807</v>
       </c>
       <c r="H576">
-        <v>0.669342930970838</v>
+        <v>0.6577150239940937</v>
       </c>
       <c r="I576">
         <v>0.7474904679501831</v>
@@ -20808,7 +20808,7 @@
         <v>1</v>
       </c>
       <c r="H578">
-        <v>0.4521040974529347</v>
+        <v>0.4679771133259505</v>
       </c>
       <c r="I578">
         <v>0.1004756048452924</v>
@@ -20837,7 +20837,7 @@
         <v>1</v>
       </c>
       <c r="H579">
-        <v>0.5967146548541896</v>
+        <v>0.6125876707272057</v>
       </c>
       <c r="I579">
         <v>-0.6229081186581487</v>
@@ -20895,7 +20895,7 @@
         <v>0.05886585450623158</v>
       </c>
       <c r="H581">
-        <v>0.6937984496124031</v>
+        <v>0.682170542635659</v>
       </c>
       <c r="I581">
         <v>0.9639759259057715</v>
@@ -20924,7 +20924,7 @@
         <v>1</v>
       </c>
       <c r="H582">
-        <v>0.6244924326319674</v>
+        <v>0.6403654485049833</v>
       </c>
       <c r="I582">
         <v>-0.6765560549829674</v>
@@ -20953,7 +20953,7 @@
         <v>1</v>
       </c>
       <c r="H583">
-        <v>0.6354743447766703</v>
+        <v>0.6513473606496862</v>
       </c>
       <c r="I583">
         <v>-0.7173942223624973</v>
@@ -20982,7 +20982,7 @@
         <v>0.1692974498461681</v>
       </c>
       <c r="H584">
-        <v>0.6827242524916944</v>
+        <v>0.6710963455149501</v>
       </c>
       <c r="I584">
         <v>0.7728125260748271</v>
@@ -21011,7 +21011,7 @@
         <v>1</v>
       </c>
       <c r="H585">
-        <v>0.6184016242155776</v>
+        <v>0.6342746400885936</v>
       </c>
       <c r="I585">
         <v>-0.6569296460353568</v>
@@ -21040,7 +21040,7 @@
         <v>1</v>
       </c>
       <c r="H586">
-        <v>0.5392211148025102</v>
+        <v>0.5275932078257659</v>
       </c>
       <c r="I586">
         <v>0.2333910153855084</v>
@@ -21069,7 +21069,7 @@
         <v>1</v>
       </c>
       <c r="H587">
-        <v>0.628922111480251</v>
+        <v>0.6447951273532668</v>
       </c>
       <c r="I587">
         <v>-0.745977674506347</v>
@@ -21098,7 +21098,7 @@
         <v>0.05602437041005158</v>
       </c>
       <c r="H588">
-        <v>0.6950904392764858</v>
+        <v>0.6950904392764857</v>
       </c>
       <c r="I588">
         <v>0.914797441674013</v>
@@ -21156,7 +21156,7 @@
         <v>1</v>
       </c>
       <c r="H590">
-        <v>0.5349760059062384</v>
+        <v>0.5233480989294943</v>
       </c>
       <c r="I590">
         <v>0.05688263772855769</v>
@@ -21185,7 +21185,7 @@
         <v>1</v>
       </c>
       <c r="H591">
-        <v>0.5830564784053156</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="I591">
         <v>0.4759330740686067</v>
@@ -21214,7 +21214,7 @@
         <v>0.647956017934407</v>
       </c>
       <c r="H592">
-        <v>0.620062753783684</v>
+        <v>0.6084348468069397</v>
       </c>
       <c r="I592">
         <v>0.8995679287789909</v>
@@ -21243,7 +21243,7 @@
         <v>0.09136171836969015</v>
       </c>
       <c r="H593">
-        <v>0.6478405315614618</v>
+        <v>0.6362126245847176</v>
       </c>
       <c r="I593">
         <v>0.9687936469930964</v>
@@ -21301,7 +21301,7 @@
         <v>1</v>
       </c>
       <c r="H595">
-        <v>0.5968069398301956</v>
+        <v>0.6126799557032114</v>
       </c>
       <c r="I595">
         <v>-0.6678590085950613</v>
@@ -21330,7 +21330,7 @@
         <v>0.04706882569878232</v>
       </c>
       <c r="H596">
-        <v>0.6983204134366926</v>
+        <v>0.6868770764119601</v>
       </c>
       <c r="I596">
         <v>0.8576657793663033</v>
@@ -21388,7 +21388,7 @@
         <v>1</v>
       </c>
       <c r="H598">
-        <v>0.4941860465116278</v>
+        <v>0.5100590623846437</v>
       </c>
       <c r="I598">
         <v>-0.03017968503422831</v>
@@ -21417,7 +21417,7 @@
         <v>1</v>
       </c>
       <c r="H599">
-        <v>0.58656330749354</v>
+        <v>0.5865633074935401</v>
       </c>
       <c r="I599">
         <v>0.4394755649394702</v>
@@ -21446,7 +21446,7 @@
         <v>1</v>
       </c>
       <c r="H600">
-        <v>0.6098191214470284</v>
+        <v>0.6256921373200444</v>
       </c>
       <c r="I600">
         <v>-0.659479990857939</v>
@@ -21533,7 +21533,7 @@
         <v>1</v>
       </c>
       <c r="H603">
-        <v>0.6117571059431525</v>
+        <v>0.6117571059431526</v>
       </c>
       <c r="I603">
         <v>0.9115251642487368</v>
@@ -21591,7 +21591,7 @@
         <v>0.04746324705389074</v>
       </c>
       <c r="H605">
-        <v>0.7025655223329642</v>
+        <v>0.6909376153562199</v>
       </c>
       <c r="I605">
         <v>0.993995987650962</v>
@@ -21649,7 +21649,7 @@
         <v>1</v>
       </c>
       <c r="H607">
-        <v>0.5890550018456996</v>
+        <v>0.5774270948689553</v>
       </c>
       <c r="I607">
         <v>0.4601685476820159</v>
@@ -21678,7 +21678,7 @@
         <v>0.03392190020919058</v>
       </c>
       <c r="H608">
-        <v>0.6984126984126985</v>
+        <v>0.6867847914359542</v>
       </c>
       <c r="I608">
         <v>0.9871757198466167</v>
@@ -21736,7 +21736,7 @@
         <v>1</v>
       </c>
       <c r="H610">
-        <v>0.6005906238464379</v>
+        <v>0.6005906238464378</v>
       </c>
       <c r="I610">
         <v>0.5090205297316516</v>
@@ -21765,7 +21765,7 @@
         <v>0.8598388604530782</v>
       </c>
       <c r="H611">
-        <v>0.66343669250646</v>
+        <v>0.6518087855297157</v>
       </c>
       <c r="I611">
         <v>0.7362188870628953</v>
@@ -21794,7 +21794,7 @@
         <v>0.4855759509225453</v>
       </c>
       <c r="H612">
-        <v>0.6698043558508675</v>
+        <v>0.6698043558508674</v>
       </c>
       <c r="I612">
         <v>0.8033803859255795</v>
@@ -21823,7 +21823,7 @@
         <v>1</v>
       </c>
       <c r="H613">
-        <v>0.4802510151347361</v>
+        <v>0.4961240310077519</v>
       </c>
       <c r="I613">
         <v>0.1147872838283469</v>
@@ -21852,7 +21852,7 @@
         <v>1</v>
       </c>
       <c r="H614">
-        <v>0.5860095976375046</v>
+        <v>0.6018826135105205</v>
       </c>
       <c r="I614">
         <v>-0.6248743873549334</v>
@@ -21939,7 +21939,7 @@
         <v>0.2339149898149416</v>
       </c>
       <c r="H617">
-        <v>0.6569767441860465</v>
+        <v>0.6728497600590624</v>
       </c>
       <c r="I617">
         <v>-0.8674909032864261</v>
@@ -21968,7 +21968,7 @@
         <v>0.4716232738318063</v>
       </c>
       <c r="H618">
-        <v>0.669342930970838</v>
+        <v>0.6577150239940937</v>
       </c>
       <c r="I618">
         <v>0.5882807483430015</v>
@@ -22026,7 +22026,7 @@
         <v>0.0281320912724353</v>
       </c>
       <c r="H620">
-        <v>0.7023809523809524</v>
+        <v>0.6907530454042081</v>
       </c>
       <c r="I620">
         <v>0.999894793741316</v>
@@ -22084,7 +22084,7 @@
         <v>1</v>
       </c>
       <c r="H622">
-        <v>0.6333517903285346</v>
+        <v>0.6333517903285344</v>
       </c>
       <c r="I622">
         <v>-0.5129204169070086</v>
@@ -22113,7 +22113,7 @@
         <v>0.1773670673840672</v>
       </c>
       <c r="H623">
-        <v>0.6484865263935032</v>
+        <v>0.6368586194167589</v>
       </c>
       <c r="I623">
         <v>0.6880852098139302</v>
@@ -22142,7 +22142,7 @@
         <v>1</v>
       </c>
       <c r="H624">
-        <v>0.5685677371723884</v>
+        <v>0.5569398301956441</v>
       </c>
       <c r="I624">
         <v>0.603949225282878</v>
@@ -22200,7 +22200,7 @@
         <v>1</v>
       </c>
       <c r="H626">
-        <v>0.6324289405684754</v>
+        <v>0.6208010335917312</v>
       </c>
       <c r="I626">
         <v>0.5825959825720392</v>
@@ -22229,7 +22229,7 @@
         <v>1</v>
       </c>
       <c r="H627">
-        <v>0.6300295311923219</v>
+        <v>0.6184016242155776</v>
       </c>
       <c r="I627">
         <v>0.5378543002151287</v>
@@ -22258,7 +22258,7 @@
         <v>1</v>
       </c>
       <c r="H628">
-        <v>0.5557401255075674</v>
+        <v>0.5716131413805833</v>
       </c>
       <c r="I628">
         <v>-0.5961240563179987</v>
@@ -22287,7 +22287,7 @@
         <v>1</v>
       </c>
       <c r="H629">
-        <v>0.5764119601328904</v>
+        <v>0.5647840531561461</v>
       </c>
       <c r="I629">
         <v>0.6428320073716939</v>
@@ -22345,7 +22345,7 @@
         <v>1</v>
       </c>
       <c r="H631">
-        <v>0.6125876707272057</v>
+        <v>0.6009597637504613</v>
       </c>
       <c r="I631">
         <v>0.5494814057007281</v>
@@ -22374,7 +22374,7 @@
         <v>1</v>
       </c>
       <c r="H632">
-        <v>0.5837024732373569</v>
+        <v>0.5995754891103728</v>
       </c>
       <c r="I632">
         <v>-0.1680325341285476</v>
@@ -22403,7 +22403,7 @@
         <v>0.0281320912724353</v>
       </c>
       <c r="H633">
-        <v>0.7023809523809524</v>
+        <v>0.6907530454042081</v>
       </c>
       <c r="I633">
         <v>0.999894793741316</v>
@@ -22432,7 +22432,7 @@
         <v>1</v>
       </c>
       <c r="H634">
-        <v>0.6388888888888888</v>
+        <v>0.6272609819121446</v>
       </c>
       <c r="I634">
         <v>0.5188409898095042</v>
@@ -22461,7 +22461,7 @@
         <v>1</v>
       </c>
       <c r="H635">
-        <v>0.6584533038021411</v>
+        <v>0.658453303802141</v>
       </c>
       <c r="I635">
         <v>-0.45557212251813</v>
@@ -22490,7 +22490,7 @@
         <v>1</v>
       </c>
       <c r="H636">
-        <v>0.5506644518272426</v>
+        <v>0.5390365448504983</v>
       </c>
       <c r="I636">
         <v>0.6193492448730088</v>
@@ -22519,7 +22519,7 @@
         <v>1</v>
       </c>
       <c r="H637">
-        <v>0.5792727943890735</v>
+        <v>0.5676448874123292</v>
       </c>
       <c r="I637">
         <v>0.6237896745498807</v>
@@ -22548,7 +22548,7 @@
         <v>1</v>
       </c>
       <c r="H638">
-        <v>0.6126799557032115</v>
+        <v>0.6126799557032114</v>
       </c>
       <c r="I638">
         <v>-0.174544438760888</v>
@@ -22577,7 +22577,7 @@
         <v>1</v>
       </c>
       <c r="H639">
-        <v>0.4572720561092654</v>
+        <v>0.4456441491325212</v>
       </c>
       <c r="I639">
         <v>-0.1332455405243625</v>
@@ -22635,7 +22635,7 @@
         <v>1</v>
       </c>
       <c r="H641">
-        <v>0.6331672203765227</v>
+        <v>0.6331672203765226</v>
       </c>
       <c r="I641">
         <v>-0.3676995019027823</v>
@@ -22664,7 +22664,7 @@
         <v>1</v>
       </c>
       <c r="H642">
-        <v>0.6135105204872647</v>
+        <v>0.6135105204872646</v>
       </c>
       <c r="I642">
         <v>-0.3747882270568731</v>
@@ -22722,7 +22722,7 @@
         <v>1</v>
       </c>
       <c r="H644">
-        <v>0.6274455518641566</v>
+        <v>0.6274455518641565</v>
       </c>
       <c r="I644">
         <v>-0.4345744044056029</v>
@@ -22780,7 +22780,7 @@
         <v>1</v>
       </c>
       <c r="H646">
-        <v>0.6234772978959027</v>
+        <v>0.6118493909191584</v>
       </c>
       <c r="I646">
         <v>0.4786884770124325</v>
@@ -22809,7 +22809,7 @@
         <v>1</v>
       </c>
       <c r="H647">
-        <v>0.6389811738648948</v>
+        <v>0.6389811738648947</v>
       </c>
       <c r="I647">
         <v>-0.4821929337672185</v>
@@ -22838,7 +22838,7 @@
         <v>1</v>
       </c>
       <c r="H648">
-        <v>0.5267626430417128</v>
+        <v>0.5151347360649686</v>
       </c>
       <c r="I648">
         <v>0.2066359754615472</v>
@@ -22867,7 +22867,7 @@
         <v>1</v>
       </c>
       <c r="H649">
-        <v>0.5855481727574752</v>
+        <v>0.5855481727574751</v>
       </c>
       <c r="I649">
         <v>-0.4019423252034291</v>
@@ -22896,7 +22896,7 @@
         <v>1</v>
       </c>
       <c r="H650">
-        <v>0.6093576965669989</v>
+        <v>0.5977297895902546</v>
       </c>
       <c r="I650">
         <v>0.4312513377519963</v>
@@ -22925,7 +22925,7 @@
         <v>0.1801364763107365</v>
       </c>
       <c r="H651">
-        <v>0.6794942783314877</v>
+        <v>0.6678663713547435</v>
       </c>
       <c r="I651">
         <v>0.8000101578456661</v>
@@ -22954,7 +22954,7 @@
         <v>1</v>
       </c>
       <c r="H652">
-        <v>0.6118493909191584</v>
+        <v>0.6002214839424143</v>
       </c>
       <c r="I652">
         <v>0.4337799157624371</v>
@@ -22983,7 +22983,7 @@
         <v>0.3309493836359915</v>
       </c>
       <c r="H653">
-        <v>0.6745108896271688</v>
+        <v>0.6628829826504246</v>
       </c>
       <c r="I653">
         <v>0.7803365874717487</v>
@@ -23012,7 +23012,7 @@
         <v>1</v>
       </c>
       <c r="H654">
-        <v>0.632982650424511</v>
+        <v>0.6213547434477666</v>
       </c>
       <c r="I654">
         <v>0.4714582675794218</v>
@@ -23041,7 +23041,7 @@
         <v>1</v>
       </c>
       <c r="H655">
-        <v>0.6193244739756367</v>
+        <v>0.6076965669988925</v>
       </c>
       <c r="I655">
         <v>0.4240501507351742</v>
@@ -23070,7 +23070,7 @@
         <v>1</v>
       </c>
       <c r="H656">
-        <v>0.6589147286821706</v>
+        <v>0.6589147286821705</v>
       </c>
       <c r="I656">
         <v>-0.541021371381721</v>
@@ -23128,7 +23128,7 @@
         <v>0.03169643252399901</v>
       </c>
       <c r="H658">
-        <v>0.7040420819490587</v>
+        <v>0.6924141749723145</v>
       </c>
       <c r="I658">
         <v>0.9856629264027804</v>
@@ -23157,7 +23157,7 @@
         <v>1</v>
       </c>
       <c r="H659">
-        <v>0.6455334071613141</v>
+        <v>0.6339055001845699</v>
       </c>
       <c r="I659">
         <v>0.5253456388377974</v>
@@ -23215,7 +23215,7 @@
         <v>1</v>
       </c>
       <c r="H661">
-        <v>0.5462347729789591</v>
+        <v>0.5346068660022149</v>
       </c>
       <c r="I661">
         <v>0.6096412466578874</v>
@@ -23244,7 +23244,7 @@
         <v>1</v>
       </c>
       <c r="H662">
-        <v>0.6082502768549281</v>
+        <v>0.5966223698781837</v>
       </c>
       <c r="I662">
         <v>0.499138397019398</v>
@@ -23273,7 +23273,7 @@
         <v>1</v>
       </c>
       <c r="H663">
-        <v>0.5979143595422666</v>
+        <v>0.5862864525655223</v>
       </c>
       <c r="I663">
         <v>0.720372647823863</v>
@@ -23302,7 +23302,7 @@
         <v>1</v>
       </c>
       <c r="H664">
-        <v>0.5131967515688446</v>
+        <v>0.5290697674418605</v>
       </c>
       <c r="I664">
         <v>-0.4822328395894779</v>
@@ -23331,7 +23331,7 @@
         <v>1</v>
       </c>
       <c r="H665">
-        <v>0.5431893687707641</v>
+        <v>0.55906238464378</v>
       </c>
       <c r="I665">
         <v>-0.7012069697332478</v>
@@ -23389,7 +23389,7 @@
         <v>0.04083345271521285</v>
       </c>
       <c r="H667">
-        <v>0.695828719084533</v>
+        <v>0.6842008121077889</v>
       </c>
       <c r="I667">
         <v>0.985456141687436</v>
@@ -23447,7 +23447,7 @@
         <v>1</v>
       </c>
       <c r="H669">
-        <v>0.6093576965669989</v>
+        <v>0.6093576965669988</v>
       </c>
       <c r="I669">
         <v>-0.4941610526430353</v>
@@ -23476,7 +23476,7 @@
         <v>1</v>
       </c>
       <c r="H670">
-        <v>0.6024363233665559</v>
+        <v>0.5908084163898117</v>
       </c>
       <c r="I670">
         <v>0.5027553156369151</v>
@@ -23505,7 +23505,7 @@
         <v>1</v>
       </c>
       <c r="H671">
-        <v>0.6133259505352529</v>
+        <v>0.613325950535253</v>
       </c>
       <c r="I671">
         <v>-0.5003754775094414</v>
@@ -23534,7 +23534,7 @@
         <v>1</v>
       </c>
       <c r="H672">
-        <v>0.543373938722776</v>
+        <v>0.5317460317460317</v>
       </c>
       <c r="I672">
         <v>0.5586561170183821</v>
@@ -23563,7 +23563,7 @@
         <v>1</v>
       </c>
       <c r="H673">
-        <v>0.5709671465485419</v>
+        <v>0.5868401624215578</v>
       </c>
       <c r="I673">
         <v>-0.7304144038251545</v>
@@ -23592,7 +23592,7 @@
         <v>0.004324257718968384</v>
       </c>
       <c r="H674">
-        <v>0.7209302325581395</v>
+        <v>0.7093023255813953</v>
       </c>
       <c r="I674">
         <v>0.9369306618199232</v>
@@ -23650,7 +23650,7 @@
         <v>1</v>
       </c>
       <c r="H676">
-        <v>0.5643226282761167</v>
+        <v>0.5643226282761166</v>
       </c>
       <c r="I676">
         <v>0.05462744287118764</v>
@@ -23679,7 +23679,7 @@
         <v>1</v>
       </c>
       <c r="H677">
-        <v>0.5473421926910299</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="I677">
         <v>0.6074754488498055</v>
@@ -23708,7 +23708,7 @@
         <v>0.2303736546280946</v>
       </c>
       <c r="H678">
-        <v>0.4889258028792913</v>
+        <v>0.4889258028792912</v>
       </c>
       <c r="I678">
         <v>0.8590707747896782</v>
@@ -23737,7 +23737,7 @@
         <v>0.1746377867055376</v>
       </c>
       <c r="H679">
-        <v>0.5885935769656699</v>
+        <v>0.5769656699889257</v>
       </c>
       <c r="I679">
         <v>0.9317029991039329</v>
@@ -23795,7 +23795,7 @@
         <v>1</v>
       </c>
       <c r="H681">
-        <v>0.5529715762273901</v>
+        <v>0.5688445921004061</v>
       </c>
       <c r="I681">
         <v>-0.7340567170568369</v>
@@ -23824,7 +23824,7 @@
         <v>0.1055361873159054</v>
       </c>
       <c r="H682">
-        <v>0.686046511627907</v>
+        <v>0.6627906976744186</v>
       </c>
       <c r="I682">
         <v>0.8680558137851103</v>
@@ -23853,7 +23853,7 @@
         <v>1</v>
       </c>
       <c r="H683">
-        <v>0.5895164267257291</v>
+        <v>0.589516426725729</v>
       </c>
       <c r="I683">
         <v>-0.3689003043725899</v>
@@ -23911,7 +23911,7 @@
         <v>1</v>
       </c>
       <c r="H685">
-        <v>0.5522332964193429</v>
+        <v>0.5406053894425986</v>
       </c>
       <c r="I685">
         <v>0.536214533700467</v>
@@ -23940,7 +23940,7 @@
         <v>1</v>
       </c>
       <c r="H686">
-        <v>0.5661683277962348</v>
+        <v>0.5820413436692506</v>
       </c>
       <c r="I686">
         <v>-0.7309730853367871</v>
@@ -23969,7 +23969,7 @@
         <v>1</v>
       </c>
       <c r="H687">
-        <v>0.5511258767072721</v>
+        <v>0.5394979697305279</v>
       </c>
       <c r="I687">
         <v>0.5598569194881897</v>
@@ -24027,7 +24027,7 @@
         <v>0.1541845378474904</v>
       </c>
       <c r="H689">
-        <v>0.4889258028792913</v>
+        <v>0.4889258028792912</v>
       </c>
       <c r="I689">
         <v>0.878171152443869</v>
@@ -24085,7 +24085,7 @@
         <v>0.06083551115517505</v>
       </c>
       <c r="H691">
-        <v>0.6933370247323736</v>
+        <v>0.6817091177556294</v>
       </c>
       <c r="I691">
         <v>0.9852167067538793</v>
@@ -24114,7 +24114,7 @@
         <v>1</v>
       </c>
       <c r="H692">
-        <v>0.6120339608711702</v>
+        <v>0.6279069767441861</v>
       </c>
       <c r="I692">
         <v>-0.5126447039532159</v>
@@ -24143,7 +24143,7 @@
         <v>1</v>
       </c>
       <c r="H693">
-        <v>0.6121262458471761</v>
+        <v>0.6004983388704319</v>
       </c>
       <c r="I693">
         <v>0.3872098211856383</v>
@@ -24172,7 +24172,7 @@
         <v>0.03754056799553337</v>
       </c>
       <c r="H694">
-        <v>0.6989664082687338</v>
+        <v>0.6873385012919897</v>
       </c>
       <c r="I694">
         <v>0.9748448207684413</v>
@@ -24201,7 +24201,7 @@
         <v>1</v>
       </c>
       <c r="H695">
-        <v>0.6570690291620525</v>
+        <v>0.6570690291620523</v>
       </c>
       <c r="I695">
         <v>-0.4552746427521958</v>
@@ -24230,7 +24230,7 @@
         <v>1</v>
       </c>
       <c r="H696">
-        <v>0.5462347729789591</v>
+        <v>0.5346068660022149</v>
       </c>
       <c r="I696">
         <v>0.6102216949816616</v>
@@ -24259,7 +24259,7 @@
         <v>1</v>
       </c>
       <c r="H697">
-        <v>0.6065891472868217</v>
+        <v>0.5949612403100775</v>
       </c>
       <c r="I697">
         <v>0.4672282504199182</v>
@@ -24288,7 +24288,7 @@
         <v>1</v>
       </c>
       <c r="H698">
-        <v>0.5906238464378</v>
+        <v>0.5789959394610557</v>
       </c>
       <c r="I698">
         <v>0.7283320454636151</v>
@@ -24317,7 +24317,7 @@
         <v>1</v>
       </c>
       <c r="H699">
-        <v>0.5131967515688446</v>
+        <v>0.5290697674418605</v>
       </c>
       <c r="I699">
         <v>-0.2052646662966309</v>
@@ -24346,7 +24346,7 @@
         <v>1</v>
       </c>
       <c r="H700">
-        <v>0.5375599852344037</v>
+        <v>0.5534330011074197</v>
       </c>
       <c r="I700">
         <v>-0.6969406745535083</v>
@@ -24404,7 +24404,7 @@
         <v>1</v>
       </c>
       <c r="H702">
-        <v>0.477390180878553</v>
+        <v>0.4657622739018087</v>
       </c>
       <c r="I702">
         <v>0.1527848822234073</v>
@@ -24433,7 +24433,7 @@
         <v>0.9884348194886934</v>
       </c>
       <c r="H703">
-        <v>0.6411960132890365</v>
+        <v>0.6570690291620525</v>
       </c>
       <c r="I703">
         <v>-0.8558819368109445</v>
@@ -24462,7 +24462,7 @@
         <v>1</v>
       </c>
       <c r="H704">
-        <v>0.6012366186784792</v>
+        <v>0.6012366186784791</v>
       </c>
       <c r="I704">
         <v>0.4507181234105693</v>
@@ -24520,7 +24520,7 @@
         <v>0.02861683669348698</v>
       </c>
       <c r="H706">
-        <v>0.7031192321889997</v>
+        <v>0.6914913252122554</v>
       </c>
       <c r="I706">
         <v>1</v>
@@ -24549,7 +24549,7 @@
         <v>1</v>
       </c>
       <c r="H707">
-        <v>0.5410668143226284</v>
+        <v>0.5410668143226283</v>
       </c>
       <c r="I707">
         <v>-0.2899266821211033</v>
@@ -24607,7 +24607,7 @@
         <v>0.07049786713390939</v>
       </c>
       <c r="H709">
-        <v>0.6854928017718716</v>
+        <v>0.6738648947951273</v>
       </c>
       <c r="I709">
         <v>0.6867792010854384</v>
@@ -24636,7 +24636,7 @@
         <v>1</v>
       </c>
       <c r="H710">
-        <v>0.6442414174972314</v>
+        <v>0.6326135105204873</v>
       </c>
       <c r="I710">
         <v>0.6320937133818735</v>
@@ -24694,7 +24694,7 @@
         <v>1</v>
       </c>
       <c r="H712">
-        <v>0.6006829088224437</v>
+        <v>0.6165559246954595</v>
       </c>
       <c r="I712">
         <v>-0.5264775130691568</v>
@@ -24752,7 +24752,7 @@
         <v>1</v>
       </c>
       <c r="H714">
-        <v>0.6159099298634182</v>
+        <v>0.6317829457364341</v>
       </c>
       <c r="I714">
         <v>-0.5978146120609907</v>
@@ -24781,7 +24781,7 @@
         <v>1</v>
       </c>
       <c r="H715">
-        <v>0.6363049095607235</v>
+        <v>0.6246770025839794</v>
       </c>
       <c r="I715">
         <v>0.6260860732308117</v>
@@ -24839,7 +24839,7 @@
         <v>1</v>
       </c>
       <c r="H717">
-        <v>0.5938538205980066</v>
+        <v>0.6097268364710224</v>
       </c>
       <c r="I717">
         <v>-0.5312879785524345</v>
@@ -24897,7 +24897,7 @@
         <v>0.02861683669348698</v>
       </c>
       <c r="H719">
-        <v>0.7031192321889997</v>
+        <v>0.6914913252122554</v>
       </c>
       <c r="I719">
         <v>1</v>
@@ -25013,7 +25013,7 @@
         <v>1</v>
       </c>
       <c r="H723">
-        <v>0.621170173495755</v>
+        <v>0.6095422665190107</v>
       </c>
       <c r="I723">
         <v>0.3827512524986487</v>
@@ -25042,7 +25042,7 @@
         <v>1</v>
       </c>
       <c r="H724">
-        <v>0.4661314138058325</v>
+        <v>0.4545035068290882</v>
       </c>
       <c r="I724">
         <v>-0.2280545186088105</v>
@@ -25100,7 +25100,7 @@
         <v>1</v>
       </c>
       <c r="H726">
-        <v>0.5921926910299005</v>
+        <v>0.5921926910299004</v>
       </c>
       <c r="I726">
         <v>-0.4420948380005007</v>
@@ -25129,7 +25129,7 @@
         <v>1</v>
       </c>
       <c r="H727">
-        <v>0.590531561461794</v>
+        <v>0.5789036544850498</v>
       </c>
       <c r="I727">
         <v>0.2078549169414727</v>
@@ -25158,7 +25158,7 @@
         <v>1</v>
       </c>
       <c r="H728">
-        <v>0.6374123292727943</v>
+        <v>0.6374123292727945</v>
       </c>
       <c r="I728">
         <v>-0.5676530660368803</v>
@@ -25187,7 +25187,7 @@
         <v>1</v>
       </c>
       <c r="H729">
-        <v>0.6208010335917313</v>
+        <v>0.609173126614987</v>
       </c>
       <c r="I729">
         <v>0.3453631248435511</v>
@@ -25216,7 +25216,7 @@
         <v>1</v>
       </c>
       <c r="H730">
-        <v>0.5140273163528977</v>
+        <v>0.5140273163528978</v>
       </c>
       <c r="I730">
         <v>-0.1712104887012106</v>
@@ -25245,7 +25245,7 @@
         <v>1</v>
       </c>
       <c r="H731">
-        <v>0.4907715023994094</v>
+        <v>0.4791435954226652</v>
       </c>
       <c r="I731">
         <v>-0.1727631879673063</v>
@@ -25332,7 +25332,7 @@
         <v>1</v>
       </c>
       <c r="H734">
-        <v>0.6224621631598376</v>
+        <v>0.6224621631598375</v>
       </c>
       <c r="I734">
         <v>0.323687007752613</v>
@@ -25361,7 +25361,7 @@
         <v>1</v>
       </c>
       <c r="H735">
-        <v>0.5433739387227761</v>
+        <v>0.543373938722776</v>
       </c>
       <c r="I735">
         <v>-0.2090121857869973</v>
@@ -25419,7 +25419,7 @@
         <v>1</v>
       </c>
       <c r="H737">
-        <v>0.6442414174972314</v>
+        <v>0.6326135105204873</v>
       </c>
       <c r="I737">
         <v>0.6262565799259204</v>
@@ -25477,7 +25477,7 @@
         <v>1</v>
       </c>
       <c r="H739">
-        <v>0.6185861941675895</v>
+        <v>0.6069582871908452</v>
       </c>
       <c r="I739">
         <v>0.5675732543923615</v>
@@ -25506,7 +25506,7 @@
         <v>1</v>
       </c>
       <c r="H740">
-        <v>0.6478405315614618</v>
+        <v>0.6362126245847175</v>
       </c>
       <c r="I740">
         <v>0.5251787599447124</v>
@@ -25535,7 +25535,7 @@
         <v>1</v>
       </c>
       <c r="H741">
-        <v>0.5538944259874492</v>
+        <v>0.5697674418604651</v>
       </c>
       <c r="I741">
         <v>-0.193307430826885</v>
@@ -25593,7 +25593,7 @@
         <v>1</v>
       </c>
       <c r="H743">
-        <v>0.5345145810262089</v>
+        <v>0.534514581026209</v>
       </c>
       <c r="I743">
         <v>-0.2507065144440938</v>
@@ -25622,7 +25622,7 @@
         <v>0.03063646681014279</v>
       </c>
       <c r="H744">
-        <v>0.7000738279808048</v>
+        <v>0.6884459210040605</v>
       </c>
       <c r="I744">
         <v>0.9991365831183863</v>
@@ -25651,7 +25651,7 @@
         <v>1</v>
       </c>
       <c r="H745">
-        <v>0.5498338870431894</v>
+        <v>0.5498338870431893</v>
       </c>
       <c r="I745">
         <v>0.3093100283331339</v>
@@ -25680,7 +25680,7 @@
         <v>1</v>
       </c>
       <c r="H746">
-        <v>0.5416205241786638</v>
+        <v>0.5416205241786637</v>
       </c>
       <c r="I746">
         <v>-0.266755910596447</v>
@@ -25709,7 +25709,7 @@
         <v>1</v>
       </c>
       <c r="H747">
-        <v>0.619970468807678</v>
+        <v>0.6083425618309339</v>
       </c>
       <c r="I747">
         <v>0.3481746714118318</v>
@@ -25738,7 +25738,7 @@
         <v>1</v>
       </c>
       <c r="H748">
-        <v>0.5384828349944628</v>
+        <v>0.5268549280177187</v>
       </c>
       <c r="I748">
         <v>0.5570743953360978</v>
@@ -25767,7 +25767,7 @@
         <v>1</v>
       </c>
       <c r="H749">
-        <v>0.6308600959763752</v>
+        <v>0.6192321889996308</v>
       </c>
       <c r="I749">
         <v>0.6576769732522157</v>
@@ -25796,7 +25796,7 @@
         <v>1</v>
       </c>
       <c r="H750">
-        <v>0.6040974529346621</v>
+        <v>0.619970468807678</v>
       </c>
       <c r="I750">
         <v>-0.3625226284151222</v>
@@ -25825,7 +25825,7 @@
         <v>0.9092886729117814</v>
       </c>
       <c r="H751">
-        <v>0.617017349575489</v>
+        <v>0.632890365448505</v>
       </c>
       <c r="I751">
         <v>-0.678638413344507</v>
@@ -25883,7 +25883,7 @@
         <v>0.02495128224636893</v>
       </c>
       <c r="H753">
-        <v>0.7060723514211887</v>
+        <v>0.6944444444444444</v>
       </c>
       <c r="I753">
         <v>0.9971195251932713</v>
@@ -25912,7 +25912,7 @@
         <v>1</v>
       </c>
       <c r="H754">
-        <v>0.5071059431524548</v>
+        <v>0.5071059431524547</v>
       </c>
       <c r="I754">
         <v>-0.3762719980845206</v>
@@ -25970,7 +25970,7 @@
         <v>1</v>
       </c>
       <c r="H756">
-        <v>0.5235326688815061</v>
+        <v>0.5119047619047619</v>
       </c>
       <c r="I756">
         <v>0.5129530671252209</v>
@@ -25999,7 +25999,7 @@
         <v>1</v>
       </c>
       <c r="H757">
-        <v>0.5373754152823921</v>
+        <v>0.537375415282392</v>
       </c>
       <c r="I757">
         <v>-0.4981117290467225</v>
@@ -26028,7 +26028,7 @@
         <v>1</v>
       </c>
       <c r="H758">
-        <v>0.6165559246954596</v>
+        <v>0.6049280177187153</v>
       </c>
       <c r="I758">
         <v>0.3530794597477227</v>
@@ -26057,7 +26057,7 @@
         <v>1</v>
       </c>
       <c r="H759">
-        <v>0.6285529715762272</v>
+        <v>0.6444259874492432</v>
       </c>
       <c r="I759">
         <v>-0.6860101070564378</v>
@@ -26086,7 +26086,7 @@
         <v>0.2166913662136243</v>
       </c>
       <c r="H760">
-        <v>0.6767257290513106</v>
+        <v>0.6538390550018457</v>
       </c>
       <c r="I760">
         <v>0.7808226259862926</v>
@@ -26115,7 +26115,7 @@
         <v>1</v>
       </c>
       <c r="H761">
-        <v>0.5568475452196382</v>
+        <v>0.5727205610926541</v>
       </c>
       <c r="I761">
         <v>0.07767571450798517</v>
@@ -26144,7 +26144,7 @@
         <v>1</v>
       </c>
       <c r="H762">
-        <v>0.5980989294942783</v>
+        <v>0.5632152085640458</v>
       </c>
       <c r="I762">
         <v>0.4734025764961521</v>
@@ -26173,7 +26173,7 @@
         <v>1</v>
       </c>
       <c r="H763">
-        <v>0.6099114064230343</v>
+        <v>0.5866555924695459</v>
       </c>
       <c r="I763">
         <v>0.5398429698828671</v>
@@ -26231,7 +26231,7 @@
         <v>0.2339149898149416</v>
       </c>
       <c r="H765">
-        <v>0.6495939461055741</v>
+        <v>0.6379660391288298</v>
       </c>
       <c r="I765">
         <v>0.9481296866667394</v>
@@ -26260,7 +26260,7 @@
         <v>1</v>
       </c>
       <c r="H766">
-        <v>0.4568106312292359</v>
+        <v>0.4726836471022518</v>
       </c>
       <c r="I766">
         <v>0.7902441147981675</v>
@@ -26289,7 +26289,7 @@
         <v>1</v>
       </c>
       <c r="H767">
-        <v>0.6017903285345145</v>
+        <v>0.6176633444075303</v>
       </c>
       <c r="I767">
         <v>-0.575047320363144</v>
@@ -26318,7 +26318,7 @@
         <v>0.09898050224924518</v>
       </c>
       <c r="H768">
-        <v>0.689922480620155</v>
+        <v>0.6555924695459578</v>
       </c>
       <c r="I768">
         <v>0.8037736807830401</v>
@@ -26347,7 +26347,7 @@
         <v>1</v>
       </c>
       <c r="H769">
-        <v>0.5266703580657068</v>
+        <v>0.5425433739387228</v>
       </c>
       <c r="I769">
         <v>-0.01612746703009805</v>
@@ -26376,7 +26376,7 @@
         <v>1</v>
       </c>
       <c r="H770">
-        <v>0.5180878552971576</v>
+        <v>0.5064599483204134</v>
       </c>
       <c r="I770">
         <v>0.1790138908539484</v>
@@ -26405,7 +26405,7 @@
         <v>1</v>
       </c>
       <c r="H771">
-        <v>0.6279069767441859</v>
+        <v>0.6162790697674418</v>
       </c>
       <c r="I771">
         <v>0.5950248323048516</v>
@@ -26463,7 +26463,7 @@
         <v>1</v>
       </c>
       <c r="H773">
-        <v>0.6301218161683279</v>
+        <v>0.6072351421188629</v>
       </c>
       <c r="I773">
         <v>0.5034432532151156</v>
@@ -26579,7 +26579,7 @@
         <v>0.03063646681014279</v>
       </c>
       <c r="H777">
-        <v>0.6998892580287929</v>
+        <v>0.6882613510520486</v>
       </c>
       <c r="I777">
         <v>0.9981897267902298</v>
@@ -26608,7 +26608,7 @@
         <v>0.594583701702154</v>
       </c>
       <c r="H778">
-        <v>0.6670358065706903</v>
+        <v>0.6554078995939461</v>
       </c>
       <c r="I778">
         <v>0.7644177921922447</v>
@@ -26637,7 +26637,7 @@
         <v>1</v>
       </c>
       <c r="H779">
-        <v>0.6598375784422297</v>
+        <v>0.6598375784422296</v>
       </c>
       <c r="I779">
         <v>-0.7158669177105668</v>
@@ -26666,7 +26666,7 @@
         <v>0.03063646681014279</v>
       </c>
       <c r="H780">
-        <v>0.7009043927648579</v>
+        <v>0.6892764857881137</v>
       </c>
       <c r="I780">
         <v>0.9995574081531223</v>
@@ -26724,7 +26724,7 @@
         <v>1</v>
       </c>
       <c r="H782">
-        <v>0.6162790697674418</v>
+        <v>0.6046511627906976</v>
       </c>
       <c r="I782">
         <v>0.3460197570098205</v>
@@ -26782,7 +26782,7 @@
         <v>1</v>
       </c>
       <c r="H784">
-        <v>0.6140642303433</v>
+        <v>0.6024363233665559</v>
       </c>
       <c r="I784">
         <v>0.5915312589561363</v>
@@ -26811,7 +26811,7 @@
         <v>1</v>
       </c>
       <c r="H785">
-        <v>0.6195090439276485</v>
+        <v>0.6353820598006644</v>
       </c>
       <c r="I785">
         <v>-0.412209004930183</v>
@@ -26840,7 +26840,7 @@
         <v>1</v>
       </c>
       <c r="H786">
-        <v>0.6056662975267625</v>
+        <v>0.6215393133997785</v>
       </c>
       <c r="I786">
         <v>-0.6322569644729349</v>
@@ -26869,7 +26869,7 @@
         <v>1</v>
       </c>
       <c r="H787">
-        <v>0.572720561092654</v>
+        <v>0.5885935769656699</v>
       </c>
       <c r="I787">
         <v>-0.666013662302421</v>
@@ -26898,7 +26898,7 @@
         <v>1</v>
       </c>
       <c r="H788">
-        <v>0.5406976744186047</v>
+        <v>0.5290697674418605</v>
       </c>
       <c r="I788">
         <v>0.05197189178992125</v>
@@ -26927,7 +26927,7 @@
         <v>0.4647882885633748</v>
       </c>
       <c r="H789">
-        <v>0.6531930601698044</v>
+        <v>0.6690660760428202</v>
       </c>
       <c r="I789">
         <v>-0.7929395717016933</v>
@@ -26956,7 +26956,7 @@
         <v>1</v>
       </c>
       <c r="H790">
-        <v>0.6430417128091547</v>
+        <v>0.6314138058324105</v>
       </c>
       <c r="I790">
         <v>0.5856324528657822</v>
@@ -26985,7 +26985,7 @@
         <v>1</v>
       </c>
       <c r="H791">
-        <v>0.6068660022148394</v>
+        <v>0.6068660022148393</v>
       </c>
       <c r="I791">
         <v>-0.4703517879622274</v>
@@ -27014,7 +27014,7 @@
         <v>0.02765516614886673</v>
       </c>
       <c r="H792">
-        <v>0.7024732373569583</v>
+        <v>0.6908453303802141</v>
       </c>
       <c r="I792">
         <v>0.9999201883554812</v>
@@ -27043,7 +27043,7 @@
         <v>1</v>
       </c>
       <c r="H793">
-        <v>0.6281838316722038</v>
+        <v>0.6281838316722037</v>
       </c>
       <c r="I793">
         <v>-0.5317305703993123</v>
@@ -27101,7 +27101,7 @@
         <v>0.01379458249059291</v>
       </c>
       <c r="H795">
-        <v>0.7070874861572537</v>
+        <v>0.6954595791805094</v>
       </c>
       <c r="I795">
         <v>0.7749819516849328</v>
@@ -27130,7 +27130,7 @@
         <v>0.8015405526693683</v>
       </c>
       <c r="H796">
-        <v>0.6638058324104836</v>
+        <v>0.6521779254337394</v>
       </c>
       <c r="I796">
         <v>0.6232164818301535</v>
@@ -27188,7 +27188,7 @@
         <v>1</v>
       </c>
       <c r="H798">
-        <v>0.6400885935769657</v>
+        <v>0.6284606866002215</v>
       </c>
       <c r="I798">
         <v>0.5777927726928087</v>
@@ -27217,7 +27217,7 @@
         <v>1</v>
       </c>
       <c r="H799">
-        <v>0.6224621631598375</v>
+        <v>0.6108342561830933</v>
       </c>
       <c r="I799">
         <v>0.5830022963986811</v>
@@ -27246,7 +27246,7 @@
         <v>1</v>
       </c>
       <c r="H800">
-        <v>0.6019748984865265</v>
+        <v>0.6178479143595423</v>
       </c>
       <c r="I800">
         <v>-0.5873991924512697</v>
@@ -27275,7 +27275,7 @@
         <v>1</v>
       </c>
       <c r="H801">
-        <v>0.6485788113695091</v>
+        <v>0.6369509043927648</v>
       </c>
       <c r="I801">
         <v>0.6501637952613653</v>
@@ -27333,7 +27333,7 @@
         <v>1</v>
       </c>
       <c r="H803">
-        <v>0.6510705057216686</v>
+        <v>0.6394425987449244</v>
       </c>
       <c r="I803">
         <v>0.5694778504547451</v>
@@ -27362,7 +27362,7 @@
         <v>1</v>
       </c>
       <c r="H804">
-        <v>0.5319306016980434</v>
+        <v>0.5478036175710594</v>
       </c>
       <c r="I804">
         <v>-0.1119467148438775</v>
@@ -27391,7 +27391,7 @@
         <v>0.02765516614886673</v>
       </c>
       <c r="H805">
-        <v>0.7024732373569583</v>
+        <v>0.6908453303802141</v>
       </c>
       <c r="I805">
         <v>0.9999201883554812</v>
@@ -27420,7 +27420,7 @@
         <v>1</v>
       </c>
       <c r="H806">
-        <v>0.6301218161683277</v>
+        <v>0.6184939091915835</v>
       </c>
       <c r="I806">
         <v>0.5628897619799093</v>
@@ -27449,7 +27449,7 @@
         <v>1</v>
       </c>
       <c r="H807">
-        <v>0.6081579918789222</v>
+        <v>0.6081579918789221</v>
       </c>
       <c r="I807">
         <v>-0.4368127582541566</v>
@@ -27478,7 +27478,7 @@
         <v>1</v>
       </c>
       <c r="H808">
-        <v>0.6090808416389811</v>
+        <v>0.5974529346622369</v>
       </c>
       <c r="I808">
         <v>0.6136100620716927</v>
@@ -27507,7 +27507,7 @@
         <v>1</v>
       </c>
       <c r="H809">
-        <v>0.6310446659283869</v>
+        <v>0.6194167589516426</v>
       </c>
       <c r="I809">
         <v>0.6208185046925621</v>
@@ -27565,7 +27565,7 @@
         <v>1</v>
       </c>
       <c r="H811">
-        <v>0.5002768549280178</v>
+        <v>0.5002768549280177</v>
       </c>
       <c r="I811">
         <v>-0.02518782944977127</v>
@@ -27710,7 +27710,7 @@
         <v>1</v>
       </c>
       <c r="H816">
-        <v>0.6124953857511997</v>
+        <v>0.6124953857511998</v>
       </c>
       <c r="I816">
         <v>-0.4877144484471194</v>
@@ -27768,7 +27768,7 @@
         <v>1</v>
       </c>
       <c r="H818">
-        <v>0.6153562200073829</v>
+        <v>0.6037283130306386</v>
       </c>
       <c r="I818">
         <v>0.5467823209951788</v>
@@ -27826,7 +27826,7 @@
         <v>1</v>
       </c>
       <c r="H820">
-        <v>0.5511258767072721</v>
+        <v>0.5394979697305278</v>
       </c>
       <c r="I820">
         <v>0.102169788390308</v>
@@ -27855,7 +27855,7 @@
         <v>1</v>
       </c>
       <c r="H821">
-        <v>0.6116648209671466</v>
+        <v>0.6116648209671465</v>
       </c>
       <c r="I821">
         <v>-0.3756480161364635</v>
@@ -27884,7 +27884,7 @@
         <v>1</v>
       </c>
       <c r="H822">
-        <v>0.6016980435585086</v>
+        <v>0.5900701365817644</v>
       </c>
       <c r="I822">
         <v>0.5143933045285853</v>
@@ -27913,7 +27913,7 @@
         <v>0.01454470377576037</v>
       </c>
       <c r="H823">
-        <v>0.7061646363971945</v>
+        <v>0.6945367294204503</v>
       </c>
       <c r="I823">
         <v>0.8464750461637809</v>
@@ -27942,7 +27942,7 @@
         <v>1</v>
       </c>
       <c r="H824">
-        <v>0.6048357327427095</v>
+        <v>0.5932078257659653</v>
       </c>
       <c r="I824">
         <v>0.5120352332132532</v>
@@ -27971,7 +27971,7 @@
         <v>0.03508958726842895</v>
       </c>
       <c r="H825">
-        <v>0.7013658176448875</v>
+        <v>0.6897379106681432</v>
       </c>
       <c r="I825">
         <v>0.8423538630649851</v>
@@ -28000,7 +28000,7 @@
         <v>1</v>
       </c>
       <c r="H826">
-        <v>0.6138796603912883</v>
+        <v>0.6022517534145441</v>
       </c>
       <c r="I826">
         <v>0.525022764457698</v>
@@ -28029,7 +28029,7 @@
         <v>1</v>
       </c>
       <c r="H827">
-        <v>0.6020671834625323</v>
+        <v>0.5904392764857882</v>
       </c>
       <c r="I827">
         <v>0.5217831372506341</v>
@@ -28058,7 +28058,7 @@
         <v>1</v>
       </c>
       <c r="H828">
-        <v>0.6351052048726468</v>
+        <v>0.6351052048726467</v>
       </c>
       <c r="I828">
         <v>-0.5344586775210504</v>
@@ -28087,7 +28087,7 @@
         <v>1</v>
       </c>
       <c r="H829">
-        <v>0.6088039867109635</v>
+        <v>0.6088039867109634</v>
       </c>
       <c r="I829">
         <v>-0.4287481543557206</v>
@@ -28116,7 +28116,7 @@
         <v>0.04746324705389074</v>
       </c>
       <c r="H830">
-        <v>0.6971207087486158</v>
+        <v>0.6854928017718713</v>
       </c>
       <c r="I830">
         <v>0.9840267876901424</v>
@@ -28145,7 +28145,7 @@
         <v>1</v>
       </c>
       <c r="H831">
-        <v>0.6322443706164637</v>
+        <v>0.6206164636397193</v>
       </c>
       <c r="I831">
         <v>0.549869580517252</v>
@@ -28174,7 +28174,7 @@
         <v>1</v>
       </c>
       <c r="H832">
-        <v>0.6017903285345146</v>
+        <v>0.6017903285345145</v>
       </c>
       <c r="I832">
         <v>-0.3996495543245215</v>
@@ -28203,7 +28203,7 @@
         <v>1</v>
       </c>
       <c r="H833">
-        <v>0.6112956810631229</v>
+        <v>0.5996677740863787</v>
       </c>
       <c r="I833">
         <v>0.6032962209186322</v>
@@ -28232,7 +28232,7 @@
         <v>1</v>
       </c>
       <c r="H834">
-        <v>0.6002214839424143</v>
+        <v>0.5885935769656699</v>
       </c>
       <c r="I834">
         <v>0.5959027603945598</v>
@@ -28261,7 +28261,7 @@
         <v>0.7792676447321278</v>
       </c>
       <c r="H835">
-        <v>0.6563307493540053</v>
+        <v>0.6447028423772609</v>
       </c>
       <c r="I835">
         <v>0.7702766924603393</v>
@@ -28290,7 +28290,7 @@
         <v>1</v>
       </c>
       <c r="H836">
-        <v>0.530454042081949</v>
+        <v>0.5463270579549649</v>
       </c>
       <c r="I836">
         <v>-0.4322852613287189</v>
@@ -28319,7 +28319,7 @@
         <v>1</v>
       </c>
       <c r="H837">
-        <v>0.5777039497969731</v>
+        <v>0.593576965669989</v>
       </c>
       <c r="I837">
         <v>-0.7071674484580028</v>
@@ -28348,7 +28348,7 @@
         <v>1</v>
       </c>
       <c r="H838">
-        <v>0.6088962716869694</v>
+        <v>0.6088962716869695</v>
       </c>
       <c r="I838">
         <v>-0.3779226480052532</v>
@@ -28377,7 +28377,7 @@
         <v>0.02063474196976611</v>
       </c>
       <c r="H839">
-        <v>0.7026578073089701</v>
+        <v>0.6910299003322259</v>
       </c>
       <c r="I839">
         <v>0.9838345141828923</v>
@@ -28435,7 +28435,7 @@
         <v>1</v>
       </c>
       <c r="H841">
-        <v>0.5999446290143965</v>
+        <v>0.5999446290143964</v>
       </c>
       <c r="I841">
         <v>-0.5812101621990285</v>
@@ -28464,7 +28464,7 @@
         <v>1</v>
       </c>
       <c r="H842">
-        <v>0.5980066445182725</v>
+        <v>0.5863787375415282</v>
       </c>
       <c r="I842">
         <v>0.6159028329506003</v>
@@ -28493,7 +28493,7 @@
         <v>1</v>
       </c>
       <c r="H843">
-        <v>0.6109265411590993</v>
+        <v>0.6109265411590994</v>
       </c>
       <c r="I843">
         <v>-0.5854365515565085</v>
@@ -28522,7 +28522,7 @@
         <v>1</v>
       </c>
       <c r="H844">
-        <v>0.6087117017349576</v>
+        <v>0.5970837947582134</v>
       </c>
       <c r="I844">
         <v>0.5355796683463391</v>
@@ -28551,7 +28551,7 @@
         <v>0.7792676447321278</v>
       </c>
       <c r="H845">
-        <v>0.5966223698781837</v>
+        <v>0.6124953857511997</v>
       </c>
       <c r="I845">
         <v>-0.7419145362399284</v>
@@ -28580,7 +28580,7 @@
         <v>0.0130814792531331</v>
       </c>
       <c r="H846">
-        <v>0.7098560354374307</v>
+        <v>0.6982281284606866</v>
       </c>
       <c r="I846">
         <v>0.9799999274439598</v>
@@ -28638,7 +28638,7 @@
         <v>1</v>
       </c>
       <c r="H848">
-        <v>0.4738833517903286</v>
+        <v>0.4622554448135843</v>
       </c>
       <c r="I848">
         <v>0.006987146697430428</v>
@@ -28667,7 +28667,7 @@
         <v>1</v>
       </c>
       <c r="H849">
-        <v>0.6244924326319675</v>
+        <v>0.6128645256552234</v>
       </c>
       <c r="I849">
         <v>0.6059481441978749</v>
@@ -28696,7 +28696,7 @@
         <v>1</v>
       </c>
       <c r="H850">
-        <v>0.6473791066814323</v>
+        <v>0.6357511997046881</v>
       </c>
       <c r="I850">
         <v>0.860975370852062</v>
@@ -28725,7 +28725,7 @@
         <v>0.0345010476492382</v>
       </c>
       <c r="H851">
-        <v>0.6479328165374678</v>
+        <v>0.6363049095607235</v>
       </c>
       <c r="I851">
         <v>0.9605077471712216</v>
@@ -28754,7 +28754,7 @@
         <v>1</v>
       </c>
       <c r="H852">
-        <v>0.5204872646733111</v>
+        <v>0.5204872646733112</v>
       </c>
       <c r="I852">
         <v>0.7129211424674133</v>
@@ -28783,7 +28783,7 @@
         <v>1</v>
       </c>
       <c r="H853">
-        <v>0.5909929863418234</v>
+        <v>0.6068660022148393</v>
       </c>
       <c r="I853">
         <v>-0.7242943018113617</v>
@@ -28812,7 +28812,7 @@
         <v>0.06496274386555996</v>
       </c>
       <c r="H854">
-        <v>0.693890734588409</v>
+        <v>0.6706349206349206</v>
       </c>
       <c r="I854">
         <v>0.8518358962269795</v>
@@ -28841,7 +28841,7 @@
         <v>1</v>
       </c>
       <c r="H855">
-        <v>0.5636766334440753</v>
+        <v>0.5795496493170912</v>
       </c>
       <c r="I855">
         <v>-0.352063675181118</v>
@@ -28870,7 +28870,7 @@
         <v>1</v>
       </c>
       <c r="H856">
-        <v>0.5627537836840164</v>
+        <v>0.5627537836840162</v>
       </c>
       <c r="I856">
         <v>-0.2754590076510345</v>
@@ -28899,7 +28899,7 @@
         <v>1</v>
       </c>
       <c r="H857">
-        <v>0.5972683647102252</v>
+        <v>0.5856404577334809</v>
       </c>
       <c r="I857">
         <v>0.5296010506114661</v>
@@ -28957,7 +28957,7 @@
         <v>1</v>
       </c>
       <c r="H859">
-        <v>0.5527870062753784</v>
+        <v>0.5411590992986343</v>
       </c>
       <c r="I859">
         <v>0.606071489466677</v>
@@ -28986,7 +28986,7 @@
         <v>1</v>
       </c>
       <c r="H860">
-        <v>0.6208010335917313</v>
+        <v>0.6208010335917312</v>
       </c>
       <c r="I860">
         <v>-0.5913825190731693</v>
@@ -29015,7 +29015,7 @@
         <v>0.5221629965943156</v>
       </c>
       <c r="H861">
-        <v>0.6546696197858989</v>
+        <v>0.6430417128091546</v>
       </c>
       <c r="I861">
         <v>0.8940427862970663</v>
@@ -29044,7 +29044,7 @@
         <v>1</v>
       </c>
       <c r="H862">
-        <v>0.6253229974160206</v>
+        <v>0.6253229974160207</v>
       </c>
       <c r="I862">
         <v>-0.3957569227532115</v>
@@ -29073,7 +29073,7 @@
         <v>0.02452585427015351</v>
       </c>
       <c r="H863">
-        <v>0.7028423772609819</v>
+        <v>0.6912144702842378</v>
       </c>
       <c r="I863">
         <v>0.9863957424115452</v>
@@ -29102,7 +29102,7 @@
         <v>1</v>
       </c>
       <c r="H864">
-        <v>0.6041897379106681</v>
+        <v>0.620062753783684</v>
       </c>
       <c r="I864">
         <v>-0.6281575481862804</v>
@@ -29131,7 +29131,7 @@
         <v>1</v>
       </c>
       <c r="H865">
-        <v>0.5840716131413806</v>
+        <v>0.5724437061646364</v>
       </c>
       <c r="I865">
         <v>0.497904944331378</v>
@@ -29160,7 +29160,7 @@
         <v>0.06184361048556053</v>
       </c>
       <c r="H866">
-        <v>0.6885382059800665</v>
+        <v>0.6769102990033222</v>
       </c>
       <c r="I866">
         <v>0.9760274842281308</v>
@@ -29218,7 +29218,7 @@
         <v>1</v>
       </c>
       <c r="H868">
-        <v>0.6098191214470284</v>
+        <v>0.5981912144702842</v>
       </c>
       <c r="I868">
         <v>0.6035030056339766</v>
@@ -29247,7 +29247,7 @@
         <v>1</v>
       </c>
       <c r="H869">
-        <v>0.593576965669989</v>
+        <v>0.5819490586932446</v>
       </c>
       <c r="I869">
         <v>0.5719810338510207</v>
@@ -29276,7 +29276,7 @@
         <v>0.6387612300394864</v>
       </c>
       <c r="H870">
-        <v>0.645717977113326</v>
+        <v>0.6340900701365818</v>
       </c>
       <c r="I870">
         <v>0.7983413689148157</v>
@@ -29305,7 +29305,7 @@
         <v>1</v>
       </c>
       <c r="H871">
-        <v>0.530454042081949</v>
+        <v>0.5463270579549649</v>
       </c>
       <c r="I871">
         <v>-0.1413282834329165</v>
@@ -29334,7 +29334,7 @@
         <v>1</v>
       </c>
       <c r="H872">
-        <v>0.5849021779254336</v>
+        <v>0.6007751937984498</v>
       </c>
       <c r="I872">
         <v>-0.7044865027625714</v>
@@ -29392,7 +29392,7 @@
         <v>1</v>
       </c>
       <c r="H874">
-        <v>0.5204872646733112</v>
+        <v>0.508859357696567</v>
       </c>
       <c r="I874">
         <v>0.09464935479541012</v>
@@ -29421,7 +29421,7 @@
         <v>0.06184361048556053</v>
       </c>
       <c r="H875">
-        <v>0.6729420450350683</v>
+        <v>0.6888150609080841</v>
       </c>
       <c r="I875">
         <v>-0.8756099242152159</v>
@@ -29450,7 +29450,7 @@
         <v>1</v>
       </c>
       <c r="H876">
-        <v>0.5977297895902548</v>
+        <v>0.5861018826135105</v>
       </c>
       <c r="I876">
         <v>0.521721464616233</v>
@@ -29508,7 +29508,7 @@
         <v>0.02861683669348698</v>
       </c>
       <c r="H878">
-        <v>0.7031192321889997</v>
+        <v>0.6914913252122554</v>
       </c>
       <c r="I878">
         <v>1</v>
@@ -29537,7 +29537,7 @@
         <v>1</v>
       </c>
       <c r="H879">
-        <v>0.5442967884828349</v>
+        <v>0.560169804355851</v>
       </c>
       <c r="I879">
         <v>-0.2822575086432383</v>
@@ -29566,7 +29566,7 @@
         <v>1</v>
       </c>
       <c r="H880">
-        <v>0.5973606496862311</v>
+        <v>0.597360649686231</v>
       </c>
       <c r="I880">
         <v>-0.5591930317178733</v>
@@ -29595,7 +29595,7 @@
         <v>0.08160173967143081</v>
       </c>
       <c r="H881">
-        <v>0.6846622369878184</v>
+        <v>0.6730343300110742</v>
       </c>
       <c r="I881">
         <v>0.797089777216678</v>
@@ -29624,7 +29624,7 @@
         <v>1</v>
       </c>
       <c r="H882">
-        <v>0.6553156146179402</v>
+        <v>0.643687707641196</v>
       </c>
       <c r="I882">
         <v>0.5990553203530578</v>
@@ -29711,7 +29711,7 @@
         <v>1</v>
       </c>
       <c r="H885">
-        <v>0.5669988925802878</v>
+        <v>0.5669988925802879</v>
       </c>
       <c r="I885">
         <v>-0.4018516301528393</v>
@@ -29740,7 +29740,7 @@
         <v>0.220049609961497</v>
       </c>
       <c r="H886">
-        <v>0.6617755629383535</v>
+        <v>0.6776485788113694</v>
       </c>
       <c r="I886">
         <v>-0.6010723782781727</v>
@@ -29769,7 +29769,7 @@
         <v>0.5297826384127113</v>
       </c>
       <c r="H887">
-        <v>0.6670358065706904</v>
+        <v>0.6554078995939461</v>
       </c>
       <c r="I887">
         <v>0.6234486611596632</v>
@@ -29798,7 +29798,7 @@
         <v>1</v>
       </c>
       <c r="H888">
-        <v>0.6010520487264673</v>
+        <v>0.6010520487264672</v>
       </c>
       <c r="I888">
         <v>-0.5598387804780719</v>
@@ -29827,7 +29827,7 @@
         <v>1</v>
       </c>
       <c r="H889">
-        <v>0.6190476190476191</v>
+        <v>0.6349206349206349</v>
       </c>
       <c r="I889">
         <v>-0.5890353311639078</v>
@@ -29856,7 +29856,7 @@
         <v>1</v>
       </c>
       <c r="H890">
-        <v>0.4899409376153563</v>
+        <v>0.4899409376153562</v>
       </c>
       <c r="I890">
         <v>0.0262036140163759</v>
@@ -29885,7 +29885,7 @@
         <v>0.02861683669348698</v>
       </c>
       <c r="H891">
-        <v>0.7031192321889997</v>
+        <v>0.6914913252122554</v>
       </c>
       <c r="I891">
         <v>1</v>
@@ -29914,7 +29914,7 @@
         <v>1</v>
       </c>
       <c r="H892">
-        <v>0.5647840531561461</v>
+        <v>0.553156146179402</v>
       </c>
       <c r="I892">
         <v>0.290819121418906</v>
@@ -30030,7 +30030,7 @@
         <v>1</v>
       </c>
       <c r="H896">
-        <v>0.4554263565891473</v>
+        <v>0.4437984496124031</v>
       </c>
       <c r="I896">
         <v>-0.2183646594038071</v>
@@ -30059,7 +30059,7 @@
         <v>1</v>
       </c>
       <c r="H897">
-        <v>0.5102436323366555</v>
+        <v>0.5261166482096714</v>
       </c>
       <c r="I897">
         <v>0.05151116093292558</v>
@@ -30088,7 +30088,7 @@
         <v>1</v>
       </c>
       <c r="H898">
-        <v>0.596530084902178</v>
+        <v>0.5965300849021778</v>
       </c>
       <c r="I898">
         <v>-0.4271337824552239</v>
@@ -30117,7 +30117,7 @@
         <v>1</v>
       </c>
       <c r="H899">
-        <v>0.5481727574750831</v>
+        <v>0.5365448504983389</v>
       </c>
       <c r="I899">
         <v>0.1347256837499864</v>
@@ -30175,7 +30175,7 @@
         <v>1</v>
       </c>
       <c r="H901">
-        <v>0.5887781469176818</v>
+        <v>0.5771502399409376</v>
       </c>
       <c r="I901">
         <v>0.2509132991594383</v>
@@ -30204,7 +30204,7 @@
         <v>1</v>
       </c>
       <c r="H902">
-        <v>0.5155038759689923</v>
+        <v>0.5155038759689922</v>
       </c>
       <c r="I902">
         <v>-0.1268243309426118</v>
@@ -30233,7 +30233,7 @@
         <v>1</v>
       </c>
       <c r="H903">
-        <v>0.4952934662236989</v>
+        <v>0.4836655592469545</v>
       </c>
       <c r="I903">
         <v>-0.1177911039038778</v>
@@ -30262,7 +30262,7 @@
         <v>1</v>
       </c>
       <c r="H904">
-        <v>0.5292543373938723</v>
+        <v>0.5176264304171281</v>
       </c>
       <c r="I904">
         <v>0.1201382918131392</v>
@@ -30320,7 +30320,7 @@
         <v>1</v>
       </c>
       <c r="H906">
-        <v>0.6321520856404578</v>
+        <v>0.6205241786637135</v>
       </c>
       <c r="I906">
         <v>0.5238582400081264</v>
@@ -30349,7 +30349,7 @@
         <v>1</v>
       </c>
       <c r="H907">
-        <v>0.5783499446290143</v>
+        <v>0.5942229605020303</v>
       </c>
       <c r="I907">
         <v>-0.4600379468091668</v>
@@ -30378,7 +30378,7 @@
         <v>1</v>
       </c>
       <c r="H908">
-        <v>0.5834256183093393</v>
+        <v>0.5992986341823552</v>
       </c>
       <c r="I908">
         <v>-0.301376025307547</v>
@@ -30407,7 +30407,7 @@
         <v>0.1829465619928051</v>
       </c>
       <c r="H909">
-        <v>0.6841085271317831</v>
+        <v>0.6724806201550387</v>
       </c>
       <c r="I909">
         <v>0.6083316101273722</v>
@@ -30436,7 +30436,7 @@
         <v>1</v>
       </c>
       <c r="H910">
-        <v>0.5947766703580658</v>
+        <v>0.6106496862310815</v>
       </c>
       <c r="I910">
         <v>-0.3359743732065054</v>
@@ -30465,7 +30465,7 @@
         <v>0.6667167415043789</v>
       </c>
       <c r="H911">
-        <v>0.666389811738649</v>
+        <v>0.6547619047619048</v>
       </c>
       <c r="I911">
         <v>0.5575967988274945</v>
@@ -30494,7 +30494,7 @@
         <v>1</v>
       </c>
       <c r="H912">
-        <v>0.6536544850498339</v>
+        <v>0.6420265780730896</v>
       </c>
       <c r="I912">
         <v>0.4990077961465488</v>
@@ -30523,7 +30523,7 @@
         <v>1</v>
       </c>
       <c r="H913">
-        <v>0.5734588409007013</v>
+        <v>0.5893318567737171</v>
       </c>
       <c r="I913">
         <v>-0.3972152991666939</v>
@@ -30581,7 +30581,7 @@
         <v>1</v>
       </c>
       <c r="H915">
-        <v>0.5334994462901439</v>
+        <v>0.5493724621631599</v>
       </c>
       <c r="I915">
         <v>-0.2485769946562477</v>
@@ -30610,7 +30610,7 @@
         <v>0.02765516614886673</v>
       </c>
       <c r="H916">
-        <v>0.7000738279808048</v>
+        <v>0.6884459210040605</v>
       </c>
       <c r="I916">
         <v>0.998944309611136</v>
@@ -30697,7 +30697,7 @@
         <v>1</v>
       </c>
       <c r="H919">
-        <v>0.6847545219638244</v>
+        <v>0.6731266149870802</v>
       </c>
       <c r="I919">
         <v>0.3466763891760899</v>
@@ -30726,7 +30726,7 @@
         <v>1</v>
       </c>
       <c r="H920">
-        <v>0.5332225913621262</v>
+        <v>0.521594684385382</v>
       </c>
       <c r="I920">
         <v>0.487137627925369</v>
@@ -30755,7 +30755,7 @@
         <v>0.06712610221604833</v>
       </c>
       <c r="H921">
-        <v>0.6838316722037653</v>
+        <v>0.6722037652270211</v>
       </c>
       <c r="I921">
         <v>0.6365486542668395</v>
@@ -30784,7 +30784,7 @@
         <v>0.2562606006837882</v>
       </c>
       <c r="H922">
-        <v>0.656423034330011</v>
+        <v>0.6722960502030269</v>
       </c>
       <c r="I922">
         <v>-0.3806362439188969</v>
@@ -30813,7 +30813,7 @@
         <v>0.0002465100054860387</v>
       </c>
       <c r="H923">
-        <v>0.691768180140273</v>
+        <v>0.707641196013289</v>
       </c>
       <c r="I923">
         <v>-0.6861298245232162</v>
@@ -30842,7 +30842,7 @@
         <v>1</v>
       </c>
       <c r="H924">
-        <v>0.555186415651532</v>
+        <v>0.5551864156515319</v>
       </c>
       <c r="I924">
         <v>0.00629060870890154</v>
@@ -30871,7 +30871,7 @@
         <v>0.01891716566051106</v>
       </c>
       <c r="H925">
-        <v>0.7084717607973422</v>
+        <v>0.696843853820598</v>
       </c>
       <c r="I925">
         <v>0.9960783460125016</v>
@@ -30958,7 +30958,7 @@
         <v>1</v>
       </c>
       <c r="H928">
-        <v>0.5000922849760059</v>
+        <v>0.4884643779992617</v>
       </c>
       <c r="I928">
         <v>0.4016121952192825</v>
@@ -31016,7 +31016,7 @@
         <v>0.8360620982034843</v>
       </c>
       <c r="H930">
-        <v>0.6633444075304541</v>
+        <v>0.6517165005537098</v>
       </c>
       <c r="I930">
         <v>0.3520527917750473</v>
@@ -31045,7 +31045,7 @@
         <v>0.008066732878330004</v>
       </c>
       <c r="H931">
-        <v>0.7031192321889995</v>
+        <v>0.7189922480620154</v>
       </c>
       <c r="I931">
         <v>-0.6831477712598268</v>
@@ -31071,10 +31071,10 @@
         <v>532.847645429362</v>
       </c>
       <c r="G932">
-        <v>0.3116767580584856</v>
+        <v>0.3116767580584848</v>
       </c>
       <c r="H932">
-        <v>0.6776485788113695</v>
+        <v>0.6547619047619047</v>
       </c>
       <c r="I932">
         <v>0.7779811388805085</v>
@@ -31103,7 +31103,7 @@
         <v>1</v>
       </c>
       <c r="H933">
-        <v>0.5838870431893688</v>
+        <v>0.5997600590623846</v>
       </c>
       <c r="I933">
         <v>-0.02090768675076911</v>
@@ -31132,7 +31132,7 @@
         <v>1</v>
       </c>
       <c r="H934">
-        <v>0.6258767072720561</v>
+        <v>0.6142488002953119</v>
       </c>
       <c r="I934">
         <v>0.4455009747737195</v>
@@ -31161,7 +31161,7 @@
         <v>0.4162197826006734</v>
       </c>
       <c r="H935">
-        <v>0.6901993355481727</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="I935">
         <v>0.4515632243938019</v>
@@ -31190,7 +31190,7 @@
         <v>1</v>
       </c>
       <c r="H936">
-        <v>0.6552233296419342</v>
+        <v>0.6435954226651901</v>
       </c>
       <c r="I936">
         <v>0.8930596519486741</v>
@@ -31219,7 +31219,7 @@
         <v>0.06184361048556053</v>
       </c>
       <c r="H937">
-        <v>0.6520856404577334</v>
+        <v>0.6404577334809893</v>
       </c>
       <c r="I937">
         <v>0.9550914387500047</v>
@@ -31248,7 +31248,7 @@
         <v>1</v>
       </c>
       <c r="H938">
-        <v>0.4440753045404208</v>
+        <v>0.4440753045404207</v>
       </c>
       <c r="I938">
         <v>0.7793679643314506</v>
@@ -31277,7 +31277,7 @@
         <v>0.0187414450278364</v>
       </c>
       <c r="H939">
-        <v>0.6967515688445921</v>
+        <v>0.7126245847176079</v>
       </c>
       <c r="I939">
         <v>-0.5208346751692982</v>
@@ -31306,7 +31306,7 @@
         <v>0.03880315998577581</v>
       </c>
       <c r="H940">
-        <v>0.7014581026208934</v>
+        <v>0.6442414174972314</v>
       </c>
       <c r="I940">
         <v>0.8211580326536549</v>
@@ -31335,7 +31335,7 @@
         <v>1</v>
       </c>
       <c r="H941">
-        <v>0.5477113325950536</v>
+        <v>0.5360834256183094</v>
       </c>
       <c r="I941">
         <v>0.01104677738904371</v>
@@ -31364,7 +31364,7 @@
         <v>1</v>
       </c>
       <c r="H942">
-        <v>0.5939461055740125</v>
+        <v>0.5823181985972683</v>
       </c>
       <c r="I942">
         <v>0.2119253108119384</v>
@@ -31393,7 +31393,7 @@
         <v>0.0009345163364830371</v>
       </c>
       <c r="H943">
-        <v>0.726375046142488</v>
+        <v>0.7147471391657438</v>
       </c>
       <c r="I943">
         <v>0.5657049363502136</v>
@@ -31422,7 +31422,7 @@
         <v>1</v>
       </c>
       <c r="H944">
-        <v>0.6440568475452195</v>
+        <v>0.6440568475452196</v>
       </c>
       <c r="I944">
         <v>-0.3961487253717591</v>
@@ -31451,7 +31451,7 @@
         <v>1</v>
       </c>
       <c r="H945">
-        <v>0.5883167220376523</v>
+        <v>0.5654300479881875</v>
       </c>
       <c r="I945">
         <v>0.4883746240791429</v>
@@ -31509,7 +31509,7 @@
         <v>0.9480953659544611</v>
       </c>
       <c r="H947">
-        <v>0.6685123661867848</v>
+        <v>0.6568844592100405</v>
       </c>
       <c r="I947">
         <v>0.9167129211424676</v>
@@ -31567,7 +31567,7 @@
         <v>0.02961027400154607</v>
       </c>
       <c r="H949">
-        <v>0.7035806570690292</v>
+        <v>0.6919527500922851</v>
       </c>
       <c r="I949">
         <v>0.9979103860344135</v>
@@ -31596,7 +31596,7 @@
         <v>1</v>
       </c>
       <c r="H950">
-        <v>0.6616832779623478</v>
+        <v>0.6500553709856034</v>
       </c>
       <c r="I950">
         <v>0.7762734492053301</v>
@@ -31625,7 +31625,7 @@
         <v>1</v>
       </c>
       <c r="H951">
-        <v>0.6566998892580288</v>
+        <v>0.6566998892580287</v>
       </c>
       <c r="I951">
         <v>-0.7292317403654648</v>
@@ -31654,7 +31654,7 @@
         <v>0.02910952336911734</v>
       </c>
       <c r="H952">
-        <v>0.6999815430047988</v>
+        <v>0.6883536360280547</v>
       </c>
       <c r="I952">
         <v>0.9995501525490753</v>
@@ -31683,7 +31683,7 @@
         <v>1</v>
       </c>
       <c r="H953">
-        <v>0.531469176818014</v>
+        <v>0.5473421926910299</v>
       </c>
       <c r="I953">
         <v>-0.2576972889435478</v>
@@ -31770,7 +31770,7 @@
         <v>0.4319804315297191</v>
       </c>
       <c r="H956">
-        <v>0.6621447028423774</v>
+        <v>0.6621447028423771</v>
       </c>
       <c r="I956">
         <v>0.5655525686652229</v>
@@ -31799,7 +31799,7 @@
         <v>0.0451473378561572</v>
       </c>
       <c r="H957">
-        <v>0.6739571797711332</v>
+        <v>0.689830195644149</v>
       </c>
       <c r="I957">
         <v>-0.4336057812653049</v>
@@ -31828,7 +31828,7 @@
         <v>0.000149509792219223</v>
       </c>
       <c r="H958">
-        <v>0.6704503506829087</v>
+        <v>0.6863233665559247</v>
       </c>
       <c r="I958">
         <v>-0.6583626278346739</v>
@@ -31857,7 +31857,7 @@
         <v>1</v>
       </c>
       <c r="H959">
-        <v>0.5950535252860834</v>
+        <v>0.6109265411590993</v>
       </c>
       <c r="I959">
         <v>-0.7239605440251916</v>
@@ -31886,7 +31886,7 @@
         <v>1</v>
       </c>
       <c r="H960">
-        <v>0.567921742340347</v>
+        <v>0.5562938353636028</v>
       </c>
       <c r="I960">
         <v>-0.01537099717394222</v>
@@ -31915,7 +31915,7 @@
         <v>0.000916261805378228</v>
       </c>
       <c r="H961">
-        <v>0.7189922480620154</v>
+        <v>0.7348652639350314</v>
       </c>
       <c r="I961">
         <v>-0.8266418525008256</v>
@@ -31944,7 +31944,7 @@
         <v>1</v>
       </c>
       <c r="H962">
-        <v>0.539313399778516</v>
+        <v>0.5276854928017718</v>
       </c>
       <c r="I962">
         <v>0.2326328047625785</v>
@@ -32002,7 +32002,7 @@
         <v>0.02861683669348698</v>
       </c>
       <c r="H964">
-        <v>0.7031192321889997</v>
+        <v>0.6914913252122554</v>
       </c>
       <c r="I964">
         <v>1</v>
@@ -32089,7 +32089,7 @@
         <v>0.8719614614531649</v>
       </c>
       <c r="H967">
-        <v>0.6265227021040976</v>
+        <v>0.6148947951273532</v>
       </c>
       <c r="I967">
         <v>0.6027012613867637</v>
@@ -32118,7 +32118,7 @@
         <v>0.3070953363175127</v>
       </c>
       <c r="H968">
-        <v>0.6758028792912515</v>
+        <v>0.6641749723145072</v>
       </c>
       <c r="I968">
         <v>0.6436700296391425</v>
@@ -32234,7 +32234,7 @@
         <v>1</v>
       </c>
       <c r="H972">
-        <v>0.6440568475452195</v>
+        <v>0.6599298634182356</v>
       </c>
       <c r="I972">
         <v>-0.5835682335143607</v>
@@ -32263,7 +32263,7 @@
         <v>0.2980131227630914</v>
       </c>
       <c r="H973">
-        <v>0.6738648947951273</v>
+        <v>0.6622369878183831</v>
       </c>
       <c r="I973">
         <v>0.6400857612398377</v>
@@ -32321,7 +32321,7 @@
         <v>1</v>
       </c>
       <c r="H975">
-        <v>0.5647840531561462</v>
+        <v>0.5647840531561461</v>
       </c>
       <c r="I975">
         <v>-0.3520165137548115</v>
@@ -32350,7 +32350,7 @@
         <v>1</v>
       </c>
       <c r="H976">
-        <v>0.535437430786268</v>
+        <v>0.5354374307862679</v>
       </c>
       <c r="I976">
         <v>0.09659385668005327</v>
@@ -32379,7 +32379,7 @@
         <v>0.02861683669348698</v>
       </c>
       <c r="H977">
-        <v>0.7031192321889997</v>
+        <v>0.6914913252122554</v>
       </c>
       <c r="I977">
         <v>1</v>
@@ -32408,7 +32408,7 @@
         <v>1</v>
       </c>
       <c r="H978">
-        <v>0.547157622739018</v>
+        <v>0.5355297157622738</v>
       </c>
       <c r="I978">
         <v>0.2636069784399727</v>
@@ -32466,7 +32466,7 @@
         <v>1</v>
       </c>
       <c r="H980">
-        <v>0.6517165005537099</v>
+        <v>0.6400885935769657</v>
       </c>
       <c r="I980">
         <v>0.5279975621170403</v>
@@ -32495,7 +32495,7 @@
         <v>1</v>
       </c>
       <c r="H981">
-        <v>0.6551310446659284</v>
+        <v>0.6435031376891841</v>
       </c>
       <c r="I981">
         <v>0.545494451276805</v>
@@ -32524,7 +32524,7 @@
         <v>1</v>
       </c>
       <c r="H982">
-        <v>0.5157807308970099</v>
+        <v>0.5041528239202657</v>
       </c>
       <c r="I982">
         <v>0.003167071166592297</v>
@@ -32553,7 +32553,7 @@
         <v>1</v>
       </c>
       <c r="H983">
-        <v>0.4804355850867479</v>
+        <v>0.4688076781100037</v>
       </c>
       <c r="I983">
         <v>0.006272469698783599</v>
@@ -32611,7 +32611,7 @@
         <v>1</v>
       </c>
       <c r="H985">
-        <v>0.5190107050572167</v>
+        <v>0.5190107050572166</v>
       </c>
       <c r="I985">
         <v>-0.1219993542512398</v>
@@ -32640,7 +32640,7 @@
         <v>1</v>
       </c>
       <c r="H986">
-        <v>0.598375784422296</v>
+        <v>0.6142488002953119</v>
       </c>
       <c r="I986">
         <v>-0.3709173622977048</v>
@@ -32756,7 +32756,7 @@
         <v>1</v>
       </c>
       <c r="H990">
-        <v>0.5442045035068291</v>
+        <v>0.5325765965300848</v>
       </c>
       <c r="I990">
         <v>0.2574433428018967</v>
@@ -32814,7 +32814,7 @@
         <v>1</v>
       </c>
       <c r="H992">
-        <v>0.5054448135843486</v>
+        <v>0.5054448135843485</v>
       </c>
       <c r="I992">
         <v>-0.05076020591404287</v>
@@ -32843,7 +32843,7 @@
         <v>1</v>
       </c>
       <c r="H993">
-        <v>0.5083056478405314</v>
+        <v>0.5083056478405316</v>
       </c>
       <c r="I993">
         <v>-0.01619813603532028</v>
@@ -32872,7 +32872,7 @@
         <v>1</v>
       </c>
       <c r="H994">
-        <v>0.5309154669619786</v>
+        <v>0.5192875599852345</v>
       </c>
       <c r="I994">
         <v>0.1914499961908079</v>
@@ -32901,7 +32901,7 @@
         <v>0.01506624400333447</v>
       </c>
       <c r="H995">
-        <v>0.7141011443337025</v>
+        <v>0.7024732373569582</v>
       </c>
       <c r="I995">
         <v>0.8174562577771007</v>
@@ -32930,7 +32930,7 @@
         <v>1</v>
       </c>
       <c r="H996">
-        <v>0.5283314876338132</v>
+        <v>0.516703580657069</v>
       </c>
       <c r="I996">
         <v>0.1863892123679027</v>
@@ -32959,7 +32959,7 @@
         <v>0.03169643252399901</v>
       </c>
       <c r="H997">
-        <v>0.7011812476928756</v>
+        <v>0.6895533407161314</v>
       </c>
       <c r="I997">
         <v>0.7992156692025004</v>
@@ -32988,7 +32988,7 @@
         <v>1</v>
       </c>
       <c r="H998">
-        <v>0.5457733480989296</v>
+        <v>0.5341454411221852</v>
       </c>
       <c r="I998">
         <v>0.2593370554582096</v>
@@ -33017,7 +33017,7 @@
         <v>1</v>
       </c>
       <c r="H999">
-        <v>0.5456810631229236</v>
+        <v>0.5340531561461793</v>
       </c>
       <c r="I999">
         <v>0.2361372615173645</v>
@@ -33104,7 +33104,7 @@
         <v>0.04222593735288576</v>
       </c>
       <c r="H1002">
-        <v>0.6974898486526393</v>
+        <v>0.6858619416758951</v>
       </c>
       <c r="I1002">
         <v>0.9935969294283675</v>
@@ -33133,7 +33133,7 @@
         <v>1</v>
       </c>
       <c r="H1003">
-        <v>0.5496493170911776</v>
+        <v>0.5380214101144334</v>
       </c>
       <c r="I1003">
         <v>0.2309603880297045</v>
@@ -33191,7 +33191,7 @@
         <v>1</v>
       </c>
       <c r="H1005">
-        <v>0.6517165005537099</v>
+        <v>0.6400885935769657</v>
       </c>
       <c r="I1005">
         <v>0.5102031931913412</v>
@@ -33220,7 +33220,7 @@
         <v>1</v>
       </c>
       <c r="H1006">
-        <v>0.5467884828349945</v>
+        <v>0.5351605758582503</v>
       </c>
       <c r="I1006">
         <v>0.4577342925241885</v>
@@ -33249,7 +33249,7 @@
         <v>0.07524363300082357</v>
       </c>
       <c r="H1007">
-        <v>0.665374677002584</v>
+        <v>0.6537467700258398</v>
       </c>
       <c r="I1007">
         <v>0.7698232172073907</v>
@@ -33278,7 +33278,7 @@
         <v>1</v>
       </c>
       <c r="H1008">
-        <v>0.5628460686600221</v>
+        <v>0.578719084533038</v>
       </c>
       <c r="I1008">
         <v>-0.3533841951177041</v>
@@ -33307,7 +33307,7 @@
         <v>0.3025222628797597</v>
       </c>
       <c r="H1009">
-        <v>0.6506090808416389</v>
+        <v>0.6664820967146549</v>
       </c>
       <c r="I1009">
         <v>-0.6498699432974545</v>
@@ -33336,7 +33336,7 @@
         <v>1</v>
       </c>
       <c r="H1010">
-        <v>0.4688999630860096</v>
+        <v>0.4572720561092654</v>
       </c>
       <c r="I1010">
         <v>0.09737746191714827</v>
@@ -33365,7 +33365,7 @@
         <v>0.01560560122347142</v>
       </c>
       <c r="H1011">
-        <v>0.7048726467331119</v>
+        <v>0.6932447397563677</v>
       </c>
       <c r="I1011">
         <v>0.9835297788129108</v>
@@ -33394,7 +33394,7 @@
         <v>1</v>
       </c>
       <c r="H1012">
-        <v>0.5299926172019195</v>
+        <v>0.5458656330749354</v>
       </c>
       <c r="I1012">
         <v>-0.3958040841795182</v>
@@ -33423,7 +33423,7 @@
         <v>1</v>
       </c>
       <c r="H1013">
-        <v>0.5300849021779254</v>
+        <v>0.5459579180509413</v>
       </c>
       <c r="I1013">
         <v>-0.4043366745389972</v>
@@ -33452,7 +33452,7 @@
         <v>1</v>
       </c>
       <c r="H1014">
-        <v>0.5524178663713547</v>
+        <v>0.5407899593946105</v>
       </c>
       <c r="I1014">
         <v>0.4998095403937618</v>
@@ -33510,7 +33510,7 @@
         <v>1</v>
       </c>
       <c r="H1016">
-        <v>0.623108157991879</v>
+        <v>0.6114802510151347</v>
       </c>
       <c r="I1016">
         <v>0.4884182420396955</v>
@@ -33539,7 +33539,7 @@
         <v>0.1517928216268967</v>
       </c>
       <c r="H1017">
-        <v>0.6722960502030269</v>
+        <v>0.6881690660760429</v>
       </c>
       <c r="I1017">
         <v>-0.6887744921984119</v>
@@ -33568,7 +33568,7 @@
         <v>0.02718594208798211</v>
       </c>
       <c r="H1018">
-        <v>0.7014581026208934</v>
+        <v>0.6898301956441492</v>
       </c>
       <c r="I1018">
         <v>0.9315470036169188</v>
@@ -33597,7 +33597,7 @@
         <v>1</v>
       </c>
       <c r="H1019">
-        <v>0.4623477297895902</v>
+        <v>0.4782207456626061</v>
       </c>
       <c r="I1019">
         <v>0.1437335161745553</v>
@@ -33626,7 +33626,7 @@
         <v>1</v>
       </c>
       <c r="H1020">
-        <v>0.5196566998892581</v>
+        <v>0.5080287929125138</v>
       </c>
       <c r="I1020">
         <v>0.1244154703989494</v>
@@ -33655,7 +33655,7 @@
         <v>1</v>
       </c>
       <c r="H1021">
-        <v>0.6556847545219638</v>
+        <v>0.6440568475452196</v>
       </c>
       <c r="I1021">
         <v>0.5540016470221187</v>
@@ -33684,7 +33684,7 @@
         <v>1</v>
       </c>
       <c r="H1022">
-        <v>0.4576411960132891</v>
+        <v>0.457641196013289</v>
       </c>
       <c r="I1022">
         <v>0.8671244952820436</v>
@@ -33713,7 +33713,7 @@
         <v>0.0989982015939158</v>
       </c>
       <c r="H1023">
-        <v>0.6228313030638611</v>
+        <v>0.6112033960871169</v>
       </c>
       <c r="I1023">
         <v>0.9475746329571305</v>
@@ -33771,7 +33771,7 @@
         <v>0.1886909919597167</v>
       </c>
       <c r="H1025">
-        <v>0.6548541897379107</v>
+        <v>0.6707272056109266</v>
       </c>
       <c r="I1025">
         <v>-0.6700332669445563</v>
@@ -33800,7 +33800,7 @@
         <v>0.01429017897173473</v>
       </c>
       <c r="H1026">
-        <v>0.7105020302694721</v>
+        <v>0.6872462163159836</v>
       </c>
       <c r="I1026">
         <v>0.8716799912936258</v>
@@ -33829,7 +33829,7 @@
         <v>1</v>
       </c>
       <c r="H1027">
-        <v>0.598468069398302</v>
+        <v>0.5868401624215578</v>
       </c>
       <c r="I1027">
         <v>0.02304379845383078</v>
@@ -33858,7 +33858,7 @@
         <v>1</v>
       </c>
       <c r="H1028">
-        <v>0.5822259136212624</v>
+        <v>0.5705980066445182</v>
       </c>
       <c r="I1028">
         <v>0.03274091326288142</v>
@@ -33887,7 +33887,7 @@
         <v>1</v>
       </c>
       <c r="H1029">
-        <v>0.6451642672572905</v>
+        <v>0.6335363602805463</v>
       </c>
       <c r="I1029">
         <v>0.507326346186636</v>
@@ -33945,7 +33945,7 @@
         <v>1</v>
       </c>
       <c r="H1031">
-        <v>0.4997231450719823</v>
+        <v>0.488095238095238</v>
       </c>
       <c r="I1031">
         <v>0.2446879908869614</v>
@@ -34090,7 +34090,7 @@
         <v>1</v>
       </c>
       <c r="H1036">
-        <v>0.6029900332225914</v>
+        <v>0.6029900332225913</v>
       </c>
       <c r="I1036">
         <v>0.2000587703927822</v>
@@ -34148,7 +34148,7 @@
         <v>0.0579038469391738</v>
       </c>
       <c r="H1038">
-        <v>0.6886304909560723</v>
+        <v>0.6770025839793282</v>
       </c>
       <c r="I1038">
         <v>0.9885180065953442</v>
@@ -34206,7 +34206,7 @@
         <v>1</v>
       </c>
       <c r="H1040">
-        <v>0.6517165005537099</v>
+        <v>0.6400885935769657</v>
       </c>
       <c r="I1040">
         <v>0.509016901929628</v>
@@ -34235,7 +34235,7 @@
         <v>1</v>
       </c>
       <c r="H1041">
-        <v>0.540420819490587</v>
+        <v>0.5287929125138426</v>
       </c>
       <c r="I1041">
         <v>0.3985757249255394</v>
@@ -34264,7 +34264,7 @@
         <v>0.105537748158688</v>
       </c>
       <c r="H1042">
-        <v>0.6638058324104835</v>
+        <v>0.6521779254337393</v>
       </c>
       <c r="I1042">
         <v>0.7506539113147519</v>
@@ -34293,7 +34293,7 @@
         <v>1</v>
       </c>
       <c r="H1043">
-        <v>0.5762273901808785</v>
+        <v>0.5921004060538945</v>
       </c>
       <c r="I1043">
         <v>-0.3455009813204474</v>
@@ -34322,7 +34322,7 @@
         <v>0.3460841979985232</v>
       </c>
       <c r="H1044">
-        <v>0.6475636766334441</v>
+        <v>0.66343669250646</v>
       </c>
       <c r="I1044">
         <v>-0.6485530511628921</v>
@@ -34380,7 +34380,7 @@
         <v>1</v>
       </c>
       <c r="H1046">
-        <v>0.5636766334440754</v>
+        <v>0.5520487264673311</v>
       </c>
       <c r="I1046">
         <v>0.2252792500607657</v>
@@ -34409,7 +34409,7 @@
         <v>0.01533365990921082</v>
       </c>
       <c r="H1047">
-        <v>0.6921373200442967</v>
+        <v>0.7080103359173127</v>
       </c>
       <c r="I1047">
         <v>-0.8288185337149782</v>
@@ -34467,7 +34467,7 @@
         <v>1</v>
       </c>
       <c r="H1049">
-        <v>0.4817275747508306</v>
+        <v>0.4700996677740863</v>
       </c>
       <c r="I1049">
         <v>-0.1896469785850847</v>
@@ -34496,7 +34496,7 @@
         <v>0.02861683669348698</v>
       </c>
       <c r="H1050">
-        <v>0.7031192321889997</v>
+        <v>0.6914913252122554</v>
       </c>
       <c r="I1050">
         <v>1</v>
@@ -34525,7 +34525,7 @@
         <v>0.01019411808460845</v>
       </c>
       <c r="H1051">
-        <v>0.6520856404577334</v>
+        <v>0.6520856404577335</v>
       </c>
       <c r="I1051">
         <v>0.5888104074384454</v>
@@ -34554,7 +34554,7 @@
         <v>1</v>
       </c>
       <c r="H1052">
-        <v>0.4868955334071613</v>
+        <v>0.4752676264304171</v>
       </c>
       <c r="I1052">
         <v>-0.2046443121505973</v>
@@ -34583,7 +34583,7 @@
         <v>1</v>
       </c>
       <c r="H1053">
-        <v>0.5339608711701735</v>
+        <v>0.5223329641934292</v>
       </c>
       <c r="I1053">
         <v>0.5211482718965061</v>
@@ -34612,7 +34612,7 @@
         <v>0.6296881589279028</v>
       </c>
       <c r="H1054">
-        <v>0.6726651901070506</v>
+        <v>0.6610372831303064</v>
       </c>
       <c r="I1054">
         <v>0.5519047774524849</v>
@@ -34641,7 +34641,7 @@
         <v>1</v>
       </c>
       <c r="H1055">
-        <v>0.4869878183831673</v>
+        <v>0.4753599114064231</v>
       </c>
       <c r="I1055">
         <v>-0.1832729304296406</v>
@@ -34670,7 +34670,7 @@
         <v>1</v>
       </c>
       <c r="H1056">
-        <v>0.5479881875230713</v>
+        <v>0.536360280546327</v>
       </c>
       <c r="I1056">
         <v>0.4376435249175583</v>
@@ -34699,7 +34699,7 @@
         <v>1</v>
       </c>
       <c r="H1057">
-        <v>0.5318383167220376</v>
+        <v>0.5477113325950536</v>
       </c>
       <c r="I1057">
         <v>0.1136118759727044</v>
@@ -34728,7 +34728,7 @@
         <v>1</v>
       </c>
       <c r="H1058">
-        <v>0.6289221114802509</v>
+        <v>0.6447951273532668</v>
       </c>
       <c r="I1058">
         <v>-0.5451933437088472</v>
@@ -34757,7 +34757,7 @@
         <v>0.8719614614531649</v>
       </c>
       <c r="H1059">
-        <v>0.6741417497231451</v>
+        <v>0.6625138427464008</v>
       </c>
       <c r="I1059">
         <v>0.5582425475876932</v>
@@ -34786,7 +34786,7 @@
         <v>1</v>
       </c>
       <c r="H1060">
-        <v>0.4876338132152086</v>
+        <v>0.4760059062384643</v>
       </c>
       <c r="I1060">
         <v>-0.209349571375191</v>
@@ -34815,7 +34815,7 @@
         <v>1</v>
       </c>
       <c r="H1061">
-        <v>0.5870247323735696</v>
+        <v>0.5753968253968254</v>
       </c>
       <c r="I1061">
         <v>0.3932392281488415</v>
@@ -34844,7 +34844,7 @@
         <v>1</v>
       </c>
       <c r="H1062">
-        <v>0.4282945736434108</v>
+        <v>0.4441675895164268</v>
       </c>
       <c r="I1062">
         <v>-0.04085630638964771</v>
@@ -34873,7 +34873,7 @@
         <v>0.02861683669348698</v>
       </c>
       <c r="H1063">
-        <v>0.7031192321889997</v>
+        <v>0.6914913252122554</v>
       </c>
       <c r="I1063">
         <v>1</v>
@@ -34902,7 +34902,7 @@
         <v>0.01197055397352608</v>
       </c>
       <c r="H1064">
-        <v>0.6514396456256921</v>
+        <v>0.667312661498708</v>
       </c>
       <c r="I1064">
         <v>-0.5907766761352301</v>
@@ -34931,7 +34931,7 @@
         <v>1</v>
       </c>
       <c r="H1065">
-        <v>0.5002768549280177</v>
+        <v>0.4886489479512734</v>
       </c>
       <c r="I1065">
         <v>-0.1324111460589373</v>
@@ -34960,7 +34960,7 @@
         <v>1</v>
       </c>
       <c r="H1066">
-        <v>0.6701734957548912</v>
+        <v>0.670173495754891</v>
       </c>
       <c r="I1066">
         <v>0.4719770432687948</v>
@@ -34989,7 +34989,7 @@
         <v>1</v>
       </c>
       <c r="H1067">
-        <v>0.6701734957548912</v>
+        <v>0.670173495754891</v>
       </c>
       <c r="I1067">
         <v>0.524627334037127</v>
@@ -35018,7 +35018,7 @@
         <v>1</v>
       </c>
       <c r="H1068">
-        <v>0.4486895533407161</v>
+        <v>0.4370616463639719</v>
       </c>
       <c r="I1068">
         <v>-0.4141825292310149</v>
@@ -35076,7 +35076,7 @@
         <v>1</v>
       </c>
       <c r="H1070">
-        <v>0.6020671834625323</v>
+        <v>0.6020671834625322</v>
       </c>
       <c r="I1070">
         <v>-0.4502138589292906</v>
@@ -35105,7 +35105,7 @@
         <v>1</v>
       </c>
       <c r="H1071">
-        <v>0.6335363602805463</v>
+        <v>0.6335363602805464</v>
       </c>
       <c r="I1071">
         <v>0.4957427743253196</v>
@@ -35192,7 +35192,7 @@
         <v>1</v>
       </c>
       <c r="H1074">
-        <v>0.5132890365448506</v>
+        <v>0.5016611295681063</v>
       </c>
       <c r="I1074">
         <v>-0.1098317062641258</v>
@@ -35221,7 +35221,7 @@
         <v>1</v>
       </c>
       <c r="H1075">
-        <v>0.4995385751199705</v>
+        <v>0.4879106681432262</v>
       </c>
       <c r="I1075">
         <v>-0.1453623992831463</v>
@@ -35250,7 +35250,7 @@
         <v>1</v>
       </c>
       <c r="H1076">
-        <v>0.5210409745293467</v>
+        <v>0.5210409745293466</v>
       </c>
       <c r="I1076">
         <v>0.1405918396221282</v>
@@ -35279,7 +35279,7 @@
         <v>1</v>
       </c>
       <c r="H1077">
-        <v>0.5400516795865633</v>
+        <v>0.5284237726098191</v>
       </c>
       <c r="I1077">
         <v>-0.03258128997384355</v>
@@ -35337,7 +35337,7 @@
         <v>1</v>
       </c>
       <c r="H1079">
-        <v>0.5686600221483943</v>
+        <v>0.5686600221483942</v>
       </c>
       <c r="I1079">
         <v>0.2100569927697906</v>
@@ -35366,7 +35366,7 @@
         <v>1</v>
       </c>
       <c r="H1080">
-        <v>0.6277224067921743</v>
+        <v>0.6277224067921742</v>
       </c>
       <c r="I1080">
         <v>-0.4877761210815205</v>
@@ -35395,7 +35395,7 @@
         <v>0.4785520997287286</v>
       </c>
       <c r="H1081">
-        <v>0.6759874492432633</v>
+        <v>0.6643595422665189</v>
       </c>
       <c r="I1081">
         <v>0.370228079913223</v>
@@ -35453,7 +35453,7 @@
         <v>0.4256843474082138</v>
       </c>
       <c r="H1083">
-        <v>0.6710963455149502</v>
+        <v>0.6594684385382059</v>
       </c>
       <c r="I1083">
         <v>0.3698870665230058</v>
@@ -35482,7 +35482,7 @@
         <v>1</v>
       </c>
       <c r="H1084">
-        <v>0.6254152823920266</v>
+        <v>0.6254152823920265</v>
       </c>
       <c r="I1084">
         <v>0.4842607809206637</v>
@@ -35540,7 +35540,7 @@
         <v>1</v>
       </c>
       <c r="H1086">
-        <v>0.5776116648209673</v>
+        <v>0.5776116648209672</v>
       </c>
       <c r="I1086">
         <v>-0.4100286959140066</v>
@@ -35598,7 +35598,7 @@
         <v>0.02961027400154607</v>
       </c>
       <c r="H1088">
-        <v>0.7012735326688815</v>
+        <v>0.6896456256921373</v>
       </c>
       <c r="I1088">
         <v>0.999746053858349</v>
@@ -35627,7 +35627,7 @@
         <v>0.2339149898149416</v>
       </c>
       <c r="H1089">
-        <v>0.6315060908084165</v>
+        <v>0.6473791066814323</v>
       </c>
       <c r="I1089">
         <v>-0.7041600005804485</v>
@@ -35656,7 +35656,7 @@
         <v>0.2411516826335932</v>
       </c>
       <c r="H1090">
-        <v>0.6234772978959026</v>
+        <v>0.6118493909191584</v>
       </c>
       <c r="I1090">
         <v>0.7039713548752218</v>
@@ -35685,7 +35685,7 @@
         <v>1</v>
       </c>
       <c r="H1091">
-        <v>0.6701734957548912</v>
+        <v>0.670173495754891</v>
       </c>
       <c r="I1091">
         <v>0.4500360966301348</v>
@@ -35714,7 +35714,7 @@
         <v>1</v>
       </c>
       <c r="H1092">
-        <v>0.640826873385013</v>
+        <v>0.6291989664082688</v>
       </c>
       <c r="I1092">
         <v>0.7801588251725928</v>
@@ -35743,7 +35743,7 @@
         <v>0.01331517603275533</v>
       </c>
       <c r="H1093">
-        <v>0.6865079365079365</v>
+        <v>0.6748800295311923</v>
       </c>
       <c r="I1093">
         <v>0.8124498909845493</v>
@@ -35772,7 +35772,7 @@
         <v>1</v>
       </c>
       <c r="H1094">
-        <v>0.6229235880398671</v>
+        <v>0.638796603912883</v>
       </c>
       <c r="I1094">
         <v>-0.1053368595569003</v>
@@ -35801,7 +35801,7 @@
         <v>1</v>
       </c>
       <c r="H1095">
-        <v>0.6461794019933554</v>
+        <v>0.6620524178663714</v>
       </c>
       <c r="I1095">
         <v>-0.4777815265065355</v>
@@ -35830,7 +35830,7 @@
         <v>1</v>
       </c>
       <c r="H1096">
-        <v>0.6502399409376154</v>
+        <v>0.6386120339608712</v>
       </c>
       <c r="I1096">
         <v>0.7665799621983029</v>
@@ -35859,7 +35859,7 @@
         <v>0.02910952336911734</v>
       </c>
       <c r="H1097">
-        <v>0.7009966777408638</v>
+        <v>0.6893687707641195</v>
       </c>
       <c r="I1097">
         <v>0.9993796458539667</v>
@@ -35946,7 +35946,7 @@
         <v>1</v>
       </c>
       <c r="H1100">
-        <v>0.6234772978959026</v>
+        <v>0.6118493909191582</v>
       </c>
       <c r="I1100">
         <v>0.7215553112835527</v>
@@ -36004,7 +36004,7 @@
         <v>1</v>
       </c>
       <c r="H1102">
-        <v>0.6759874492432631</v>
+        <v>0.6643595422665191</v>
       </c>
       <c r="I1102">
         <v>0.1095378543002151</v>
@@ -36033,7 +36033,7 @@
         <v>0.009835097497861241</v>
       </c>
       <c r="H1103">
-        <v>0.7089331856773717</v>
+        <v>0.7248062015503876</v>
       </c>
       <c r="I1103">
         <v>-0.8033150854891548</v>
@@ -36062,7 +36062,7 @@
         <v>0.1868383564306016</v>
       </c>
       <c r="H1104">
-        <v>0.6734034699150978</v>
+        <v>0.5100590623846437</v>
       </c>
       <c r="I1104">
         <v>0.6710352706575572</v>
@@ -36091,7 +36091,7 @@
         <v>1</v>
       </c>
       <c r="H1105">
-        <v>0.622923588039867</v>
+        <v>0.638796603912883</v>
       </c>
       <c r="I1105">
         <v>-0.4409849777936646</v>
@@ -36120,7 +36120,7 @@
         <v>0.1432292044936468</v>
       </c>
       <c r="H1106">
-        <v>0.6711886304909561</v>
+        <v>0.6595607235142119</v>
       </c>
       <c r="I1106">
         <v>0.4628400886825789</v>
@@ -36149,7 +36149,7 @@
         <v>0.292188883690742</v>
       </c>
       <c r="H1107">
-        <v>0.6781100036913991</v>
+        <v>0.6664820967146549</v>
       </c>
       <c r="I1107">
         <v>0.4990902726645933</v>
@@ -36178,7 +36178,7 @@
         <v>0.961368864455115</v>
       </c>
       <c r="H1108">
-        <v>0.6678663713547434</v>
+        <v>0.6562384643779993</v>
       </c>
       <c r="I1108">
         <v>0.9525846275517053</v>
@@ -36207,7 +36207,7 @@
         <v>0.08565719902289977</v>
       </c>
       <c r="H1109">
-        <v>0.6923218899963086</v>
+        <v>0.6806939830195643</v>
       </c>
       <c r="I1109">
         <v>0.9748774709866534</v>
@@ -36236,7 +36236,7 @@
         <v>1</v>
       </c>
       <c r="H1110">
-        <v>0.6232004429678848</v>
+        <v>0.6115725359911407</v>
       </c>
       <c r="I1110">
         <v>0.8590889137997962</v>
@@ -36265,7 +36265,7 @@
         <v>1</v>
       </c>
       <c r="H1111">
-        <v>0.6089885566629752</v>
+        <v>0.6248615725359912</v>
       </c>
       <c r="I1111">
         <v>-0.4442892577958384</v>
@@ -36294,7 +36294,7 @@
         <v>0.003753151493219723</v>
       </c>
       <c r="H1112">
-        <v>0.672296050203027</v>
+        <v>0.2939276485788114</v>
       </c>
       <c r="I1112">
         <v>0.7601988498951778</v>
@@ -36323,7 +36323,7 @@
         <v>1</v>
       </c>
       <c r="H1113">
-        <v>0.6438722775932079</v>
+        <v>0.6322443706164637</v>
       </c>
       <c r="I1113">
         <v>0.318493977721416</v>
@@ -36352,7 +36352,7 @@
         <v>0.0117594567523327</v>
       </c>
       <c r="H1114">
-        <v>0.709579180509413</v>
+        <v>0.6979512735326688</v>
       </c>
       <c r="I1114">
         <v>0.6779491309600254</v>
@@ -36381,7 +36381,7 @@
         <v>0.0281320912724353</v>
       </c>
       <c r="H1115">
-        <v>0.6973052787006275</v>
+        <v>0.6856773717238833</v>
       </c>
       <c r="I1115">
         <v>0.6627486404811918</v>
@@ -36410,7 +36410,7 @@
         <v>1</v>
       </c>
       <c r="H1116">
-        <v>0.6281838316722037</v>
+        <v>0.6165559246954596</v>
       </c>
       <c r="I1116">
         <v>0.3307249436783736</v>
@@ -36439,7 +36439,7 @@
         <v>1</v>
       </c>
       <c r="H1117">
-        <v>0.6284606866002215</v>
+        <v>0.4760059062384644</v>
       </c>
       <c r="I1117">
         <v>0.5921632016778454</v>
@@ -36468,7 +36468,7 @@
         <v>1</v>
       </c>
       <c r="H1118">
-        <v>0.5622000738279808</v>
+        <v>0.5780730897009967</v>
       </c>
       <c r="I1118">
         <v>-0.7759070412009477</v>
@@ -36497,7 +36497,7 @@
         <v>0.1392494013781062</v>
       </c>
       <c r="H1119">
-        <v>0.6737726098191215</v>
+        <v>0.6623292727943891</v>
       </c>
       <c r="I1119">
         <v>0.9502927185416504</v>
@@ -36526,7 +36526,7 @@
         <v>0.02861683669348698</v>
       </c>
       <c r="H1120">
-        <v>0.6864156515319304</v>
+        <v>0.7022886674049464</v>
       </c>
       <c r="I1120">
         <v>-0.8969087498957009</v>
@@ -36555,7 +36555,7 @@
         <v>0.02582330929601267</v>
       </c>
       <c r="H1121">
-        <v>0.7033038021410115</v>
+        <v>0.6916758951642672</v>
       </c>
       <c r="I1121">
         <v>0.9991510943264806</v>
@@ -36584,7 +36584,7 @@
         <v>0.02369563041552216</v>
       </c>
       <c r="H1122">
-        <v>0.7036729420450351</v>
+        <v>0.692045035068291</v>
       </c>
       <c r="I1122">
         <v>0.917536432201822</v>
@@ -36613,7 +36613,7 @@
         <v>0.02627012869146599</v>
       </c>
       <c r="H1123">
-        <v>0.6872462163159837</v>
+        <v>0.7031192321889996</v>
       </c>
       <c r="I1123">
         <v>-0.9134950607475451</v>
@@ -36642,7 +36642,7 @@
         <v>0.02861683669348698</v>
       </c>
       <c r="H1124">
-        <v>0.7031192321889997</v>
+        <v>0.6914913252122554</v>
       </c>
       <c r="I1124">
         <v>1</v>
@@ -36700,7 +36700,7 @@
         <v>1</v>
       </c>
       <c r="H1126">
-        <v>0.6701734957548912</v>
+        <v>0.670173495754891</v>
       </c>
       <c r="I1126">
         <v>0.5108416863474927</v>
@@ -36729,7 +36729,7 @@
         <v>1</v>
       </c>
       <c r="H1127">
-        <v>0.6088039867109635</v>
+        <v>0.5971760797342193</v>
       </c>
       <c r="I1127">
         <v>0.6374084433464298</v>
@@ -36758,7 +36758,7 @@
         <v>0.01218526791778434</v>
       </c>
       <c r="H1128">
-        <v>0.6773717238833518</v>
+        <v>0.6657438169066077</v>
       </c>
       <c r="I1128">
         <v>0.7717822303001282</v>
@@ -36787,7 +36787,7 @@
         <v>1</v>
       </c>
       <c r="H1129">
-        <v>0.6207087486157253</v>
+        <v>0.6365817644887412</v>
       </c>
       <c r="I1129">
         <v>-0.1530388283650585</v>
@@ -36816,7 +36816,7 @@
         <v>1</v>
       </c>
       <c r="H1130">
-        <v>0.6336286452565522</v>
+        <v>0.6495016611295681</v>
       </c>
       <c r="I1130">
         <v>-0.5266806699824779</v>
@@ -36845,7 +36845,7 @@
         <v>1</v>
       </c>
       <c r="H1131">
-        <v>0.6450719822812846</v>
+        <v>0.6609449981543005</v>
       </c>
       <c r="I1131">
         <v>-0.9051583716973398</v>
@@ -36874,7 +36874,7 @@
         <v>1</v>
       </c>
       <c r="H1132">
-        <v>0.6876153562200075</v>
+        <v>0.6759874492432633</v>
       </c>
       <c r="I1132">
         <v>0.05036840329549537</v>
@@ -36903,7 +36903,7 @@
         <v>0.008671338314842889</v>
       </c>
       <c r="H1133">
-        <v>0.6979512735326688</v>
+        <v>0.7138242894056848</v>
       </c>
       <c r="I1133">
         <v>-0.8679734009555632</v>
@@ -36961,7 +36961,7 @@
         <v>0.1886909919597167</v>
       </c>
       <c r="H1135">
-        <v>0.6866925064599483</v>
+        <v>0.6750645994832041</v>
       </c>
       <c r="I1135">
         <v>0.3740880612663207</v>
@@ -36990,7 +36990,7 @@
         <v>0.06712610221604833</v>
       </c>
       <c r="H1136">
-        <v>0.694905869324474</v>
+        <v>0.6832779623477299</v>
       </c>
       <c r="I1136">
         <v>0.9821802364601361</v>
@@ -37019,7 +37019,7 @@
         <v>1</v>
       </c>
       <c r="H1137">
-        <v>0.6379660391288298</v>
+        <v>0.6379660391288299</v>
       </c>
       <c r="I1137">
         <v>-0.5152821160243644</v>
@@ -37048,7 +37048,7 @@
         <v>1</v>
       </c>
       <c r="H1138">
-        <v>0.6244924326319676</v>
+        <v>0.6244924326319675</v>
       </c>
       <c r="I1138">
         <v>-0.549165786924676</v>
@@ -37077,7 +37077,7 @@
         <v>1</v>
       </c>
       <c r="H1139">
-        <v>0.6687892211148024</v>
+        <v>0.6571613141380582</v>
       </c>
       <c r="I1139">
         <v>0.6035501670602833</v>
@@ -37106,7 +37106,7 @@
         <v>1</v>
       </c>
       <c r="H1140">
-        <v>0.6316906607604282</v>
+        <v>0.620062753783684</v>
       </c>
       <c r="I1140">
         <v>0.6891953172331481</v>
@@ -37164,7 +37164,7 @@
         <v>0.08029078625002468</v>
       </c>
       <c r="H1142">
-        <v>0.6902916205241787</v>
+        <v>0.6786637135474344</v>
       </c>
       <c r="I1142">
         <v>0.6337153408864172</v>
@@ -37193,7 +37193,7 @@
         <v>0.002705518647238849</v>
       </c>
       <c r="H1143">
-        <v>0.7309892949427833</v>
+        <v>0.7193613879660391</v>
       </c>
       <c r="I1143">
         <v>0.6550976060134448</v>
@@ -37251,7 +37251,7 @@
         <v>1</v>
       </c>
       <c r="H1145">
-        <v>0.6113879660391289</v>
+        <v>0.5997600590623846</v>
       </c>
       <c r="I1145">
         <v>0.7048492829649301</v>
@@ -37280,7 +37280,7 @@
         <v>1</v>
       </c>
       <c r="H1146">
-        <v>0.6295681063122924</v>
+        <v>0.6295681063122923</v>
       </c>
       <c r="I1146">
         <v>-0.523967074068834</v>
@@ -37309,7 +37309,7 @@
         <v>1</v>
       </c>
       <c r="H1147">
-        <v>0.6450719822812846</v>
+        <v>0.6334440753045404</v>
       </c>
       <c r="I1147">
         <v>0.5441158865078416</v>
@@ -37338,7 +37338,7 @@
         <v>1</v>
       </c>
       <c r="H1148">
-        <v>0.6364894795127353</v>
+        <v>0.6523624953857512</v>
       </c>
       <c r="I1148">
         <v>-0.5382860086559357</v>
@@ -37367,7 +37367,7 @@
         <v>0.06712610221604833</v>
       </c>
       <c r="H1149">
-        <v>0.694905869324474</v>
+        <v>0.6832779623477299</v>
       </c>
       <c r="I1149">
         <v>0.9821802364601361</v>
@@ -37396,7 +37396,7 @@
         <v>1</v>
       </c>
       <c r="H1150">
-        <v>0.3596345514950167</v>
+        <v>0.3596345514950166</v>
       </c>
       <c r="I1150">
         <v>0.555285888938469</v>
@@ -37454,7 +37454,7 @@
         <v>1</v>
       </c>
       <c r="H1152">
-        <v>0.6370431893687708</v>
+        <v>0.6254152823920266</v>
       </c>
       <c r="I1152">
         <v>0.6911216801076733</v>
@@ -37483,7 +37483,7 @@
         <v>1</v>
       </c>
       <c r="H1153">
-        <v>0.6380583241048358</v>
+        <v>0.6264304171280916</v>
       </c>
       <c r="I1153">
         <v>0.6918254737002494</v>
@@ -37541,7 +37541,7 @@
         <v>1</v>
       </c>
       <c r="H1155">
-        <v>0.5101513473606496</v>
+        <v>0.5260243632336655</v>
       </c>
       <c r="I1155">
         <v>-0.1146965887777572</v>
@@ -37628,7 +37628,7 @@
         <v>1</v>
       </c>
       <c r="H1158">
-        <v>0.5972683647102252</v>
+        <v>0.5856404577334809</v>
       </c>
       <c r="I1158">
         <v>0.4981915406912415</v>
@@ -37715,7 +37715,7 @@
         <v>1</v>
       </c>
       <c r="H1161">
-        <v>0.6481173864894796</v>
+        <v>0.6481173864894795</v>
       </c>
       <c r="I1161">
         <v>-0.5065173463353758</v>
@@ -37802,7 +37802,7 @@
         <v>1</v>
       </c>
       <c r="H1164">
-        <v>0.4900332225913621</v>
+        <v>0.4784053156146179</v>
       </c>
       <c r="I1164">
         <v>0.2166777314628387</v>
@@ -37831,7 +37831,7 @@
         <v>1</v>
       </c>
       <c r="H1165">
-        <v>0.4163898117386489</v>
+        <v>0.4047619047619048</v>
       </c>
       <c r="I1165">
         <v>-0.436809130452133</v>
@@ -37860,7 +37860,7 @@
         <v>1</v>
       </c>
       <c r="H1166">
-        <v>0.6566076042820228</v>
+        <v>0.6449796973052787</v>
       </c>
       <c r="I1166">
         <v>0.6145931964200851</v>
@@ -37889,7 +37889,7 @@
         <v>0.1801364763107365</v>
       </c>
       <c r="H1167">
-        <v>0.6807862679955703</v>
+        <v>0.6691583610188262</v>
       </c>
       <c r="I1167">
         <v>0.7996691444554489</v>
@@ -37918,7 +37918,7 @@
         <v>1</v>
       </c>
       <c r="H1168">
-        <v>0.6556847545219638</v>
+        <v>0.6440568475452196</v>
       </c>
       <c r="I1168">
         <v>0.6136282010818106</v>
@@ -37947,7 +37947,7 @@
         <v>0.09587390336026447</v>
       </c>
       <c r="H1169">
-        <v>0.6902916205241787</v>
+        <v>0.6786637135474345</v>
       </c>
       <c r="I1169">
         <v>0.8204056608222777</v>
@@ -37976,7 +37976,7 @@
         <v>0.1161169104024049</v>
       </c>
       <c r="H1170">
-        <v>0.6896456256921374</v>
+        <v>0.6780177187153931</v>
       </c>
       <c r="I1170">
         <v>0.6883536671636756</v>
@@ -38005,7 +38005,7 @@
         <v>1</v>
       </c>
       <c r="H1171">
-        <v>0.3791066814322628</v>
+        <v>0.3949796973052787</v>
       </c>
       <c r="I1171">
         <v>0.5037348221832838</v>
@@ -38063,7 +38063,7 @@
         <v>1</v>
       </c>
       <c r="H1173">
-        <v>0.6070505721668513</v>
+        <v>0.6070505721668512</v>
       </c>
       <c r="I1173">
         <v>-0.3261539131286528</v>
@@ -38092,7 +38092,7 @@
         <v>0.05510646921268338</v>
       </c>
       <c r="H1174">
-        <v>0.6996124031007752</v>
+        <v>0.6879844961240309</v>
       </c>
       <c r="I1174">
         <v>0.9533791161948713</v>
@@ -38121,7 +38121,7 @@
         <v>1</v>
       </c>
       <c r="H1175">
-        <v>0.3600959763750462</v>
+        <v>0.3600959763750461</v>
       </c>
       <c r="I1175">
         <v>0.5563524627334038</v>
@@ -38179,7 +38179,7 @@
         <v>1</v>
       </c>
       <c r="H1177">
-        <v>0.6416574381690662</v>
+        <v>0.630029531192322</v>
       </c>
       <c r="I1177">
         <v>0.7051649017409823</v>
@@ -38237,7 +38237,7 @@
         <v>0.1976268229938674</v>
       </c>
       <c r="H1179">
-        <v>0.6826319675156884</v>
+        <v>0.6710040605389442</v>
       </c>
       <c r="I1179">
         <v>0.7702803202623628</v>
@@ -38295,7 +38295,7 @@
         <v>0.4319804315297191</v>
       </c>
       <c r="H1181">
-        <v>0.5155038759689923</v>
+        <v>0.5313768918420081</v>
       </c>
       <c r="I1181">
         <v>-0.8074471519940215</v>
@@ -38353,7 +38353,7 @@
         <v>0.0228922153362975</v>
       </c>
       <c r="H1183">
-        <v>0.7102251753414545</v>
+        <v>0.6985972683647101</v>
       </c>
       <c r="I1183">
         <v>0.9803445686362005</v>
@@ -38382,7 +38382,7 @@
         <v>1</v>
       </c>
       <c r="H1184">
-        <v>0.6585455887781468</v>
+        <v>0.658545588778147</v>
       </c>
       <c r="I1184">
         <v>-0.6397592590577148</v>
@@ -38469,7 +38469,7 @@
         <v>1</v>
       </c>
       <c r="H1187">
-        <v>0.6569767441860466</v>
+        <v>0.6569767441860465</v>
       </c>
       <c r="I1187">
         <v>-0.6402635235389934</v>
@@ -38498,7 +38498,7 @@
         <v>1</v>
       </c>
       <c r="H1188">
-        <v>0.6208933185677372</v>
+        <v>0.609265411590993</v>
       </c>
       <c r="I1188">
         <v>0.6624148826950217</v>
@@ -38527,7 +38527,7 @@
         <v>0.3783191980204789</v>
       </c>
       <c r="H1189">
-        <v>0.5247323735695828</v>
+        <v>0.5406053894425987</v>
       </c>
       <c r="I1189">
         <v>-0.8130484783184414</v>
@@ -38556,7 +38556,7 @@
         <v>0.04293897797656901</v>
       </c>
       <c r="H1190">
-        <v>0.7006275378368402</v>
+        <v>0.688999630860096</v>
       </c>
       <c r="I1190">
         <v>0.9723089871539531</v>
@@ -38585,7 +38585,7 @@
         <v>1</v>
       </c>
       <c r="H1191">
-        <v>0.4431524547803617</v>
+        <v>0.4590254706533776</v>
       </c>
       <c r="I1191">
         <v>0.1536918327293043</v>
@@ -38643,7 +38643,7 @@
         <v>1</v>
       </c>
       <c r="H1193">
-        <v>0.6100959763750462</v>
+        <v>0.598468069398302</v>
       </c>
       <c r="I1193">
         <v>0.6810218792740044</v>
@@ -38672,7 +38672,7 @@
         <v>0.3164366451157735</v>
       </c>
       <c r="H1194">
-        <v>0.4107604282022887</v>
+        <v>0.4107604282022886</v>
       </c>
       <c r="I1194">
         <v>0.8119855323255301</v>
@@ -38730,7 +38730,7 @@
         <v>0.603184536100598</v>
       </c>
       <c r="H1196">
-        <v>0.5232558139534884</v>
+        <v>0.5232558139534883</v>
       </c>
       <c r="I1196">
         <v>0.7207898450565756</v>
@@ -38759,7 +38759,7 @@
         <v>1</v>
       </c>
       <c r="H1197">
-        <v>0.524455518641565</v>
+        <v>0.5403285345145811</v>
       </c>
       <c r="I1197">
         <v>-0.8192375085706824</v>
@@ -38788,7 +38788,7 @@
         <v>0.2562606006837882</v>
       </c>
       <c r="H1198">
-        <v>0.6785714285714285</v>
+        <v>0.6669435215946844</v>
       </c>
       <c r="I1198">
         <v>0.8544888608338868</v>
@@ -38817,7 +38817,7 @@
         <v>1</v>
       </c>
       <c r="H1199">
-        <v>0.5897009966777408</v>
+        <v>0.6055740125507567</v>
       </c>
       <c r="I1199">
         <v>-0.505407238916158</v>
@@ -38875,7 +38875,7 @@
         <v>1</v>
       </c>
       <c r="H1201">
-        <v>0.6016980435585086</v>
+        <v>0.5900701365817644</v>
       </c>
       <c r="I1201">
         <v>0.6339257534037853</v>
@@ -38904,7 +38904,7 @@
         <v>1</v>
       </c>
       <c r="H1202">
-        <v>0.5187338501291989</v>
+        <v>0.5346068660022147</v>
       </c>
       <c r="I1202">
         <v>-0.8386244825847364</v>
@@ -38933,7 +38933,7 @@
         <v>1</v>
       </c>
       <c r="H1203">
-        <v>0.5968992248062015</v>
+        <v>0.5852713178294573</v>
       </c>
       <c r="I1203">
         <v>0.653686391026269</v>
@@ -38991,7 +38991,7 @@
         <v>0.3117331810805082</v>
       </c>
       <c r="H1205">
-        <v>0.4107604282022887</v>
+        <v>0.4107604282022886</v>
       </c>
       <c r="I1205">
         <v>0.8162046660789628</v>
@@ -39020,7 +39020,7 @@
         <v>1</v>
       </c>
       <c r="H1206">
-        <v>0.4688999630860097</v>
+        <v>0.4572720561092654</v>
       </c>
       <c r="I1206">
         <v>0.1093999978233188</v>
@@ -39049,7 +39049,7 @@
         <v>0.06083551115517505</v>
       </c>
       <c r="H1207">
-        <v>0.6952750092284976</v>
+        <v>0.6836471022517534</v>
       </c>
       <c r="I1207">
         <v>0.954648846903127</v>
@@ -39107,7 +39107,7 @@
         <v>1</v>
       </c>
       <c r="H1209">
-        <v>0.6110188261351053</v>
+        <v>0.5993909191583608</v>
       </c>
       <c r="I1209">
         <v>0.5428461557995858</v>
@@ -39136,7 +39136,7 @@
         <v>0.09434693600280637</v>
       </c>
       <c r="H1210">
-        <v>0.6907530454042082</v>
+        <v>0.679125138427464</v>
       </c>
       <c r="I1210">
         <v>0.9359584108776017</v>
@@ -39194,7 +39194,7 @@
         <v>1</v>
       </c>
       <c r="H1212">
-        <v>0.6421188630490956</v>
+        <v>0.6304909560723514</v>
       </c>
       <c r="I1212">
         <v>0.6999807726492752</v>
@@ -39223,7 +39223,7 @@
         <v>1</v>
       </c>
       <c r="H1213">
-        <v>0.6481173864894796</v>
+        <v>0.6364894795127353</v>
       </c>
       <c r="I1213">
         <v>0.6219794013401102</v>
@@ -39252,7 +39252,7 @@
         <v>0.04366344308195123</v>
       </c>
       <c r="H1214">
-        <v>0.697858988556663</v>
+        <v>0.6862310815799187</v>
       </c>
       <c r="I1214">
         <v>0.7727363422323317</v>
@@ -39281,7 +39281,7 @@
         <v>1</v>
       </c>
       <c r="H1215">
-        <v>0.5246400885935768</v>
+        <v>0.5405131044665928</v>
       </c>
       <c r="I1215">
         <v>0.0705933995769983</v>
@@ -39310,7 +39310,7 @@
         <v>0.4716232738318063</v>
       </c>
       <c r="H1216">
-        <v>0.5153193060169805</v>
+        <v>0.5311923218899963</v>
       </c>
       <c r="I1216">
         <v>-0.8058110132813833</v>
@@ -39397,7 +39397,7 @@
         <v>0.07772844149690918</v>
       </c>
       <c r="H1219">
-        <v>0.6548541897379104</v>
+        <v>0.6707272056109266</v>
       </c>
       <c r="I1219">
         <v>-0.8725335480992132</v>
